--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,10 @@
         <v>1.733</v>
       </c>
       <c r="C2" t="n">
-        <v>1.733</v>
+        <v>1.759</v>
       </c>
       <c r="D2" t="n">
-        <v>1.733</v>
+        <v>1.759</v>
       </c>
       <c r="E2" t="n">
         <v>1.733</v>
@@ -448,7 +448,7 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.749516666666666</v>
+        <v>1.750133333333332</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="C3" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="D3" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="E3" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="F3" t="n">
-        <v>1000.9484</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.749883333333333</v>
+        <v>1.749516666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>1.759</v>
       </c>
       <c r="C4" t="n">
-        <v>1.769</v>
+        <v>1.759</v>
       </c>
       <c r="D4" t="n">
-        <v>1.769</v>
+        <v>1.759</v>
       </c>
       <c r="E4" t="n">
         <v>1.759</v>
       </c>
       <c r="F4" t="n">
-        <v>26504</v>
+        <v>1000.9484</v>
       </c>
       <c r="G4" t="n">
-        <v>1.750416666666666</v>
+        <v>1.749883333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.769</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.733</v>
-      </c>
       <c r="D5" t="n">
-        <v>1.791</v>
+        <v>1.769</v>
       </c>
       <c r="E5" t="n">
-        <v>1.733</v>
+        <v>1.759</v>
       </c>
       <c r="F5" t="n">
-        <v>137746.2492705011</v>
+        <v>26504</v>
       </c>
       <c r="G5" t="n">
-        <v>1.750566666666666</v>
+        <v>1.750416666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.733</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.797</v>
-      </c>
       <c r="D6" t="n">
-        <v>1.797</v>
+        <v>1.791</v>
       </c>
       <c r="E6" t="n">
         <v>1.733</v>
       </c>
       <c r="F6" t="n">
-        <v>356200.6334</v>
+        <v>137746.2492705011</v>
       </c>
       <c r="G6" t="n">
-        <v>1.751016666666666</v>
+        <v>1.750566666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.77</v>
+        <v>1.733</v>
       </c>
       <c r="C7" t="n">
-        <v>1.77</v>
+        <v>1.797</v>
       </c>
       <c r="D7" t="n">
-        <v>1.77</v>
+        <v>1.797</v>
       </c>
       <c r="E7" t="n">
-        <v>1.77</v>
+        <v>1.733</v>
       </c>
       <c r="F7" t="n">
-        <v>1129.94</v>
+        <v>356200.6334</v>
       </c>
       <c r="G7" t="n">
-        <v>1.751516666666666</v>
+        <v>1.751016666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.77</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0036</v>
+        <v>1129.94</v>
       </c>
       <c r="G8" t="n">
-        <v>1.752016666666666</v>
+        <v>1.751516666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.762</v>
+        <v>1.77</v>
       </c>
       <c r="C9" t="n">
-        <v>1.759</v>
+        <v>1.77</v>
       </c>
       <c r="D9" t="n">
-        <v>1.762</v>
+        <v>1.77</v>
       </c>
       <c r="E9" t="n">
-        <v>1.759</v>
+        <v>1.77</v>
       </c>
       <c r="F9" t="n">
-        <v>161537.5694</v>
+        <v>0.0036</v>
       </c>
       <c r="G9" t="n">
-        <v>1.752333333333333</v>
+        <v>1.752016666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.754</v>
+        <v>1.762</v>
       </c>
       <c r="C10" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="D10" t="n">
-        <v>1.754</v>
+        <v>1.762</v>
       </c>
       <c r="E10" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="F10" t="n">
-        <v>400000</v>
+        <v>161537.5694</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7525</v>
+        <v>1.752333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="C11" t="n">
         <v>1.75</v>
       </c>
       <c r="D11" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="E11" t="n">
         <v>1.75</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>400000</v>
       </c>
       <c r="G11" t="n">
-        <v>1.752166666666666</v>
+        <v>1.7525</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.75</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.749</v>
-      </c>
       <c r="D12" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E12" t="n">
         <v>1.75</v>
       </c>
-      <c r="E12" t="n">
-        <v>1.749</v>
-      </c>
       <c r="F12" t="n">
-        <v>216718.8538</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>1.752383333333333</v>
+        <v>1.752166666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>1.749</v>
       </c>
       <c r="F13" t="n">
-        <v>248671.5579</v>
+        <v>216718.8538</v>
       </c>
       <c r="G13" t="n">
-        <v>1.752599999999999</v>
+        <v>1.752383333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>1.75</v>
       </c>
       <c r="C14" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="D14" t="n">
         <v>1.75</v>
       </c>
       <c r="E14" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="F14" t="n">
-        <v>88029.9617</v>
+        <v>248671.5579</v>
       </c>
       <c r="G14" t="n">
-        <v>1.752266666666666</v>
+        <v>1.752599999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="C15" t="n">
         <v>1.75</v>
       </c>
       <c r="D15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E15" t="n">
         <v>1.75</v>
       </c>
       <c r="F15" t="n">
-        <v>626427.8049</v>
+        <v>88029.9617</v>
       </c>
       <c r="G15" t="n">
-        <v>1.751933333333333</v>
+        <v>1.752266666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.752</v>
+        <v>1.76</v>
       </c>
       <c r="C16" t="n">
         <v>1.75</v>
       </c>
       <c r="D16" t="n">
-        <v>1.752</v>
+        <v>1.76</v>
       </c>
       <c r="E16" t="n">
         <v>1.75</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>626427.8049</v>
       </c>
       <c r="G16" t="n">
-        <v>1.752166666666666</v>
+        <v>1.751933333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.754</v>
+        <v>1.752</v>
       </c>
       <c r="C17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.752</v>
       </c>
-      <c r="D17" t="n">
-        <v>1.754</v>
-      </c>
       <c r="E17" t="n">
-        <v>1.752</v>
+        <v>1.75</v>
       </c>
       <c r="F17" t="n">
         <v>1000</v>
       </c>
       <c r="G17" t="n">
-        <v>1.752433333333333</v>
+        <v>1.752166666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.752666666666666</v>
+        <v>1.752433333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.758</v>
+        <v>1.754</v>
       </c>
       <c r="C19" t="n">
-        <v>1.757</v>
+        <v>1.752</v>
       </c>
       <c r="D19" t="n">
-        <v>1.758</v>
+        <v>1.754</v>
       </c>
       <c r="E19" t="n">
-        <v>1.757</v>
+        <v>1.752</v>
       </c>
       <c r="F19" t="n">
         <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>1.752449999999999</v>
+        <v>1.752666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.77</v>
+        <v>1.758</v>
       </c>
       <c r="C20" t="n">
-        <v>1.77</v>
+        <v>1.757</v>
       </c>
       <c r="D20" t="n">
-        <v>1.77</v>
+        <v>1.758</v>
       </c>
       <c r="E20" t="n">
-        <v>1.77</v>
+        <v>1.757</v>
       </c>
       <c r="F20" t="n">
-        <v>3232.6922</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>1.752433333333333</v>
+        <v>1.752449999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.756</v>
+        <v>1.77</v>
       </c>
       <c r="C21" t="n">
-        <v>1.754</v>
+        <v>1.77</v>
       </c>
       <c r="D21" t="n">
-        <v>1.756</v>
+        <v>1.77</v>
       </c>
       <c r="E21" t="n">
-        <v>1.754</v>
+        <v>1.77</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>3232.6922</v>
       </c>
       <c r="G21" t="n">
-        <v>1.752066666666666</v>
+        <v>1.752433333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.77</v>
+        <v>1.756</v>
       </c>
       <c r="C22" t="n">
-        <v>1.77</v>
+        <v>1.754</v>
       </c>
       <c r="D22" t="n">
-        <v>1.77</v>
+        <v>1.756</v>
       </c>
       <c r="E22" t="n">
-        <v>1.77</v>
+        <v>1.754</v>
       </c>
       <c r="F22" t="n">
-        <v>409.7465</v>
+        <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>1.751899999999999</v>
+        <v>1.752066666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.77</v>
       </c>
       <c r="F23" t="n">
-        <v>637.6811</v>
+        <v>409.7465</v>
       </c>
       <c r="G23" t="n">
-        <v>1.752199999999999</v>
+        <v>1.751899999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>1.77</v>
       </c>
       <c r="C24" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="D24" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="E24" t="n">
         <v>1.77</v>
       </c>
       <c r="F24" t="n">
-        <v>6679381.7522</v>
+        <v>637.6811</v>
       </c>
       <c r="G24" t="n">
-        <v>1.752799999999999</v>
+        <v>1.752199999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="C25" t="n">
         <v>1.788</v>
@@ -1247,13 +1247,13 @@
         <v>1.788</v>
       </c>
       <c r="E25" t="n">
-        <v>1.787</v>
+        <v>1.77</v>
       </c>
       <c r="F25" t="n">
-        <v>6468651.1984</v>
+        <v>6679381.7522</v>
       </c>
       <c r="G25" t="n">
-        <v>1.753399999999999</v>
+        <v>1.752799999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="C26" t="n">
         <v>1.788</v>
@@ -1282,13 +1282,13 @@
         <v>1.788</v>
       </c>
       <c r="E26" t="n">
-        <v>1.788</v>
+        <v>1.787</v>
       </c>
       <c r="F26" t="n">
-        <v>222053.7836</v>
+        <v>6468651.1984</v>
       </c>
       <c r="G26" t="n">
-        <v>1.754266666666666</v>
+        <v>1.753399999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="C27" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="D27" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="E27" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="F27" t="n">
-        <v>752267.5716</v>
+        <v>222053.7836</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754599999999999</v>
+        <v>1.754266666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.767</v>
+        <v>1.77</v>
       </c>
       <c r="C28" t="n">
-        <v>1.767</v>
+        <v>1.77</v>
       </c>
       <c r="D28" t="n">
-        <v>1.767</v>
+        <v>1.77</v>
       </c>
       <c r="E28" t="n">
-        <v>1.767</v>
+        <v>1.77</v>
       </c>
       <c r="F28" t="n">
-        <v>10207.6203</v>
+        <v>752267.5716</v>
       </c>
       <c r="G28" t="n">
-        <v>1.754549999999999</v>
+        <v>1.754599999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>1.767</v>
       </c>
       <c r="F29" t="n">
-        <v>1409</v>
+        <v>10207.6203</v>
       </c>
       <c r="G29" t="n">
-        <v>1.754499999999999</v>
+        <v>1.754549999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.766</v>
+        <v>1.767</v>
       </c>
       <c r="C30" t="n">
-        <v>1.766</v>
+        <v>1.767</v>
       </c>
       <c r="D30" t="n">
-        <v>1.766</v>
+        <v>1.767</v>
       </c>
       <c r="E30" t="n">
-        <v>1.766</v>
+        <v>1.767</v>
       </c>
       <c r="F30" t="n">
-        <v>5938711.2775</v>
+        <v>1409</v>
       </c>
       <c r="G30" t="n">
-        <v>1.754299999999999</v>
+        <v>1.754499999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1.766</v>
       </c>
       <c r="F31" t="n">
-        <v>12010876.7537</v>
+        <v>5938711.2775</v>
       </c>
       <c r="G31" t="n">
-        <v>1.753916666666666</v>
+        <v>1.754299999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.755</v>
+        <v>1.766</v>
       </c>
       <c r="C32" t="n">
-        <v>1.755</v>
+        <v>1.766</v>
       </c>
       <c r="D32" t="n">
-        <v>1.755</v>
+        <v>1.766</v>
       </c>
       <c r="E32" t="n">
-        <v>1.755</v>
+        <v>1.766</v>
       </c>
       <c r="F32" t="n">
-        <v>8327.0299</v>
+        <v>12010876.7537</v>
       </c>
       <c r="G32" t="n">
-        <v>1.753349999999999</v>
+        <v>1.753916666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.767</v>
+        <v>1.755</v>
       </c>
       <c r="C33" t="n">
-        <v>1.752</v>
+        <v>1.755</v>
       </c>
       <c r="D33" t="n">
-        <v>1.767</v>
+        <v>1.755</v>
       </c>
       <c r="E33" t="n">
-        <v>1.752</v>
+        <v>1.755</v>
       </c>
       <c r="F33" t="n">
-        <v>960568.5566</v>
+        <v>8327.0299</v>
       </c>
       <c r="G33" t="n">
-        <v>1.752916666666666</v>
+        <v>1.753349999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.769</v>
+        <v>1.767</v>
       </c>
       <c r="C34" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="D34" t="n">
-        <v>1.788</v>
+        <v>1.767</v>
       </c>
       <c r="E34" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="F34" t="n">
-        <v>985950.177</v>
+        <v>960568.5566</v>
       </c>
       <c r="G34" t="n">
-        <v>1.753233333333332</v>
+        <v>1.752916666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.788</v>
+        <v>1.769</v>
       </c>
       <c r="C35" t="n">
         <v>1.788</v>
@@ -1597,13 +1597,13 @@
         <v>1.788</v>
       </c>
       <c r="E35" t="n">
-        <v>1.788</v>
+        <v>1.769</v>
       </c>
       <c r="F35" t="n">
-        <v>6126966.6316</v>
+        <v>985950.177</v>
       </c>
       <c r="G35" t="n">
-        <v>1.753699999999999</v>
+        <v>1.753233333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>1.788</v>
       </c>
       <c r="C36" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="D36" t="n">
-        <v>1.789</v>
+        <v>1.788</v>
       </c>
       <c r="E36" t="n">
         <v>1.788</v>
       </c>
       <c r="F36" t="n">
-        <v>6248512.0847</v>
+        <v>6126966.6316</v>
       </c>
       <c r="G36" t="n">
-        <v>1.754349999999999</v>
+        <v>1.753699999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="C37" t="n">
-        <v>1.76</v>
+        <v>1.789</v>
       </c>
       <c r="D37" t="n">
-        <v>1.77</v>
+        <v>1.789</v>
       </c>
       <c r="E37" t="n">
-        <v>1.76</v>
+        <v>1.788</v>
       </c>
       <c r="F37" t="n">
-        <v>415265.0651</v>
+        <v>6248512.0847</v>
       </c>
       <c r="G37" t="n">
-        <v>1.754516666666665</v>
+        <v>1.754349999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="C38" t="n">
         <v>1.76</v>
       </c>
       <c r="D38" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E38" t="n">
         <v>1.76</v>
       </c>
       <c r="F38" t="n">
-        <v>124579.5195</v>
+        <v>415265.0651</v>
       </c>
       <c r="G38" t="n">
-        <v>1.754683333333332</v>
+        <v>1.754516666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>1.76</v>
       </c>
       <c r="F39" t="n">
-        <v>112121.5675</v>
+        <v>124579.5195</v>
       </c>
       <c r="G39" t="n">
-        <v>1.754516666666666</v>
+        <v>1.754683333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.779</v>
+        <v>1.76</v>
       </c>
       <c r="C40" t="n">
-        <v>1.779</v>
+        <v>1.76</v>
       </c>
       <c r="D40" t="n">
-        <v>1.779</v>
+        <v>1.76</v>
       </c>
       <c r="E40" t="n">
-        <v>1.779</v>
+        <v>1.76</v>
       </c>
       <c r="F40" t="n">
-        <v>1874260.8166</v>
+        <v>112121.5675</v>
       </c>
       <c r="G40" t="n">
-        <v>1.755166666666666</v>
+        <v>1.754516666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.777</v>
+        <v>1.779</v>
       </c>
       <c r="C41" t="n">
-        <v>1.777</v>
+        <v>1.779</v>
       </c>
       <c r="D41" t="n">
-        <v>1.777</v>
+        <v>1.779</v>
       </c>
       <c r="E41" t="n">
-        <v>1.777</v>
+        <v>1.779</v>
       </c>
       <c r="F41" t="n">
-        <v>11823243.6109</v>
+        <v>1874260.8166</v>
       </c>
       <c r="G41" t="n">
-        <v>1.755949999999999</v>
+        <v>1.755166666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>1.777</v>
       </c>
       <c r="C42" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="D42" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="E42" t="n">
         <v>1.777</v>
       </c>
       <c r="F42" t="n">
-        <v>6092657.1739</v>
+        <v>11823243.6109</v>
       </c>
       <c r="G42" t="n">
-        <v>1.757066666666666</v>
+        <v>1.755949999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="C43" t="n">
         <v>1.778</v>
@@ -1877,13 +1877,13 @@
         <v>1.778</v>
       </c>
       <c r="E43" t="n">
-        <v>1.778</v>
+        <v>1.777</v>
       </c>
       <c r="F43" t="n">
-        <v>83972.8034</v>
+        <v>6092657.1739</v>
       </c>
       <c r="G43" t="n">
-        <v>1.758016666666666</v>
+        <v>1.757066666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>1.778</v>
       </c>
       <c r="F44" t="n">
-        <v>43002.0799</v>
+        <v>83972.8034</v>
       </c>
       <c r="G44" t="n">
-        <v>1.758983333333333</v>
+        <v>1.758016666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="C45" t="n">
         <v>1.778</v>
@@ -1947,13 +1947,13 @@
         <v>1.778</v>
       </c>
       <c r="E45" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="F45" t="n">
-        <v>6520</v>
+        <v>43002.0799</v>
       </c>
       <c r="G45" t="n">
-        <v>1.759949999999999</v>
+        <v>1.758983333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>1.777</v>
       </c>
       <c r="C46" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="D46" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="E46" t="n">
         <v>1.777</v>
       </c>
       <c r="F46" t="n">
-        <v>6126399.2382</v>
+        <v>6520</v>
       </c>
       <c r="G46" t="n">
-        <v>1.760883333333333</v>
+        <v>1.759949999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="C47" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="D47" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="E47" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="F47" t="n">
-        <v>1556</v>
+        <v>6126399.2382</v>
       </c>
       <c r="G47" t="n">
-        <v>1.76095</v>
+        <v>1.760883333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.758</v>
+        <v>1.76</v>
       </c>
       <c r="C48" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="D48" t="n">
-        <v>1.758</v>
+        <v>1.76</v>
       </c>
       <c r="E48" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="F48" t="n">
-        <v>433532.6787</v>
+        <v>1556</v>
       </c>
       <c r="G48" t="n">
-        <v>1.761266666666666</v>
+        <v>1.76095</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.759</v>
+        <v>1.758</v>
       </c>
       <c r="C49" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="D49" t="n">
-        <v>1.759</v>
+        <v>1.758</v>
       </c>
       <c r="E49" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="F49" t="n">
-        <v>133001.5098</v>
+        <v>433532.6787</v>
       </c>
       <c r="G49" t="n">
-        <v>1.761349999999999</v>
+        <v>1.761266666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="C50" t="n">
-        <v>1.741</v>
+        <v>1.759</v>
       </c>
       <c r="D50" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="E50" t="n">
-        <v>1.741</v>
+        <v>1.759</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>133001.5098</v>
       </c>
       <c r="G50" t="n">
-        <v>1.761649999999999</v>
+        <v>1.761349999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="C51" t="n">
         <v>1.741</v>
       </c>
       <c r="D51" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E51" t="n">
         <v>1.741</v>
@@ -2163,7 +2163,7 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>1.761433333333333</v>
+        <v>1.761649999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C52" t="n">
         <v>1.741</v>
       </c>
-      <c r="C52" t="n">
-        <v>1.74</v>
-      </c>
       <c r="D52" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E52" t="n">
         <v>1.741</v>
       </c>
-      <c r="E52" t="n">
-        <v>1.74</v>
-      </c>
       <c r="F52" t="n">
-        <v>411460.65</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>1.761716666666666</v>
+        <v>1.761433333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,32 +2218,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="C53" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="D53" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="E53" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="F53" t="n">
-        <v>285</v>
+        <v>411460.65</v>
       </c>
       <c r="G53" t="n">
-        <v>1.761766666666666</v>
+        <v>1.761716666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.741</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2271,10 @@
         <v>1.759</v>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G54" t="n">
-        <v>1.761233333333333</v>
+        <v>1.761766666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2284,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2313,7 @@
         <v>300</v>
       </c>
       <c r="G55" t="n">
-        <v>1.761716666666666</v>
+        <v>1.761233333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2323,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2349,10 @@
         <v>1.759</v>
       </c>
       <c r="F56" t="n">
-        <v>330635.2426</v>
+        <v>300</v>
       </c>
       <c r="G56" t="n">
-        <v>1.762183333333333</v>
+        <v>1.761716666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2362,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="C57" t="n">
-        <v>1.742</v>
+        <v>1.759</v>
       </c>
       <c r="D57" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="E57" t="n">
-        <v>1.742</v>
+        <v>1.759</v>
       </c>
       <c r="F57" t="n">
-        <v>203178.4641</v>
+        <v>330635.2426</v>
       </c>
       <c r="G57" t="n">
-        <v>1.761699999999999</v>
+        <v>1.762183333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2401,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2415,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.765</v>
+        <v>1.76</v>
       </c>
       <c r="C58" t="n">
-        <v>1.75</v>
+        <v>1.742</v>
       </c>
       <c r="D58" t="n">
-        <v>1.765</v>
+        <v>1.76</v>
       </c>
       <c r="E58" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="F58" t="n">
-        <v>51315.97</v>
+        <v>203178.4641</v>
       </c>
       <c r="G58" t="n">
-        <v>1.761999999999999</v>
+        <v>1.761699999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2440,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2454,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.76</v>
+        <v>1.765</v>
       </c>
       <c r="C59" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="D59" t="n">
-        <v>1.76</v>
+        <v>1.765</v>
       </c>
       <c r="E59" t="n">
-        <v>1.76</v>
+        <v>1.743</v>
       </c>
       <c r="F59" t="n">
-        <v>290</v>
+        <v>51315.97</v>
       </c>
       <c r="G59" t="n">
-        <v>1.762449999999999</v>
+        <v>1.761999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2479,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2493,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.747</v>
+        <v>1.76</v>
       </c>
       <c r="C60" t="n">
-        <v>1.746</v>
+        <v>1.76</v>
       </c>
       <c r="D60" t="n">
-        <v>1.747</v>
+        <v>1.76</v>
       </c>
       <c r="E60" t="n">
-        <v>1.746</v>
+        <v>1.76</v>
       </c>
       <c r="F60" t="n">
-        <v>2000</v>
+        <v>290</v>
       </c>
       <c r="G60" t="n">
-        <v>1.762233333333332</v>
+        <v>1.762449999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2518,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,19 +2532,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.759</v>
+        <v>1.747</v>
       </c>
       <c r="C61" t="n">
-        <v>1.759</v>
+        <v>1.746</v>
       </c>
       <c r="D61" t="n">
-        <v>1.759</v>
+        <v>1.747</v>
       </c>
       <c r="E61" t="n">
-        <v>1.759</v>
+        <v>1.746</v>
       </c>
       <c r="F61" t="n">
-        <v>290</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
         <v>1.762233333333332</v>
@@ -2523,7 +2557,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2571,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.748</v>
+        <v>1.759</v>
       </c>
       <c r="C62" t="n">
-        <v>1.746</v>
+        <v>1.759</v>
       </c>
       <c r="D62" t="n">
-        <v>1.748</v>
+        <v>1.759</v>
       </c>
       <c r="E62" t="n">
-        <v>1.746</v>
+        <v>1.759</v>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="G62" t="n">
-        <v>1.762449999999999</v>
+        <v>1.762233333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2596,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2613,19 @@
         <v>1.748</v>
       </c>
       <c r="C63" t="n">
-        <v>1.745</v>
+        <v>1.746</v>
       </c>
       <c r="D63" t="n">
         <v>1.748</v>
       </c>
       <c r="E63" t="n">
-        <v>1.745</v>
+        <v>1.746</v>
       </c>
       <c r="F63" t="n">
-        <v>523280.5214</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="n">
-        <v>1.762216666666666</v>
+        <v>1.762449999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2635,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2649,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="C64" t="n">
         <v>1.745</v>
       </c>
       <c r="D64" t="n">
-        <v>1.745</v>
+        <v>1.748</v>
       </c>
       <c r="E64" t="n">
         <v>1.745</v>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>523280.5214</v>
       </c>
       <c r="G64" t="n">
-        <v>1.761816666666666</v>
+        <v>1.762216666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2674,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2688,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.743</v>
+        <v>1.745</v>
       </c>
       <c r="C65" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="D65" t="n">
-        <v>1.743</v>
+        <v>1.745</v>
       </c>
       <c r="E65" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="F65" t="n">
-        <v>127442.45</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="n">
-        <v>1.761933333333332</v>
+        <v>1.761816666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2713,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2727,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
       <c r="C66" t="n">
         <v>1.74</v>
       </c>
       <c r="D66" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
       <c r="E66" t="n">
         <v>1.74</v>
       </c>
       <c r="F66" t="n">
-        <v>173126.0469</v>
+        <v>127442.45</v>
       </c>
       <c r="G66" t="n">
-        <v>1.760983333333332</v>
+        <v>1.761933333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2752,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2766,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="C67" t="n">
-        <v>1.737</v>
+        <v>1.74</v>
       </c>
       <c r="D67" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="E67" t="n">
-        <v>1.737</v>
+        <v>1.74</v>
       </c>
       <c r="F67" t="n">
-        <v>268265.8793</v>
+        <v>173126.0469</v>
       </c>
       <c r="G67" t="n">
-        <v>1.760433333333332</v>
+        <v>1.760983333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2791,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2805,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C68" t="n">
         <v>1.737</v>
       </c>
-      <c r="C68" t="n">
-        <v>1.736</v>
-      </c>
       <c r="D68" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E68" t="n">
         <v>1.737</v>
       </c>
-      <c r="E68" t="n">
-        <v>1.736</v>
-      </c>
       <c r="F68" t="n">
-        <v>370488.7909</v>
+        <v>268265.8793</v>
       </c>
       <c r="G68" t="n">
-        <v>1.759866666666666</v>
+        <v>1.760433333333332</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2830,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +2844,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.74</v>
+        <v>1.737</v>
       </c>
       <c r="C69" t="n">
-        <v>1.732</v>
+        <v>1.736</v>
       </c>
       <c r="D69" t="n">
-        <v>1.74</v>
+        <v>1.737</v>
       </c>
       <c r="E69" t="n">
-        <v>1.732</v>
+        <v>1.736</v>
       </c>
       <c r="F69" t="n">
-        <v>1007460.798</v>
+        <v>370488.7909</v>
       </c>
       <c r="G69" t="n">
-        <v>1.759416666666666</v>
+        <v>1.759866666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.737</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2885,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="C70" t="n">
-        <v>1.759</v>
+        <v>1.732</v>
       </c>
       <c r="D70" t="n">
-        <v>1.759</v>
+        <v>1.74</v>
       </c>
       <c r="E70" t="n">
-        <v>1.759</v>
+        <v>1.732</v>
       </c>
       <c r="F70" t="n">
-        <v>2153.2127</v>
+        <v>1007460.798</v>
       </c>
       <c r="G70" t="n">
-        <v>1.759566666666666</v>
+        <v>1.759416666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2910,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.734</v>
+        <v>1.759</v>
       </c>
       <c r="C71" t="n">
         <v>1.759</v>
@@ -2857,13 +2933,13 @@
         <v>1.759</v>
       </c>
       <c r="E71" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="F71" t="n">
-        <v>1742239.2939</v>
+        <v>2153.2127</v>
       </c>
       <c r="G71" t="n">
-        <v>1.759716666666666</v>
+        <v>1.759566666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +2949,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +2963,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.758</v>
+        <v>1.734</v>
       </c>
       <c r="C72" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="D72" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E72" t="n">
-        <v>1.758</v>
+        <v>1.731</v>
       </c>
       <c r="F72" t="n">
-        <v>896.8307</v>
+        <v>1742239.2939</v>
       </c>
       <c r="G72" t="n">
-        <v>1.759866666666666</v>
+        <v>1.759716666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +2988,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3002,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.735</v>
+        <v>1.758</v>
       </c>
       <c r="C73" t="n">
-        <v>1.729</v>
+        <v>1.758</v>
       </c>
       <c r="D73" t="n">
-        <v>1.735</v>
+        <v>1.758</v>
       </c>
       <c r="E73" t="n">
-        <v>1.729</v>
+        <v>1.758</v>
       </c>
       <c r="F73" t="n">
-        <v>154331.2179</v>
+        <v>896.8307</v>
       </c>
       <c r="G73" t="n">
-        <v>1.759533333333333</v>
+        <v>1.759866666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3027,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3041,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.731</v>
+        <v>1.735</v>
       </c>
       <c r="C74" t="n">
         <v>1.729</v>
       </c>
       <c r="D74" t="n">
-        <v>1.731</v>
+        <v>1.735</v>
       </c>
       <c r="E74" t="n">
         <v>1.729</v>
       </c>
       <c r="F74" t="n">
-        <v>821073.7296</v>
+        <v>154331.2179</v>
       </c>
       <c r="G74" t="n">
-        <v>1.759183333333332</v>
+        <v>1.759533333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3066,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3080,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.755</v>
+        <v>1.731</v>
       </c>
       <c r="C75" t="n">
-        <v>1.755</v>
+        <v>1.729</v>
       </c>
       <c r="D75" t="n">
-        <v>1.756</v>
+        <v>1.731</v>
       </c>
       <c r="E75" t="n">
-        <v>1.755</v>
+        <v>1.729</v>
       </c>
       <c r="F75" t="n">
-        <v>22339.5781</v>
+        <v>821073.7296</v>
       </c>
       <c r="G75" t="n">
-        <v>1.759266666666666</v>
+        <v>1.759183333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3105,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3119,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.74</v>
+        <v>1.755</v>
       </c>
       <c r="C76" t="n">
-        <v>1.74</v>
+        <v>1.755</v>
       </c>
       <c r="D76" t="n">
-        <v>1.74</v>
+        <v>1.756</v>
       </c>
       <c r="E76" t="n">
-        <v>1.74</v>
+        <v>1.755</v>
       </c>
       <c r="F76" t="n">
-        <v>25723.4301</v>
+        <v>22339.5781</v>
       </c>
       <c r="G76" t="n">
-        <v>1.759099999999999</v>
+        <v>1.759266666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3144,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3170,10 @@
         <v>1.74</v>
       </c>
       <c r="F77" t="n">
-        <v>35750.9739</v>
+        <v>25723.4301</v>
       </c>
       <c r="G77" t="n">
-        <v>1.758899999999999</v>
+        <v>1.759099999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3183,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3105,10 +3209,10 @@
         <v>1.74</v>
       </c>
       <c r="F78" t="n">
-        <v>65442.9141</v>
+        <v>35750.9739</v>
       </c>
       <c r="G78" t="n">
-        <v>1.758699999999999</v>
+        <v>1.758899999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3222,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3236,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.752</v>
+        <v>1.74</v>
       </c>
       <c r="C79" t="n">
-        <v>1.752</v>
+        <v>1.74</v>
       </c>
       <c r="D79" t="n">
-        <v>1.752</v>
+        <v>1.74</v>
       </c>
       <c r="E79" t="n">
-        <v>1.752</v>
+        <v>1.74</v>
       </c>
       <c r="F79" t="n">
-        <v>588.2354</v>
+        <v>65442.9141</v>
       </c>
       <c r="G79" t="n">
-        <v>1.758616666666665</v>
+        <v>1.758699999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3261,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3287,10 @@
         <v>1.752</v>
       </c>
       <c r="F80" t="n">
-        <v>2015.8195</v>
+        <v>588.2354</v>
       </c>
       <c r="G80" t="n">
-        <v>1.758316666666665</v>
+        <v>1.758616666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3300,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3326,10 @@
         <v>1.752</v>
       </c>
       <c r="F81" t="n">
-        <v>29584.1805</v>
+        <v>2015.8195</v>
       </c>
       <c r="G81" t="n">
-        <v>1.758283333333332</v>
+        <v>1.758316666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3339,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3353,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="C82" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="D82" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="E82" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="F82" t="n">
-        <v>21000</v>
+        <v>29584.1805</v>
       </c>
       <c r="G82" t="n">
-        <v>1.757966666666665</v>
+        <v>1.758283333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3378,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3404,10 @@
         <v>1.751</v>
       </c>
       <c r="F83" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="G83" t="n">
-        <v>1.757649999999999</v>
+        <v>1.757966666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3417,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3306,19 +3434,19 @@
         <v>1.751</v>
       </c>
       <c r="C84" t="n">
-        <v>1.752</v>
+        <v>1.751</v>
       </c>
       <c r="D84" t="n">
-        <v>1.752</v>
+        <v>1.751</v>
       </c>
       <c r="E84" t="n">
         <v>1.751</v>
       </c>
       <c r="F84" t="n">
-        <v>27548.9701</v>
+        <v>31000</v>
       </c>
       <c r="G84" t="n">
-        <v>1.757049999999999</v>
+        <v>1.757649999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3456,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3341,19 +3473,19 @@
         <v>1.751</v>
       </c>
       <c r="C85" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="D85" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="E85" t="n">
         <v>1.751</v>
       </c>
       <c r="F85" t="n">
-        <v>100551.0299</v>
+        <v>27548.9701</v>
       </c>
       <c r="G85" t="n">
-        <v>1.756433333333332</v>
+        <v>1.757049999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3495,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3509,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.732</v>
+        <v>1.751</v>
       </c>
       <c r="C86" t="n">
-        <v>1.732</v>
+        <v>1.751</v>
       </c>
       <c r="D86" t="n">
-        <v>1.732</v>
+        <v>1.751</v>
       </c>
       <c r="E86" t="n">
-        <v>1.732</v>
+        <v>1.751</v>
       </c>
       <c r="F86" t="n">
-        <v>378601.3563</v>
+        <v>100551.0299</v>
       </c>
       <c r="G86" t="n">
-        <v>1.755499999999999</v>
+        <v>1.756433333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3534,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3548,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="C87" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="D87" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="E87" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="F87" t="n">
-        <v>93880.6811</v>
+        <v>378601.3563</v>
       </c>
       <c r="G87" t="n">
-        <v>1.754833333333333</v>
+        <v>1.755499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3573,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3590,19 @@
         <v>1.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="D88" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="E88" t="n">
         <v>1.73</v>
       </c>
       <c r="F88" t="n">
-        <v>251435</v>
+        <v>93880.6811</v>
       </c>
       <c r="G88" t="n">
-        <v>1.754383333333333</v>
+        <v>1.754833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3612,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3626,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.739</v>
+        <v>1.73</v>
       </c>
       <c r="C89" t="n">
-        <v>1.749</v>
+        <v>1.74</v>
       </c>
       <c r="D89" t="n">
-        <v>1.749</v>
+        <v>1.74</v>
       </c>
       <c r="E89" t="n">
-        <v>1.739</v>
+        <v>1.73</v>
       </c>
       <c r="F89" t="n">
-        <v>8230.67</v>
+        <v>251435</v>
       </c>
       <c r="G89" t="n">
-        <v>1.754083333333333</v>
+        <v>1.754383333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3651,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,7 +3665,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.749</v>
+        <v>1.739</v>
       </c>
       <c r="C90" t="n">
         <v>1.749</v>
@@ -3522,13 +3674,13 @@
         <v>1.749</v>
       </c>
       <c r="E90" t="n">
-        <v>1.749</v>
+        <v>1.739</v>
       </c>
       <c r="F90" t="n">
-        <v>6423.37</v>
+        <v>8230.67</v>
       </c>
       <c r="G90" t="n">
-        <v>1.753799999999999</v>
+        <v>1.754083333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3690,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3707,19 @@
         <v>1.749</v>
       </c>
       <c r="C91" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="D91" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="E91" t="n">
         <v>1.749</v>
       </c>
       <c r="F91" t="n">
-        <v>7742.34</v>
+        <v>6423.37</v>
       </c>
       <c r="G91" t="n">
-        <v>1.753533333333332</v>
+        <v>1.753799999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3729,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,7 +3743,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="C92" t="n">
         <v>1.75</v>
@@ -3592,13 +3752,13 @@
         <v>1.75</v>
       </c>
       <c r="E92" t="n">
-        <v>1.75</v>
+        <v>1.749</v>
       </c>
       <c r="F92" t="n">
-        <v>2641.81</v>
+        <v>7742.34</v>
       </c>
       <c r="G92" t="n">
-        <v>1.753449999999999</v>
+        <v>1.753533333333332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3768,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3782,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.743</v>
+        <v>1.75</v>
       </c>
       <c r="C93" t="n">
-        <v>1.743</v>
+        <v>1.75</v>
       </c>
       <c r="D93" t="n">
-        <v>1.743</v>
+        <v>1.75</v>
       </c>
       <c r="E93" t="n">
-        <v>1.743</v>
+        <v>1.75</v>
       </c>
       <c r="F93" t="n">
-        <v>4328.3872</v>
+        <v>2641.81</v>
       </c>
       <c r="G93" t="n">
-        <v>1.753299999999999</v>
+        <v>1.753449999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3807,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3665,10 +3833,10 @@
         <v>1.743</v>
       </c>
       <c r="F94" t="n">
-        <v>33207.87</v>
+        <v>4328.3872</v>
       </c>
       <c r="G94" t="n">
-        <v>1.752549999999999</v>
+        <v>1.753299999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +3846,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,10 +3872,10 @@
         <v>1.743</v>
       </c>
       <c r="F95" t="n">
-        <v>10332.32</v>
+        <v>33207.87</v>
       </c>
       <c r="G95" t="n">
-        <v>1.751799999999999</v>
+        <v>1.752549999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +3885,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +3911,10 @@
         <v>1.743</v>
       </c>
       <c r="F96" t="n">
-        <v>37438.1956</v>
+        <v>10332.32</v>
       </c>
       <c r="G96" t="n">
-        <v>1.751033333333332</v>
+        <v>1.751799999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +3924,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3938,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.75</v>
+        <v>1.743</v>
       </c>
       <c r="C97" t="n">
-        <v>1.77</v>
+        <v>1.743</v>
       </c>
       <c r="D97" t="n">
-        <v>1.77</v>
+        <v>1.743</v>
       </c>
       <c r="E97" t="n">
-        <v>1.75</v>
+        <v>1.743</v>
       </c>
       <c r="F97" t="n">
-        <v>233757.2206</v>
+        <v>37438.1956</v>
       </c>
       <c r="G97" t="n">
-        <v>1.751199999999999</v>
+        <v>1.751033333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +3963,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3977,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C98" t="n">
         <v>1.77</v>
       </c>
-      <c r="C98" t="n">
-        <v>1.762</v>
-      </c>
       <c r="D98" t="n">
-        <v>1.794</v>
+        <v>1.77</v>
       </c>
       <c r="E98" t="n">
-        <v>1.762</v>
+        <v>1.75</v>
       </c>
       <c r="F98" t="n">
-        <v>1119694.9593</v>
+        <v>233757.2206</v>
       </c>
       <c r="G98" t="n">
-        <v>1.751233333333332</v>
+        <v>1.751199999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4002,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3831,19 +4019,19 @@
         <v>1.77</v>
       </c>
       <c r="C99" t="n">
-        <v>1.77</v>
+        <v>1.762</v>
       </c>
       <c r="D99" t="n">
-        <v>1.78</v>
+        <v>1.794</v>
       </c>
       <c r="E99" t="n">
-        <v>1.77</v>
+        <v>1.762</v>
       </c>
       <c r="F99" t="n">
-        <v>324179.7</v>
+        <v>1119694.9593</v>
       </c>
       <c r="G99" t="n">
-        <v>1.751399999999998</v>
+        <v>1.751233333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4041,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4055,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.794</v>
+        <v>1.77</v>
       </c>
       <c r="C100" t="n">
-        <v>1.794</v>
+        <v>1.77</v>
       </c>
       <c r="D100" t="n">
-        <v>1.794</v>
+        <v>1.78</v>
       </c>
       <c r="E100" t="n">
-        <v>1.794</v>
+        <v>1.77</v>
       </c>
       <c r="F100" t="n">
-        <v>594</v>
+        <v>324179.7</v>
       </c>
       <c r="G100" t="n">
-        <v>1.751649999999998</v>
+        <v>1.751399999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4080,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4097,19 @@
         <v>1.794</v>
       </c>
       <c r="C101" t="n">
-        <v>1.82</v>
+        <v>1.794</v>
       </c>
       <c r="D101" t="n">
-        <v>1.824</v>
+        <v>1.794</v>
       </c>
       <c r="E101" t="n">
-        <v>1.79</v>
+        <v>1.794</v>
       </c>
       <c r="F101" t="n">
-        <v>1380348</v>
+        <v>594</v>
       </c>
       <c r="G101" t="n">
-        <v>1.752366666666665</v>
+        <v>1.751649999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4119,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4133,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.8</v>
+        <v>1.794</v>
       </c>
       <c r="C102" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="D102" t="n">
-        <v>1.8</v>
+        <v>1.824</v>
       </c>
       <c r="E102" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="F102" t="n">
-        <v>115261.0374</v>
+        <v>1380348</v>
       </c>
       <c r="G102" t="n">
-        <v>1.752733333333331</v>
+        <v>1.752366666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4158,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,7 +4172,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.791</v>
+        <v>1.8</v>
       </c>
       <c r="C103" t="n">
         <v>1.8</v>
@@ -3977,23 +4181,27 @@
         <v>1.8</v>
       </c>
       <c r="E103" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F103" t="n">
-        <v>374556.6605</v>
+        <v>115261.0374</v>
       </c>
       <c r="G103" t="n">
-        <v>1.753099999999998</v>
+        <v>1.752733333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,32 +4211,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.79</v>
+        <v>1.791</v>
       </c>
       <c r="C104" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="D104" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="E104" t="n">
         <v>1.79</v>
       </c>
       <c r="F104" t="n">
-        <v>6520</v>
+        <v>374556.6605</v>
       </c>
       <c r="G104" t="n">
-        <v>1.753299999999998</v>
+        <v>1.753099999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,63 +4250,65 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="C105" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="D105" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="E105" t="n">
         <v>1.79</v>
       </c>
       <c r="F105" t="n">
-        <v>220866.1319</v>
+        <v>6520</v>
       </c>
       <c r="G105" t="n">
-        <v>1.753666666666664</v>
+        <v>1.753299999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="C106" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="D106" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="E106" t="n">
         <v>1.79</v>
       </c>
       <c r="F106" t="n">
-        <v>244860.5147</v>
+        <v>220866.1319</v>
       </c>
       <c r="G106" t="n">
-        <v>1.753883333333331</v>
+        <v>1.753666666666664</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4120,16 +4334,16 @@
         <v>1.79</v>
       </c>
       <c r="F107" t="n">
-        <v>175657.9849</v>
+        <v>244860.5147</v>
       </c>
       <c r="G107" t="n">
-        <v>1.754383333333331</v>
+        <v>1.753883333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4143,22 +4357,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="C108" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="D108" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="E108" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F108" t="n">
-        <v>533716.5495</v>
+        <v>175657.9849</v>
       </c>
       <c r="G108" t="n">
-        <v>1.755049999999998</v>
+        <v>1.754383333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4392,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="C109" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="D109" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="E109" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="F109" t="n">
-        <v>232993.3887</v>
+        <v>533716.5495</v>
       </c>
       <c r="G109" t="n">
-        <v>1.755066666666665</v>
+        <v>1.755049999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4427,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="C110" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="D110" t="n">
-        <v>1.78</v>
+        <v>1.779</v>
       </c>
       <c r="E110" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F110" t="n">
-        <v>280.8989</v>
+        <v>232993.3887</v>
       </c>
       <c r="G110" t="n">
-        <v>1.755716666666665</v>
+        <v>1.755066666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4462,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="C111" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="D111" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="E111" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="F111" t="n">
-        <v>127073.8797</v>
+        <v>280.8989</v>
       </c>
       <c r="G111" t="n">
-        <v>1.756033333333332</v>
+        <v>1.755716666666665</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4509,10 @@
         <v>1.76</v>
       </c>
       <c r="F112" t="n">
-        <v>20000</v>
+        <v>127073.8797</v>
       </c>
       <c r="G112" t="n">
-        <v>1.756366666666665</v>
+        <v>1.756033333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4544,10 @@
         <v>1.76</v>
       </c>
       <c r="F113" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="n">
-        <v>1.756383333333332</v>
+        <v>1.756366666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,19 +4567,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="C114" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="D114" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="E114" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="F114" t="n">
-        <v>8627.23</v>
+        <v>3000</v>
       </c>
       <c r="G114" t="n">
         <v>1.756383333333332</v>
@@ -4391,19 +4605,19 @@
         <v>1.759</v>
       </c>
       <c r="C115" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="D115" t="n">
         <v>1.759</v>
       </c>
       <c r="E115" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="F115" t="n">
-        <v>118081.5271</v>
+        <v>8627.23</v>
       </c>
       <c r="G115" t="n">
-        <v>1.756233333333332</v>
+        <v>1.756383333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4637,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.729</v>
+        <v>1.759</v>
       </c>
       <c r="C116" t="n">
-        <v>1.779</v>
+        <v>1.75</v>
       </c>
       <c r="D116" t="n">
-        <v>1.779</v>
+        <v>1.759</v>
       </c>
       <c r="E116" t="n">
-        <v>1.729</v>
+        <v>1.75</v>
       </c>
       <c r="F116" t="n">
-        <v>146776.9736</v>
+        <v>118081.5271</v>
       </c>
       <c r="G116" t="n">
-        <v>1.756566666666665</v>
+        <v>1.756233333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,7 +4672,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.779</v>
+        <v>1.729</v>
       </c>
       <c r="C117" t="n">
         <v>1.779</v>
@@ -4467,13 +4681,13 @@
         <v>1.779</v>
       </c>
       <c r="E117" t="n">
-        <v>1.779</v>
+        <v>1.729</v>
       </c>
       <c r="F117" t="n">
-        <v>12739.6122</v>
+        <v>146776.9736</v>
       </c>
       <c r="G117" t="n">
-        <v>1.757183333333332</v>
+        <v>1.756566666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4707,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="C118" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="D118" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="E118" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="F118" t="n">
-        <v>14251.3803</v>
+        <v>12739.6122</v>
       </c>
       <c r="G118" t="n">
-        <v>1.757516666666665</v>
+        <v>1.757183333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4742,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.749</v>
+        <v>1.77</v>
       </c>
       <c r="C119" t="n">
-        <v>1.728</v>
+        <v>1.77</v>
       </c>
       <c r="D119" t="n">
-        <v>1.749</v>
+        <v>1.77</v>
       </c>
       <c r="E119" t="n">
-        <v>1.728</v>
+        <v>1.77</v>
       </c>
       <c r="F119" t="n">
-        <v>68262.47530000001</v>
+        <v>14251.3803</v>
       </c>
       <c r="G119" t="n">
-        <v>1.756983333333331</v>
+        <v>1.757516666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4777,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.732</v>
+        <v>1.749</v>
       </c>
       <c r="C120" t="n">
-        <v>1.732</v>
+        <v>1.728</v>
       </c>
       <c r="D120" t="n">
-        <v>1.732</v>
+        <v>1.749</v>
       </c>
       <c r="E120" t="n">
-        <v>1.732</v>
+        <v>1.728</v>
       </c>
       <c r="F120" t="n">
-        <v>203503.8558</v>
+        <v>68262.47530000001</v>
       </c>
       <c r="G120" t="n">
-        <v>1.756749999999998</v>
+        <v>1.756983333333331</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4815,19 @@
         <v>1.732</v>
       </c>
       <c r="C121" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="D121" t="n">
         <v>1.732</v>
       </c>
       <c r="E121" t="n">
-        <v>1.73</v>
+        <v>1.732</v>
       </c>
       <c r="F121" t="n">
-        <v>539648.8538</v>
+        <v>203503.8558</v>
       </c>
       <c r="G121" t="n">
-        <v>1.756266666666665</v>
+        <v>1.756749999999998</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4850,19 @@
         <v>1.732</v>
       </c>
       <c r="C122" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="D122" t="n">
         <v>1.732</v>
       </c>
       <c r="E122" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="F122" t="n">
-        <v>1249092.1091</v>
+        <v>539648.8538</v>
       </c>
       <c r="G122" t="n">
-        <v>1.756033333333332</v>
+        <v>1.756266666666665</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4882,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="C123" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="D123" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="E123" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="F123" t="n">
-        <v>9424.4624</v>
+        <v>1249092.1091</v>
       </c>
       <c r="G123" t="n">
-        <v>1.755833333333332</v>
+        <v>1.756033333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,19 +4917,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.745</v>
+        <v>1.733</v>
       </c>
       <c r="C124" t="n">
-        <v>1.745</v>
+        <v>1.733</v>
       </c>
       <c r="D124" t="n">
-        <v>1.745</v>
+        <v>1.733</v>
       </c>
       <c r="E124" t="n">
-        <v>1.745</v>
+        <v>1.733</v>
       </c>
       <c r="F124" t="n">
-        <v>3368.6099</v>
+        <v>9424.4624</v>
       </c>
       <c r="G124" t="n">
         <v>1.755833333333332</v>
@@ -4738,22 +4952,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.744</v>
+        <v>1.745</v>
       </c>
       <c r="C125" t="n">
-        <v>1.744</v>
+        <v>1.745</v>
       </c>
       <c r="D125" t="n">
-        <v>1.744</v>
+        <v>1.745</v>
       </c>
       <c r="E125" t="n">
-        <v>1.744</v>
+        <v>1.745</v>
       </c>
       <c r="F125" t="n">
-        <v>2340.2333</v>
+        <v>3368.6099</v>
       </c>
       <c r="G125" t="n">
-        <v>1.755899999999998</v>
+        <v>1.755833333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4999,10 @@
         <v>1.744</v>
       </c>
       <c r="F126" t="n">
-        <v>3667.0994</v>
+        <v>2340.2333</v>
       </c>
       <c r="G126" t="n">
-        <v>1.755966666666665</v>
+        <v>1.755899999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +5022,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="C127" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="D127" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="E127" t="n">
-        <v>1.743</v>
+        <v>1.744</v>
       </c>
       <c r="F127" t="n">
-        <v>8605.851979345955</v>
+        <v>3667.0994</v>
       </c>
       <c r="G127" t="n">
-        <v>1.756066666666665</v>
+        <v>1.755966666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +5069,10 @@
         <v>1.743</v>
       </c>
       <c r="F128" t="n">
-        <v>290</v>
+        <v>8605.851979345955</v>
       </c>
       <c r="G128" t="n">
-        <v>1.756183333333332</v>
+        <v>1.756066666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +5092,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.736</v>
+        <v>1.743</v>
       </c>
       <c r="C129" t="n">
-        <v>1.748</v>
+        <v>1.743</v>
       </c>
       <c r="D129" t="n">
-        <v>1.748</v>
+        <v>1.743</v>
       </c>
       <c r="E129" t="n">
-        <v>1.736</v>
+        <v>1.743</v>
       </c>
       <c r="F129" t="n">
-        <v>863661.0647</v>
+        <v>290</v>
       </c>
       <c r="G129" t="n">
-        <v>1.756449999999998</v>
+        <v>1.756183333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,7 +5127,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.748</v>
+        <v>1.736</v>
       </c>
       <c r="C130" t="n">
         <v>1.748</v>
@@ -4922,13 +5136,13 @@
         <v>1.748</v>
       </c>
       <c r="E130" t="n">
-        <v>1.748</v>
+        <v>1.736</v>
       </c>
       <c r="F130" t="n">
-        <v>66261.50719999999</v>
+        <v>863661.0647</v>
       </c>
       <c r="G130" t="n">
-        <v>1.756266666666665</v>
+        <v>1.756449999999998</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +5174,10 @@
         <v>1.748</v>
       </c>
       <c r="F131" t="n">
-        <v>42644.2136</v>
+        <v>66261.50719999999</v>
       </c>
       <c r="G131" t="n">
-        <v>1.756083333333332</v>
+        <v>1.756266666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,38 +5197,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.729</v>
+        <v>1.748</v>
       </c>
       <c r="C132" t="n">
-        <v>1.809</v>
+        <v>1.748</v>
       </c>
       <c r="D132" t="n">
-        <v>1.809</v>
+        <v>1.748</v>
       </c>
       <c r="E132" t="n">
-        <v>1.715</v>
+        <v>1.748</v>
       </c>
       <c r="F132" t="n">
-        <v>598986.1844</v>
+        <v>42644.2136</v>
       </c>
       <c r="G132" t="n">
-        <v>1.756933333333332</v>
+        <v>1.756083333333332</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1.748</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5024,38 +5232,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.799</v>
+        <v>1.729</v>
       </c>
       <c r="C133" t="n">
-        <v>1.799</v>
+        <v>1.809</v>
       </c>
       <c r="D133" t="n">
-        <v>1.799</v>
+        <v>1.809</v>
       </c>
       <c r="E133" t="n">
-        <v>1.799</v>
+        <v>1.715</v>
       </c>
       <c r="F133" t="n">
-        <v>216061.8686</v>
+        <v>598986.1844</v>
       </c>
       <c r="G133" t="n">
-        <v>1.758099999999999</v>
+        <v>1.756933333333332</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1.809</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5065,38 +5267,32 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.744</v>
+        <v>1.799</v>
       </c>
       <c r="C134" t="n">
-        <v>1.744</v>
+        <v>1.799</v>
       </c>
       <c r="D134" t="n">
-        <v>1.744</v>
+        <v>1.799</v>
       </c>
       <c r="E134" t="n">
-        <v>1.744</v>
+        <v>1.799</v>
       </c>
       <c r="F134" t="n">
         <v>216061.8686</v>
       </c>
       <c r="G134" t="n">
-        <v>1.758349999999999</v>
+        <v>1.758099999999999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1.799</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5106,19 +5302,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.755</v>
+        <v>1.744</v>
       </c>
       <c r="C135" t="n">
-        <v>1.755</v>
+        <v>1.744</v>
       </c>
       <c r="D135" t="n">
-        <v>1.755</v>
+        <v>1.744</v>
       </c>
       <c r="E135" t="n">
-        <v>1.755</v>
+        <v>1.744</v>
       </c>
       <c r="F135" t="n">
-        <v>14318.589</v>
+        <v>216061.8686</v>
       </c>
       <c r="G135" t="n">
         <v>1.758349999999999</v>
@@ -5131,11 +5327,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5145,22 +5337,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.727</v>
+        <v>1.755</v>
       </c>
       <c r="C136" t="n">
-        <v>1.711</v>
+        <v>1.755</v>
       </c>
       <c r="D136" t="n">
-        <v>1.727</v>
+        <v>1.755</v>
       </c>
       <c r="E136" t="n">
-        <v>1.711</v>
+        <v>1.755</v>
       </c>
       <c r="F136" t="n">
-        <v>751502.1746</v>
+        <v>14318.589</v>
       </c>
       <c r="G136" t="n">
-        <v>1.757866666666665</v>
+        <v>1.758349999999999</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,11 +5362,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5184,19 +5372,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.719</v>
+        <v>1.727</v>
       </c>
       <c r="C137" t="n">
-        <v>1.74</v>
+        <v>1.711</v>
       </c>
       <c r="D137" t="n">
-        <v>1.74</v>
+        <v>1.727</v>
       </c>
       <c r="E137" t="n">
-        <v>1.719</v>
+        <v>1.711</v>
       </c>
       <c r="F137" t="n">
-        <v>1237009.0115</v>
+        <v>751502.1746</v>
       </c>
       <c r="G137" t="n">
         <v>1.757866666666665</v>
@@ -5209,11 +5397,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5223,22 +5407,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.736</v>
+        <v>1.719</v>
       </c>
       <c r="C138" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="D138" t="n">
-        <v>1.736</v>
+        <v>1.74</v>
       </c>
       <c r="E138" t="n">
-        <v>1.736</v>
+        <v>1.719</v>
       </c>
       <c r="F138" t="n">
-        <v>1107532.8211</v>
+        <v>1237009.0115</v>
       </c>
       <c r="G138" t="n">
-        <v>1.757799999999999</v>
+        <v>1.757866666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5248,11 +5432,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5274,10 +5454,10 @@
         <v>1.736</v>
       </c>
       <c r="F139" t="n">
-        <v>55467.1789</v>
+        <v>1107532.8211</v>
       </c>
       <c r="G139" t="n">
-        <v>1.757533333333332</v>
+        <v>1.757799999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5287,11 +5467,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5301,22 +5477,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.738</v>
+        <v>1.736</v>
       </c>
       <c r="C140" t="n">
-        <v>1.739</v>
+        <v>1.736</v>
       </c>
       <c r="D140" t="n">
-        <v>1.739</v>
+        <v>1.736</v>
       </c>
       <c r="E140" t="n">
-        <v>1.738</v>
+        <v>1.736</v>
       </c>
       <c r="F140" t="n">
-        <v>150213.2666</v>
+        <v>55467.1789</v>
       </c>
       <c r="G140" t="n">
-        <v>1.757316666666666</v>
+        <v>1.757533333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5326,11 +5502,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5340,22 +5512,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="C141" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="D141" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="E141" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="F141" t="n">
-        <v>125727.2337</v>
+        <v>150213.2666</v>
       </c>
       <c r="G141" t="n">
-        <v>1.757116666666666</v>
+        <v>1.757316666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5365,11 +5537,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5379,22 +5547,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.755</v>
+        <v>1.74</v>
       </c>
       <c r="C142" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="D142" t="n">
-        <v>1.755</v>
+        <v>1.74</v>
       </c>
       <c r="E142" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="F142" t="n">
-        <v>576</v>
+        <v>125727.2337</v>
       </c>
       <c r="G142" t="n">
-        <v>1.757166666666666</v>
+        <v>1.757116666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5404,11 +5572,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5582,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="C143" t="n">
         <v>1.754</v>
       </c>
       <c r="D143" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="E143" t="n">
         <v>1.754</v>
       </c>
       <c r="F143" t="n">
-        <v>864</v>
+        <v>576</v>
       </c>
       <c r="G143" t="n">
-        <v>1.757216666666666</v>
+        <v>1.757166666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5443,11 +5607,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5457,22 +5617,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="C144" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="D144" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="E144" t="n">
-        <v>1.755</v>
+        <v>1.754</v>
       </c>
       <c r="F144" t="n">
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="G144" t="n">
-        <v>1.757266666666666</v>
+        <v>1.757216666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5482,11 +5642,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5508,10 +5664,10 @@
         <v>1.755</v>
       </c>
       <c r="F145" t="n">
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="G145" t="n">
-        <v>1.757333333333332</v>
+        <v>1.757266666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5521,12 +5677,43 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="F146" t="n">
+        <v>288</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.757333333333332</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
+        <v>1.746200000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.750133333333332</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2000</v>
       </c>
       <c r="G3" t="n">
+        <v>1.744666666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.749516666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,25 @@
         <v>1000.9484</v>
       </c>
       <c r="G4" t="n">
+        <v>1.747200000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.749883333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +571,27 @@
         <v>26504</v>
       </c>
       <c r="G5" t="n">
+        <v>1.748200000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.750416666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +615,27 @@
         <v>137746.2492705011</v>
       </c>
       <c r="G6" t="n">
+        <v>1.748866666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.750566666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +659,27 @@
         <v>356200.6334</v>
       </c>
       <c r="G7" t="n">
+        <v>1.751733333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.751016666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +703,27 @@
         <v>1129.94</v>
       </c>
       <c r="G8" t="n">
+        <v>1.754866666666668</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.751516666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +747,27 @@
         <v>0.0036</v>
       </c>
       <c r="G9" t="n">
+        <v>1.755800000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.752016666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +791,27 @@
         <v>161537.5694</v>
       </c>
       <c r="G10" t="n">
+        <v>1.753666666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.752333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +835,27 @@
         <v>400000</v>
       </c>
       <c r="G11" t="n">
+        <v>1.755000000000001</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.7525</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +879,27 @@
         <v>1000</v>
       </c>
       <c r="G12" t="n">
+        <v>1.756266666666668</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.752166666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +923,27 @@
         <v>216718.8538</v>
       </c>
       <c r="G13" t="n">
+        <v>1.754800000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.752383333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +967,27 @@
         <v>248671.5579</v>
       </c>
       <c r="G14" t="n">
+        <v>1.755933333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.752599999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1011,27 @@
         <v>88029.9617</v>
       </c>
       <c r="G15" t="n">
+        <v>1.757066666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.752266666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1055,27 @@
         <v>626427.8049</v>
       </c>
       <c r="G16" t="n">
+        <v>1.756466666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.751933333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1099,27 @@
         <v>1000</v>
       </c>
       <c r="G17" t="n">
+        <v>1.755866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.752166666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1143,27 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
+        <v>1.757133333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.752433333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1187,27 @@
         <v>1000</v>
       </c>
       <c r="G19" t="n">
+        <v>1.756666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.752666666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1231,27 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
+        <v>1.755866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.752449999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1275,27 @@
         <v>3232.6922</v>
       </c>
       <c r="G21" t="n">
+        <v>1.758333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.752433333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1319,27 @@
         <v>1000</v>
       </c>
       <c r="G22" t="n">
+        <v>1.755466666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.752066666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1363,27 @@
         <v>409.7465</v>
       </c>
       <c r="G23" t="n">
+        <v>1.755466666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.751899999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1407,27 @@
         <v>637.6811</v>
       </c>
       <c r="G24" t="n">
+        <v>1.755466666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.752199999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1451,27 @@
         <v>6679381.7522</v>
       </c>
       <c r="G25" t="n">
+        <v>1.757400000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.752799999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1495,27 @@
         <v>6468651.1984</v>
       </c>
       <c r="G26" t="n">
+        <v>1.759933333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.753399999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1539,27 @@
         <v>222053.7836</v>
       </c>
       <c r="G27" t="n">
+        <v>1.762466666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.754266666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1583,27 @@
         <v>752267.5716</v>
       </c>
       <c r="G28" t="n">
+        <v>1.763866666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.754599999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1627,27 @@
         <v>10207.6203</v>
       </c>
       <c r="G29" t="n">
+        <v>1.765066666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.754549999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1671,27 @@
         <v>1409</v>
       </c>
       <c r="G30" t="n">
+        <v>1.766200000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.754499999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1715,27 @@
         <v>5938711.2775</v>
       </c>
       <c r="G31" t="n">
+        <v>1.767266666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.754299999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1759,27 @@
         <v>12010876.7537</v>
       </c>
       <c r="G32" t="n">
+        <v>1.768333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.753916666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1803,27 @@
         <v>8327.0299</v>
       </c>
       <c r="G33" t="n">
+        <v>1.768533333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.753349999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1847,27 @@
         <v>960568.5566</v>
       </c>
       <c r="G34" t="n">
+        <v>1.768533333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.752916666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1891,27 @@
         <v>985950.177</v>
       </c>
       <c r="G35" t="n">
+        <v>1.770600000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.753233333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1935,27 @@
         <v>6126966.6316</v>
       </c>
       <c r="G36" t="n">
+        <v>1.771800000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.753699999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1979,27 @@
         <v>6248512.0847</v>
       </c>
       <c r="G37" t="n">
+        <v>1.774133333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.754349999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2023,27 @@
         <v>415265.0651</v>
       </c>
       <c r="G38" t="n">
+        <v>1.773466666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.754516666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2067,27 @@
         <v>124579.5195</v>
       </c>
       <c r="G39" t="n">
+        <v>1.772800000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.754683333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2111,27 @@
         <v>112121.5675</v>
       </c>
       <c r="G40" t="n">
+        <v>1.770933333333335</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.754516666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2155,27 @@
         <v>1874260.8166</v>
       </c>
       <c r="G41" t="n">
+        <v>1.770333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.755166666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2199,27 @@
         <v>11823243.6109</v>
       </c>
       <c r="G42" t="n">
+        <v>1.769600000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.755949999999999</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2243,27 @@
         <v>6092657.1739</v>
       </c>
       <c r="G43" t="n">
+        <v>1.770133333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.757066666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2287,27 @@
         <v>83972.8034</v>
       </c>
       <c r="G44" t="n">
+        <v>1.770866666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.758016666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2331,27 @@
         <v>43002.0799</v>
       </c>
       <c r="G45" t="n">
+        <v>1.771600000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.758983333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2375,27 @@
         <v>6520</v>
       </c>
       <c r="G46" t="n">
+        <v>1.772400000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.759949999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2419,27 @@
         <v>6126399.2382</v>
       </c>
       <c r="G47" t="n">
+        <v>1.773133333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.760883333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2463,27 @@
         <v>1556</v>
       </c>
       <c r="G48" t="n">
+        <v>1.773466666666668</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.76095</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2507,27 @@
         <v>433532.6787</v>
       </c>
       <c r="G49" t="n">
+        <v>1.772666666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.761266666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2551,27 @@
         <v>133001.5098</v>
       </c>
       <c r="G50" t="n">
+        <v>1.770733333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.761349999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2595,27 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
+        <v>1.767600000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.761649999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2639,27 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
+        <v>1.764400000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.761433333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,24 +2683,27 @@
         <v>411460.65</v>
       </c>
       <c r="G53" t="n">
+        <v>1.763066666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.761716666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.741</v>
+        <v>0</v>
       </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2274,22 +2727,27 @@
         <v>285</v>
       </c>
       <c r="G54" t="n">
+        <v>1.763000000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.761766666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,22 +2771,27 @@
         <v>300</v>
       </c>
       <c r="G55" t="n">
+        <v>1.762933333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.761233333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2352,22 +2815,27 @@
         <v>300</v>
       </c>
       <c r="G56" t="n">
+        <v>1.761600000000001</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.761716666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,22 +2859,27 @@
         <v>330635.2426</v>
       </c>
       <c r="G57" t="n">
+        <v>1.760400000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.762183333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,22 +2903,27 @@
         <v>203178.4641</v>
       </c>
       <c r="G58" t="n">
+        <v>1.758000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.761699999999999</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2469,22 +2947,27 @@
         <v>51315.97</v>
       </c>
       <c r="G59" t="n">
+        <v>1.756133333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.761999999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,22 +2991,27 @@
         <v>290</v>
       </c>
       <c r="G60" t="n">
+        <v>1.754933333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.762449999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,22 +3035,27 @@
         <v>2000</v>
       </c>
       <c r="G61" t="n">
+        <v>1.752800000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.762233333333332</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,22 +3079,27 @@
         <v>290</v>
       </c>
       <c r="G62" t="n">
+        <v>1.751600000000001</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.762233333333332</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2625,22 +3123,27 @@
         <v>1000</v>
       </c>
       <c r="G63" t="n">
+        <v>1.750666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.762449999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,22 +3167,27 @@
         <v>523280.5214</v>
       </c>
       <c r="G64" t="n">
+        <v>1.751000000000001</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.762216666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2703,22 +3211,27 @@
         <v>1000</v>
       </c>
       <c r="G65" t="n">
+        <v>1.750066666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.761816666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,22 +3255,27 @@
         <v>127442.45</v>
       </c>
       <c r="G66" t="n">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.761933333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2781,22 +3299,27 @@
         <v>173126.0469</v>
       </c>
       <c r="G67" t="n">
+        <v>1.749933333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.760983333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2820,22 +3343,27 @@
         <v>268265.8793</v>
       </c>
       <c r="G68" t="n">
+        <v>1.749733333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.760433333333332</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2859,24 +3387,27 @@
         <v>370488.7909</v>
       </c>
       <c r="G69" t="n">
+        <v>1.748200000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.759866666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.737</v>
+        <v>0</v>
       </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,22 +3431,27 @@
         <v>1007460.798</v>
       </c>
       <c r="G70" t="n">
+        <v>1.746400000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.759416666666666</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,22 +3475,27 @@
         <v>2153.2127</v>
       </c>
       <c r="G71" t="n">
+        <v>1.746400000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.759566666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,22 +3519,27 @@
         <v>1742239.2939</v>
       </c>
       <c r="G72" t="n">
+        <v>1.746400000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.759716666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3017,22 +3563,27 @@
         <v>896.8307</v>
       </c>
       <c r="G73" t="n">
+        <v>1.747466666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.759866666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,22 +3607,27 @@
         <v>154331.2179</v>
       </c>
       <c r="G74" t="n">
+        <v>1.746066666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.759533333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3095,22 +3651,27 @@
         <v>821073.7296</v>
       </c>
       <c r="G75" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.759183333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,22 +3695,27 @@
         <v>22339.5781</v>
       </c>
       <c r="G76" t="n">
+        <v>1.744600000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.759266666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3173,22 +3739,27 @@
         <v>25723.4301</v>
       </c>
       <c r="G77" t="n">
+        <v>1.743333333333334</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.759099999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,22 +3783,27 @@
         <v>35750.9739</v>
       </c>
       <c r="G78" t="n">
+        <v>1.742933333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.758899999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,22 +3827,27 @@
         <v>65442.9141</v>
       </c>
       <c r="G79" t="n">
+        <v>1.7426</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.758699999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,22 +3871,27 @@
         <v>588.2354</v>
       </c>
       <c r="G80" t="n">
+        <v>1.743066666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.758616666666665</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,22 +3915,27 @@
         <v>2015.8195</v>
       </c>
       <c r="G81" t="n">
+        <v>1.743866666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.758316666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,22 +3959,27 @@
         <v>29584.1805</v>
       </c>
       <c r="G82" t="n">
+        <v>1.744666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.758283333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,22 +4003,27 @@
         <v>21000</v>
       </c>
       <c r="G83" t="n">
+        <v>1.7456</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.757966666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3446,22 +4047,27 @@
         <v>31000</v>
       </c>
       <c r="G84" t="n">
+        <v>1.7466</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.757649999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3485,22 +4091,27 @@
         <v>27548.9701</v>
       </c>
       <c r="G85" t="n">
+        <v>1.747933333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.757049999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,22 +4135,27 @@
         <v>100551.0299</v>
       </c>
       <c r="G86" t="n">
+        <v>1.7474</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.756433333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,22 +4179,27 @@
         <v>378601.3563</v>
       </c>
       <c r="G87" t="n">
+        <v>1.7456</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.755499999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,22 +4223,27 @@
         <v>93880.6811</v>
       </c>
       <c r="G88" t="n">
+        <v>1.743733333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.754833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3641,22 +4267,29 @@
         <v>251435</v>
       </c>
       <c r="G89" t="n">
+        <v>1.744466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.754383333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,22 +4313,29 @@
         <v>8230.67</v>
       </c>
       <c r="G90" t="n">
+        <v>1.7458</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.754083333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,22 +4359,29 @@
         <v>6423.37</v>
       </c>
       <c r="G91" t="n">
+        <v>1.7454</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.753799999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,22 +4405,29 @@
         <v>7742.34</v>
       </c>
       <c r="G92" t="n">
+        <v>1.746066666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.753533333333332</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,22 +4451,29 @@
         <v>2641.81</v>
       </c>
       <c r="G93" t="n">
+        <v>1.746733333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.753449999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,22 +4497,27 @@
         <v>4328.3872</v>
       </c>
       <c r="G94" t="n">
+        <v>1.746933333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.753299999999999</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3875,22 +4541,29 @@
         <v>33207.87</v>
       </c>
       <c r="G95" t="n">
+        <v>1.746333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.752549999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,22 +4587,29 @@
         <v>10332.32</v>
       </c>
       <c r="G96" t="n">
+        <v>1.745733333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.751799999999999</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,22 +4633,29 @@
         <v>37438.1956</v>
       </c>
       <c r="G97" t="n">
+        <v>1.745133333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.751033333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,22 +4679,29 @@
         <v>233757.2206</v>
       </c>
       <c r="G98" t="n">
+        <v>1.7464</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.751199999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4031,22 +4725,29 @@
         <v>1119694.9593</v>
       </c>
       <c r="G99" t="n">
+        <v>1.747133333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.751233333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,22 +4771,27 @@
         <v>324179.7</v>
       </c>
       <c r="G100" t="n">
+        <v>1.748333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.751399999999998</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4109,22 +4815,27 @@
         <v>594</v>
       </c>
       <c r="G101" t="n">
+        <v>1.7512</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.751649999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,22 +4859,27 @@
         <v>1380348</v>
       </c>
       <c r="G102" t="n">
+        <v>1.757066666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.752366666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4187,22 +4903,27 @@
         <v>115261.0374</v>
       </c>
       <c r="G103" t="n">
+        <v>1.761733333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.752733333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,23 +4947,28 @@
         <v>374556.6605</v>
       </c>
       <c r="G104" t="n">
+        <v>1.765733333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.753099999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
+      <c r="L104" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1.03366128101558</v>
       </c>
     </row>
     <row r="105">
@@ -4265,22 +4991,23 @@
         <v>6520</v>
       </c>
       <c r="G105" t="n">
+        <v>1.768466666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.753299999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4302,18 +5029,21 @@
         <v>220866.1319</v>
       </c>
       <c r="G106" t="n">
+        <v>1.771866666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.753666666666664</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,18 +5067,21 @@
         <v>244860.5147</v>
       </c>
       <c r="G107" t="n">
+        <v>1.774533333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.753883333333331</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,18 +5105,21 @@
         <v>175657.9849</v>
       </c>
       <c r="G108" t="n">
+        <v>1.777200000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.754383333333331</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4407,18 +5143,21 @@
         <v>533716.5495</v>
       </c>
       <c r="G109" t="n">
+        <v>1.779666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.755049999999998</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,18 +5181,21 @@
         <v>232993.3887</v>
       </c>
       <c r="G110" t="n">
+        <v>1.780800000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.755066666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,18 +5219,21 @@
         <v>280.8989</v>
       </c>
       <c r="G111" t="n">
+        <v>1.783266666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.755716666666665</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4512,18 +5257,21 @@
         <v>127073.8797</v>
       </c>
       <c r="G112" t="n">
+        <v>1.784400000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.756033333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4547,18 +5295,21 @@
         <v>20000</v>
       </c>
       <c r="G113" t="n">
+        <v>1.783733333333335</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.756366666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,18 +5333,21 @@
         <v>3000</v>
       </c>
       <c r="G114" t="n">
+        <v>1.783600000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.756383333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4617,18 +5371,21 @@
         <v>8627.23</v>
       </c>
       <c r="G115" t="n">
+        <v>1.782866666666668</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.756383333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,18 +5409,21 @@
         <v>118081.5271</v>
       </c>
       <c r="G116" t="n">
+        <v>1.779933333333335</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.756233333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4687,18 +5447,21 @@
         <v>146776.9736</v>
       </c>
       <c r="G117" t="n">
+        <v>1.777200000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.756566666666665</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,18 +5485,21 @@
         <v>12739.6122</v>
       </c>
       <c r="G118" t="n">
+        <v>1.775800000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.757183333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,18 +5523,21 @@
         <v>14251.3803</v>
       </c>
       <c r="G119" t="n">
+        <v>1.773800000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.757516666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4792,18 +5561,21 @@
         <v>68262.47530000001</v>
       </c>
       <c r="G120" t="n">
+        <v>1.769666666666668</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.756983333333331</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4827,18 +5599,21 @@
         <v>203503.8558</v>
       </c>
       <c r="G121" t="n">
+        <v>1.765133333333335</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.756749999999998</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,18 +5637,21 @@
         <v>539648.8538</v>
       </c>
       <c r="G122" t="n">
+        <v>1.761133333333335</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.756266666666665</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,18 +5675,21 @@
         <v>1249092.1091</v>
       </c>
       <c r="G123" t="n">
+        <v>1.757266666666668</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.756033333333332</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,18 +5713,21 @@
         <v>9424.4624</v>
       </c>
       <c r="G124" t="n">
+        <v>1.754133333333335</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.755833333333332</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4967,18 +5751,21 @@
         <v>3368.6099</v>
       </c>
       <c r="G125" t="n">
+        <v>1.753133333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.755833333333332</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5002,18 +5789,21 @@
         <v>2340.2333</v>
       </c>
       <c r="G126" t="n">
+        <v>1.750733333333335</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.755899999999998</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5037,18 +5827,21 @@
         <v>3667.0994</v>
       </c>
       <c r="G127" t="n">
+        <v>1.749666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.755966666666665</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,18 +5865,21 @@
         <v>8605.851979345955</v>
       </c>
       <c r="G128" t="n">
+        <v>1.748533333333334</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.756066666666665</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5107,18 +5903,21 @@
         <v>290</v>
       </c>
       <c r="G129" t="n">
+        <v>1.747400000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.756183333333332</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,18 +5941,21 @@
         <v>863661.0647</v>
       </c>
       <c r="G130" t="n">
+        <v>1.746666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.756449999999998</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5177,18 +5979,21 @@
         <v>66261.50719999999</v>
       </c>
       <c r="G131" t="n">
+        <v>1.746533333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.756266666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5212,18 +6017,21 @@
         <v>42644.2136</v>
       </c>
       <c r="G132" t="n">
+        <v>1.744466666666668</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.756083333333332</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5247,18 +6055,21 @@
         <v>598986.1844</v>
       </c>
       <c r="G133" t="n">
+        <v>1.746466666666668</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.756933333333332</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,18 +6093,21 @@
         <v>216061.8686</v>
       </c>
       <c r="G134" t="n">
+        <v>1.748400000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.758099999999999</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5317,18 +6131,21 @@
         <v>216061.8686</v>
       </c>
       <c r="G135" t="n">
+        <v>1.749466666666668</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.758349999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5352,18 +6169,21 @@
         <v>14318.589</v>
       </c>
       <c r="G136" t="n">
+        <v>1.751000000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.758349999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,18 +6207,21 @@
         <v>751502.1746</v>
       </c>
       <c r="G137" t="n">
+        <v>1.749733333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.757866666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,18 +6245,21 @@
         <v>1237009.0115</v>
       </c>
       <c r="G138" t="n">
+        <v>1.750266666666668</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.757866666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5457,18 +6283,21 @@
         <v>1107532.8211</v>
       </c>
       <c r="G139" t="n">
+        <v>1.750466666666668</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.757799999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,18 +6321,21 @@
         <v>55467.1789</v>
       </c>
       <c r="G140" t="n">
+        <v>1.749866666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.757533333333332</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5527,18 +6359,21 @@
         <v>150213.2666</v>
       </c>
       <c r="G141" t="n">
+        <v>1.749533333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.757316666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,18 +6397,21 @@
         <v>125727.2337</v>
       </c>
       <c r="G142" t="n">
+        <v>1.749266666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.757116666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5597,18 +6435,21 @@
         <v>576</v>
       </c>
       <c r="G143" t="n">
+        <v>1.750000000000001</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.757166666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5632,18 +6473,21 @@
         <v>864</v>
       </c>
       <c r="G144" t="n">
+        <v>1.750733333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.757216666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5667,18 +6511,21 @@
         <v>576</v>
       </c>
       <c r="G145" t="n">
+        <v>1.751200000000001</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.757266666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5702,18 +6549,401 @@
         <v>288</v>
       </c>
       <c r="G146" t="n">
+        <v>1.751666666666668</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.757333333333332</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="F147" t="n">
+        <v>425565.3913</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.752133333333334</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.757716666666666</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F148" t="n">
+        <v>345892.1989</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.750733333333334</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1.758683333333332</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F149" t="n">
+        <v>576</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.750133333333334</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.759516666666666</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1743.08</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.751200000000001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.759699999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1838.6</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.753533333333334</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.760383333333333</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F152" t="n">
+        <v>46257.8996</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.758800000000001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.76105</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F153" t="n">
+        <v>576</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.762133333333334</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.761716666666666</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F154" t="n">
+        <v>288</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.765733333333334</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.7625</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F155" t="n">
+        <v>288</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.769333333333334</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.763283333333333</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F156" t="n">
+        <v>104997.1979</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.773333333333334</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.764216666666667</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.789</v>
+        <v>1.75</v>
       </c>
       <c r="C2" t="n">
-        <v>1.789</v>
+        <v>1.75</v>
       </c>
       <c r="D2" t="n">
-        <v>1.789</v>
+        <v>1.75</v>
       </c>
       <c r="E2" t="n">
-        <v>1.789</v>
+        <v>1.75</v>
       </c>
       <c r="F2" t="n">
-        <v>5914.5848</v>
+        <v>88029.9617</v>
       </c>
       <c r="G2" t="n">
-        <v>-93677.13339999998</v>
+        <v>2634920.184258997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.778</v>
+        <v>1.76</v>
       </c>
       <c r="C3" t="n">
-        <v>1.778</v>
+        <v>1.75</v>
       </c>
       <c r="D3" t="n">
-        <v>1.791</v>
+        <v>1.76</v>
       </c>
       <c r="E3" t="n">
-        <v>1.778</v>
+        <v>1.75</v>
       </c>
       <c r="F3" t="n">
-        <v>191179.429</v>
+        <v>626427.8049</v>
       </c>
       <c r="G3" t="n">
-        <v>-284856.5624</v>
+        <v>2634920.184258997</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.778</v>
+        <v>1.752</v>
       </c>
       <c r="C4" t="n">
-        <v>1.769</v>
+        <v>1.75</v>
       </c>
       <c r="D4" t="n">
-        <v>1.778</v>
+        <v>1.752</v>
       </c>
       <c r="E4" t="n">
-        <v>1.769</v>
+        <v>1.75</v>
       </c>
       <c r="F4" t="n">
-        <v>520000</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>-804856.5623999999</v>
+        <v>2634920.184258997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,238 +539,285 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.769</v>
+        <v>1.754</v>
       </c>
       <c r="C5" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="D5" t="n">
-        <v>1.769</v>
+        <v>1.754</v>
       </c>
       <c r="E5" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="F5" t="n">
-        <v>9222.7012</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>-814079.2635999999</v>
+        <v>2635920.184258997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.75</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.756</v>
+        <v>1.754</v>
       </c>
       <c r="C6" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2635920.184258997</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.75</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.756</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F6" t="n">
-        <v>63724.7199</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-877803.9835</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2636920.184258997</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="K7" t="n">
         <v>1.75</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>65736.3915</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-877803.9835</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="C8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="D8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="E8" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="F8" t="n">
-        <v>91428.8605</v>
+        <v>3232.6922</v>
       </c>
       <c r="G8" t="n">
-        <v>-877803.9835</v>
+        <v>2640152.876458997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.757</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.749</v>
+        <v>1.756</v>
       </c>
       <c r="C9" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2639152.876458997</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1.77</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.711</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3196801.739</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2318997.7555</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="C10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="D10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="E10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>409.7465</v>
       </c>
       <c r="G10" t="n">
-        <v>2317997.7555</v>
+        <v>2639562.622958997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="C11" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="D11" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="E11" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="F11" t="n">
-        <v>20000</v>
+        <v>637.6811</v>
       </c>
       <c r="G11" t="n">
-        <v>2297997.7555</v>
+        <v>2639562.622958997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,33 +826,40 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="C12" t="n">
-        <v>1.711</v>
+        <v>1.788</v>
       </c>
       <c r="D12" t="n">
-        <v>1.73</v>
+        <v>1.788</v>
       </c>
       <c r="E12" t="n">
-        <v>1.711</v>
+        <v>1.77</v>
       </c>
       <c r="F12" t="n">
-        <v>334263.8914</v>
+        <v>6679381.7522</v>
       </c>
       <c r="G12" t="n">
-        <v>1963733.8641</v>
+        <v>9318944.375158997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,33 +868,40 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.721</v>
+        <v>1.787</v>
       </c>
       <c r="C13" t="n">
-        <v>1.721</v>
+        <v>1.788</v>
       </c>
       <c r="D13" t="n">
-        <v>1.721</v>
+        <v>1.788</v>
       </c>
       <c r="E13" t="n">
-        <v>1.721</v>
+        <v>1.787</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>6468651.1984</v>
       </c>
       <c r="G13" t="n">
-        <v>1964733.8641</v>
+        <v>9318944.375158997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,33 +910,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.72</v>
+        <v>1.788</v>
       </c>
       <c r="C14" t="n">
-        <v>1.72</v>
+        <v>1.788</v>
       </c>
       <c r="D14" t="n">
-        <v>1.72</v>
+        <v>1.788</v>
       </c>
       <c r="E14" t="n">
-        <v>1.72</v>
+        <v>1.788</v>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>222053.7836</v>
       </c>
       <c r="G14" t="n">
-        <v>1963733.8641</v>
+        <v>9318944.375158997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +952,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.721</v>
+        <v>1.77</v>
       </c>
       <c r="C15" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="D15" t="n">
-        <v>1.721</v>
+        <v>1.77</v>
       </c>
       <c r="E15" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="F15" t="n">
-        <v>357733.1219</v>
+        <v>752267.5716</v>
       </c>
       <c r="G15" t="n">
-        <v>1963733.8641</v>
+        <v>8566676.803558998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,33 +994,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.721</v>
+        <v>1.767</v>
       </c>
       <c r="C16" t="n">
-        <v>1.721</v>
+        <v>1.767</v>
       </c>
       <c r="D16" t="n">
-        <v>1.721</v>
+        <v>1.767</v>
       </c>
       <c r="E16" t="n">
-        <v>1.721</v>
+        <v>1.767</v>
       </c>
       <c r="F16" t="n">
-        <v>1000</v>
+        <v>10207.6203</v>
       </c>
       <c r="G16" t="n">
-        <v>1964733.8641</v>
+        <v>8556469.183258997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,33 +1036,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.755</v>
+        <v>1.767</v>
       </c>
       <c r="C17" t="n">
-        <v>1.756</v>
+        <v>1.767</v>
       </c>
       <c r="D17" t="n">
-        <v>1.756</v>
+        <v>1.767</v>
       </c>
       <c r="E17" t="n">
-        <v>1.755</v>
+        <v>1.767</v>
       </c>
       <c r="F17" t="n">
-        <v>56955.93062949886</v>
+        <v>1409</v>
       </c>
       <c r="G17" t="n">
-        <v>2021689.794729499</v>
+        <v>8556469.183258997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,33 +1078,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.721</v>
+        <v>1.766</v>
       </c>
       <c r="C18" t="n">
-        <v>1.721</v>
+        <v>1.766</v>
       </c>
       <c r="D18" t="n">
-        <v>1.721</v>
+        <v>1.766</v>
       </c>
       <c r="E18" t="n">
-        <v>1.721</v>
+        <v>1.766</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>5938711.2775</v>
       </c>
       <c r="G18" t="n">
-        <v>2020689.794729499</v>
+        <v>2617757.905758997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,33 +1120,40 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.754</v>
+        <v>1.766</v>
       </c>
       <c r="C19" t="n">
-        <v>1.754</v>
+        <v>1.766</v>
       </c>
       <c r="D19" t="n">
-        <v>1.754</v>
+        <v>1.766</v>
       </c>
       <c r="E19" t="n">
-        <v>1.754</v>
+        <v>1.766</v>
       </c>
       <c r="F19" t="n">
-        <v>458.0342</v>
+        <v>12010876.7537</v>
       </c>
       <c r="G19" t="n">
-        <v>2021147.828929499</v>
+        <v>2617757.905758997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,33 +1162,40 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.723</v>
+        <v>1.755</v>
       </c>
       <c r="C20" t="n">
-        <v>1.723</v>
+        <v>1.755</v>
       </c>
       <c r="D20" t="n">
-        <v>1.723</v>
+        <v>1.755</v>
       </c>
       <c r="E20" t="n">
-        <v>1.723</v>
+        <v>1.755</v>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>8327.0299</v>
       </c>
       <c r="G20" t="n">
-        <v>2020147.828929499</v>
+        <v>2609430.875858997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,33 +1204,40 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.754</v>
+        <v>1.767</v>
       </c>
       <c r="C21" t="n">
-        <v>1.754</v>
+        <v>1.752</v>
       </c>
       <c r="D21" t="n">
-        <v>1.754</v>
+        <v>1.767</v>
       </c>
       <c r="E21" t="n">
-        <v>1.754</v>
+        <v>1.752</v>
       </c>
       <c r="F21" t="n">
-        <v>541.9657999999999</v>
+        <v>960568.5566</v>
       </c>
       <c r="G21" t="n">
-        <v>2020689.794729499</v>
+        <v>1648862.319258997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,33 +1246,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.723</v>
+        <v>1.769</v>
       </c>
       <c r="C22" t="n">
-        <v>1.723</v>
+        <v>1.788</v>
       </c>
       <c r="D22" t="n">
-        <v>1.723</v>
+        <v>1.788</v>
       </c>
       <c r="E22" t="n">
-        <v>1.723</v>
+        <v>1.769</v>
       </c>
       <c r="F22" t="n">
-        <v>541.9657999999999</v>
+        <v>985950.177</v>
       </c>
       <c r="G22" t="n">
-        <v>2020147.828929499</v>
+        <v>2634812.496258997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,33 +1288,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.724</v>
+        <v>1.788</v>
       </c>
       <c r="C23" t="n">
-        <v>1.756</v>
+        <v>1.788</v>
       </c>
       <c r="D23" t="n">
-        <v>1.756</v>
+        <v>1.788</v>
       </c>
       <c r="E23" t="n">
-        <v>1.712</v>
+        <v>1.788</v>
       </c>
       <c r="F23" t="n">
-        <v>861723.6168</v>
+        <v>6126966.6316</v>
       </c>
       <c r="G23" t="n">
-        <v>2881871.445729499</v>
+        <v>2634812.496258997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,33 +1330,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.756</v>
+        <v>1.788</v>
       </c>
       <c r="C24" t="n">
-        <v>1.791</v>
+        <v>1.789</v>
       </c>
       <c r="D24" t="n">
-        <v>1.791</v>
+        <v>1.789</v>
       </c>
       <c r="E24" t="n">
-        <v>1.756</v>
+        <v>1.788</v>
       </c>
       <c r="F24" t="n">
-        <v>184042.8213</v>
+        <v>6248512.0847</v>
       </c>
       <c r="G24" t="n">
-        <v>3065914.267029499</v>
+        <v>8883324.580958996</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,33 +1372,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="C25" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="D25" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="E25" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>415265.0651</v>
       </c>
       <c r="G25" t="n">
-        <v>3064914.267029499</v>
+        <v>8468059.515858997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1262,33 +1414,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.771</v>
+        <v>1.76</v>
       </c>
       <c r="C26" t="n">
-        <v>1.731</v>
+        <v>1.76</v>
       </c>
       <c r="D26" t="n">
-        <v>1.771</v>
+        <v>1.76</v>
       </c>
       <c r="E26" t="n">
-        <v>1.731</v>
+        <v>1.76</v>
       </c>
       <c r="F26" t="n">
-        <v>1971.9743</v>
+        <v>124579.5195</v>
       </c>
       <c r="G26" t="n">
-        <v>3066886.241329499</v>
+        <v>8468059.515858997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1297,33 +1456,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.771</v>
+        <v>1.76</v>
       </c>
       <c r="C27" t="n">
-        <v>1.771</v>
+        <v>1.76</v>
       </c>
       <c r="D27" t="n">
-        <v>1.771</v>
+        <v>1.76</v>
       </c>
       <c r="E27" t="n">
-        <v>1.771</v>
+        <v>1.76</v>
       </c>
       <c r="F27" t="n">
-        <v>6431.0119</v>
+        <v>112121.5675</v>
       </c>
       <c r="G27" t="n">
-        <v>3073317.253229498</v>
+        <v>8468059.515858997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1498,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.732</v>
+        <v>1.779</v>
       </c>
       <c r="C28" t="n">
-        <v>1.732</v>
+        <v>1.779</v>
       </c>
       <c r="D28" t="n">
-        <v>1.732</v>
+        <v>1.779</v>
       </c>
       <c r="E28" t="n">
-        <v>1.732</v>
+        <v>1.779</v>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>1874260.8166</v>
       </c>
       <c r="G28" t="n">
-        <v>3072317.253229498</v>
+        <v>10342320.332459</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1540,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.733</v>
+        <v>1.777</v>
       </c>
       <c r="C29" t="n">
-        <v>1.733</v>
+        <v>1.777</v>
       </c>
       <c r="D29" t="n">
-        <v>1.77</v>
+        <v>1.777</v>
       </c>
       <c r="E29" t="n">
-        <v>1.733</v>
+        <v>1.777</v>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>11823243.6109</v>
       </c>
       <c r="G29" t="n">
-        <v>3076317.253229498</v>
+        <v>-1480923.278441003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,74 +1582,88 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="C30" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="D30" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="E30" t="n">
-        <v>1.733</v>
+        <v>1.777</v>
       </c>
       <c r="F30" t="n">
-        <v>6000</v>
+        <v>6092657.1739</v>
       </c>
       <c r="G30" t="n">
-        <v>3082317.253229498</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
+        <v>1.00695219123506</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.733</v>
+        <v>1.778</v>
       </c>
       <c r="C31" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="D31" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="E31" t="n">
-        <v>1.733</v>
+        <v>1.778</v>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>83972.8034</v>
       </c>
       <c r="G31" t="n">
-        <v>3082317.253229498</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1671,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.733</v>
+        <v>1.778</v>
       </c>
       <c r="C32" t="n">
-        <v>1.733</v>
+        <v>1.778</v>
       </c>
       <c r="D32" t="n">
-        <v>1.733</v>
+        <v>1.778</v>
       </c>
       <c r="E32" t="n">
-        <v>1.733</v>
+        <v>1.778</v>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>43002.0799</v>
       </c>
       <c r="G32" t="n">
-        <v>3080317.253229498</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,34 +1707,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="C33" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="D33" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="E33" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="F33" t="n">
-        <v>1000.9484</v>
+        <v>6520</v>
       </c>
       <c r="G33" t="n">
-        <v>3081318.201629499</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1743,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="C34" t="n">
-        <v>1.769</v>
+        <v>1.777</v>
       </c>
       <c r="D34" t="n">
-        <v>1.769</v>
+        <v>1.777</v>
       </c>
       <c r="E34" t="n">
-        <v>1.759</v>
+        <v>1.777</v>
       </c>
       <c r="F34" t="n">
-        <v>26504</v>
+        <v>6126399.2382</v>
       </c>
       <c r="G34" t="n">
-        <v>3107822.201629499</v>
+        <v>-1514665.342741002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,34 +1779,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.769</v>
+        <v>1.76</v>
       </c>
       <c r="C35" t="n">
-        <v>1.733</v>
+        <v>1.76</v>
       </c>
       <c r="D35" t="n">
-        <v>1.791</v>
+        <v>1.76</v>
       </c>
       <c r="E35" t="n">
-        <v>1.733</v>
+        <v>1.76</v>
       </c>
       <c r="F35" t="n">
-        <v>137746.2492705011</v>
+        <v>1556</v>
       </c>
       <c r="G35" t="n">
-        <v>2970075.952358997</v>
+        <v>-1516221.342741002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1815,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.733</v>
+        <v>1.758</v>
       </c>
       <c r="C36" t="n">
-        <v>1.797</v>
+        <v>1.74</v>
       </c>
       <c r="D36" t="n">
-        <v>1.797</v>
+        <v>1.758</v>
       </c>
       <c r="E36" t="n">
-        <v>1.733</v>
+        <v>1.74</v>
       </c>
       <c r="F36" t="n">
-        <v>356200.6334</v>
+        <v>433532.6787</v>
       </c>
       <c r="G36" t="n">
-        <v>3326276.585758998</v>
+        <v>-1949754.021441002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1851,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.77</v>
+        <v>1.759</v>
       </c>
       <c r="C37" t="n">
-        <v>1.77</v>
+        <v>1.759</v>
       </c>
       <c r="D37" t="n">
-        <v>1.77</v>
+        <v>1.759</v>
       </c>
       <c r="E37" t="n">
-        <v>1.77</v>
+        <v>1.759</v>
       </c>
       <c r="F37" t="n">
-        <v>1129.94</v>
+        <v>133001.5098</v>
       </c>
       <c r="G37" t="n">
-        <v>3325146.645758998</v>
+        <v>-1816752.511641002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1887,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.77</v>
+        <v>1.744</v>
       </c>
       <c r="C38" t="n">
-        <v>1.77</v>
+        <v>1.741</v>
       </c>
       <c r="D38" t="n">
-        <v>1.77</v>
+        <v>1.744</v>
       </c>
       <c r="E38" t="n">
-        <v>1.77</v>
+        <v>1.741</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0036</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>3325146.645758998</v>
+        <v>-1817752.511641002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1923,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.762</v>
+        <v>1.743</v>
       </c>
       <c r="C39" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="D39" t="n">
-        <v>1.762</v>
+        <v>1.743</v>
       </c>
       <c r="E39" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="F39" t="n">
-        <v>161537.5694</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>3163609.076358998</v>
+        <v>-1817752.511641002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1959,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.754</v>
+        <v>1.741</v>
       </c>
       <c r="C40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="D40" t="n">
-        <v>1.754</v>
+        <v>1.741</v>
       </c>
       <c r="E40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="F40" t="n">
-        <v>400000</v>
+        <v>411460.65</v>
       </c>
       <c r="G40" t="n">
-        <v>2763609.076358998</v>
+        <v>-2229213.161641002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1995,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.752</v>
+        <v>1.759</v>
       </c>
       <c r="C41" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="D41" t="n">
-        <v>1.752</v>
+        <v>1.759</v>
       </c>
       <c r="E41" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>285</v>
       </c>
       <c r="G41" t="n">
-        <v>2763609.076358998</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +2031,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="C42" t="n">
-        <v>1.749</v>
+        <v>1.759</v>
       </c>
       <c r="D42" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="E42" t="n">
-        <v>1.749</v>
+        <v>1.759</v>
       </c>
       <c r="F42" t="n">
-        <v>216718.8538</v>
+        <v>300</v>
       </c>
       <c r="G42" t="n">
-        <v>2546890.222558998</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +2067,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="C43" t="n">
-        <v>1.749</v>
+        <v>1.759</v>
       </c>
       <c r="D43" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="E43" t="n">
-        <v>1.749</v>
+        <v>1.759</v>
       </c>
       <c r="F43" t="n">
-        <v>248671.5579</v>
+        <v>300</v>
       </c>
       <c r="G43" t="n">
-        <v>2546890.222558998</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +2103,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="C44" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="D44" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="E44" t="n">
-        <v>1.75</v>
+        <v>1.759</v>
       </c>
       <c r="F44" t="n">
-        <v>88029.9617</v>
+        <v>330635.2426</v>
       </c>
       <c r="G44" t="n">
-        <v>2634920.184258997</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +2139,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1941,19 +2149,19 @@
         <v>1.76</v>
       </c>
       <c r="C45" t="n">
-        <v>1.75</v>
+        <v>1.742</v>
       </c>
       <c r="D45" t="n">
         <v>1.76</v>
       </c>
       <c r="E45" t="n">
-        <v>1.75</v>
+        <v>1.742</v>
       </c>
       <c r="F45" t="n">
-        <v>626427.8049</v>
+        <v>203178.4641</v>
       </c>
       <c r="G45" t="n">
-        <v>2634920.184258997</v>
+        <v>-2432106.625741002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2175,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.752</v>
+        <v>1.765</v>
       </c>
       <c r="C46" t="n">
         <v>1.75</v>
       </c>
       <c r="D46" t="n">
-        <v>1.752</v>
+        <v>1.765</v>
       </c>
       <c r="E46" t="n">
-        <v>1.75</v>
+        <v>1.743</v>
       </c>
       <c r="F46" t="n">
-        <v>1000</v>
+        <v>51315.97</v>
       </c>
       <c r="G46" t="n">
-        <v>2634920.184258997</v>
+        <v>-2380790.655741002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2211,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.754</v>
+        <v>1.76</v>
       </c>
       <c r="C47" t="n">
-        <v>1.752</v>
+        <v>1.76</v>
       </c>
       <c r="D47" t="n">
-        <v>1.754</v>
+        <v>1.76</v>
       </c>
       <c r="E47" t="n">
-        <v>1.752</v>
+        <v>1.76</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="G47" t="n">
-        <v>2635920.184258997</v>
+        <v>-2380500.655741002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2247,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.754</v>
+        <v>1.747</v>
       </c>
       <c r="C48" t="n">
-        <v>1.752</v>
+        <v>1.746</v>
       </c>
       <c r="D48" t="n">
-        <v>1.754</v>
+        <v>1.747</v>
       </c>
       <c r="E48" t="n">
-        <v>1.752</v>
+        <v>1.746</v>
       </c>
       <c r="F48" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="n">
-        <v>2635920.184258997</v>
+        <v>-2382500.655741002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2283,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="C49" t="n">
-        <v>1.757</v>
+        <v>1.759</v>
       </c>
       <c r="D49" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E49" t="n">
-        <v>1.757</v>
+        <v>1.759</v>
       </c>
       <c r="F49" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="G49" t="n">
-        <v>2636920.184258997</v>
+        <v>-2382210.655741002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2319,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.77</v>
+        <v>1.748</v>
       </c>
       <c r="C50" t="n">
-        <v>1.77</v>
+        <v>1.746</v>
       </c>
       <c r="D50" t="n">
-        <v>1.77</v>
+        <v>1.748</v>
       </c>
       <c r="E50" t="n">
-        <v>1.77</v>
+        <v>1.746</v>
       </c>
       <c r="F50" t="n">
-        <v>3232.6922</v>
+        <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>2640152.876458997</v>
+        <v>-2383210.655741002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2355,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.756</v>
+        <v>1.748</v>
       </c>
       <c r="C51" t="n">
-        <v>1.754</v>
+        <v>1.745</v>
       </c>
       <c r="D51" t="n">
-        <v>1.756</v>
+        <v>1.748</v>
       </c>
       <c r="E51" t="n">
-        <v>1.754</v>
+        <v>1.745</v>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>523280.5214</v>
       </c>
       <c r="G51" t="n">
-        <v>2639152.876458997</v>
+        <v>-2906491.177141002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2391,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.77</v>
+        <v>1.745</v>
       </c>
       <c r="C52" t="n">
-        <v>1.77</v>
+        <v>1.745</v>
       </c>
       <c r="D52" t="n">
-        <v>1.77</v>
+        <v>1.745</v>
       </c>
       <c r="E52" t="n">
-        <v>1.77</v>
+        <v>1.745</v>
       </c>
       <c r="F52" t="n">
-        <v>409.7465</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>2639562.622958997</v>
+        <v>-2906491.177141002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2427,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.77</v>
+        <v>1.743</v>
       </c>
       <c r="C53" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="D53" t="n">
-        <v>1.77</v>
+        <v>1.743</v>
       </c>
       <c r="E53" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="F53" t="n">
-        <v>637.6811</v>
+        <v>127442.45</v>
       </c>
       <c r="G53" t="n">
-        <v>2639562.622958997</v>
+        <v>-3033933.627141002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2463,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="C54" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="D54" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="E54" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="F54" t="n">
-        <v>6679381.7522</v>
+        <v>173126.0469</v>
       </c>
       <c r="G54" t="n">
-        <v>9318944.375158997</v>
+        <v>-3033933.627141002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2499,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.787</v>
+        <v>1.739</v>
       </c>
       <c r="C55" t="n">
-        <v>1.788</v>
+        <v>1.737</v>
       </c>
       <c r="D55" t="n">
-        <v>1.788</v>
+        <v>1.739</v>
       </c>
       <c r="E55" t="n">
-        <v>1.787</v>
+        <v>1.737</v>
       </c>
       <c r="F55" t="n">
-        <v>6468651.1984</v>
+        <v>268265.8793</v>
       </c>
       <c r="G55" t="n">
-        <v>9318944.375158997</v>
+        <v>-3302199.506441002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2535,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.788</v>
+        <v>1.737</v>
       </c>
       <c r="C56" t="n">
-        <v>1.788</v>
+        <v>1.736</v>
       </c>
       <c r="D56" t="n">
-        <v>1.788</v>
+        <v>1.737</v>
       </c>
       <c r="E56" t="n">
-        <v>1.788</v>
+        <v>1.736</v>
       </c>
       <c r="F56" t="n">
-        <v>222053.7836</v>
+        <v>370488.7909</v>
       </c>
       <c r="G56" t="n">
-        <v>9318944.375158997</v>
+        <v>-3672688.297341002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2571,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="C57" t="n">
-        <v>1.77</v>
+        <v>1.732</v>
       </c>
       <c r="D57" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="E57" t="n">
-        <v>1.77</v>
+        <v>1.732</v>
       </c>
       <c r="F57" t="n">
-        <v>752267.5716</v>
+        <v>1007460.798</v>
       </c>
       <c r="G57" t="n">
-        <v>8566676.803558998</v>
+        <v>-4680149.095341003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2607,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.767</v>
+        <v>1.759</v>
       </c>
       <c r="C58" t="n">
-        <v>1.767</v>
+        <v>1.759</v>
       </c>
       <c r="D58" t="n">
-        <v>1.767</v>
+        <v>1.759</v>
       </c>
       <c r="E58" t="n">
-        <v>1.767</v>
+        <v>1.759</v>
       </c>
       <c r="F58" t="n">
-        <v>10207.6203</v>
+        <v>2153.2127</v>
       </c>
       <c r="G58" t="n">
-        <v>8556469.183258997</v>
+        <v>-4677995.882641003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2643,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.767</v>
+        <v>1.734</v>
       </c>
       <c r="C59" t="n">
-        <v>1.767</v>
+        <v>1.759</v>
       </c>
       <c r="D59" t="n">
-        <v>1.767</v>
+        <v>1.759</v>
       </c>
       <c r="E59" t="n">
-        <v>1.767</v>
+        <v>1.731</v>
       </c>
       <c r="F59" t="n">
-        <v>1409</v>
+        <v>1742239.2939</v>
       </c>
       <c r="G59" t="n">
-        <v>8556469.183258997</v>
+        <v>-4677995.882641003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2679,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.766</v>
+        <v>1.758</v>
       </c>
       <c r="C60" t="n">
-        <v>1.766</v>
+        <v>1.758</v>
       </c>
       <c r="D60" t="n">
-        <v>1.766</v>
+        <v>1.758</v>
       </c>
       <c r="E60" t="n">
-        <v>1.766</v>
+        <v>1.758</v>
       </c>
       <c r="F60" t="n">
-        <v>5938711.2775</v>
+        <v>896.8307</v>
       </c>
       <c r="G60" t="n">
-        <v>2617757.905758997</v>
+        <v>-4678892.713341002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2715,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.766</v>
+        <v>1.735</v>
       </c>
       <c r="C61" t="n">
-        <v>1.766</v>
+        <v>1.729</v>
       </c>
       <c r="D61" t="n">
-        <v>1.766</v>
+        <v>1.735</v>
       </c>
       <c r="E61" t="n">
-        <v>1.766</v>
+        <v>1.729</v>
       </c>
       <c r="F61" t="n">
-        <v>12010876.7537</v>
+        <v>154331.2179</v>
       </c>
       <c r="G61" t="n">
-        <v>2617757.905758997</v>
+        <v>-4833223.931241002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2751,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.755</v>
+        <v>1.731</v>
       </c>
       <c r="C62" t="n">
-        <v>1.755</v>
+        <v>1.729</v>
       </c>
       <c r="D62" t="n">
-        <v>1.755</v>
+        <v>1.731</v>
       </c>
       <c r="E62" t="n">
-        <v>1.755</v>
+        <v>1.729</v>
       </c>
       <c r="F62" t="n">
-        <v>8327.0299</v>
+        <v>821073.7296</v>
       </c>
       <c r="G62" t="n">
-        <v>2609430.875858997</v>
+        <v>-4833223.931241002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2787,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.767</v>
+        <v>1.755</v>
       </c>
       <c r="C63" t="n">
-        <v>1.752</v>
+        <v>1.755</v>
       </c>
       <c r="D63" t="n">
-        <v>1.767</v>
+        <v>1.756</v>
       </c>
       <c r="E63" t="n">
-        <v>1.752</v>
+        <v>1.755</v>
       </c>
       <c r="F63" t="n">
-        <v>960568.5566</v>
+        <v>22339.5781</v>
       </c>
       <c r="G63" t="n">
-        <v>1648862.319258997</v>
+        <v>-4810884.353141002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2823,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.769</v>
+        <v>1.74</v>
       </c>
       <c r="C64" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="D64" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="E64" t="n">
-        <v>1.769</v>
+        <v>1.74</v>
       </c>
       <c r="F64" t="n">
-        <v>985950.177</v>
+        <v>25723.4301</v>
       </c>
       <c r="G64" t="n">
-        <v>2634812.496258997</v>
+        <v>-4836607.783241003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2859,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="C65" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="D65" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="E65" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="F65" t="n">
-        <v>6126966.6316</v>
+        <v>35750.9739</v>
       </c>
       <c r="G65" t="n">
-        <v>2634812.496258997</v>
+        <v>-4836607.783241003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2895,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="C66" t="n">
-        <v>1.789</v>
+        <v>1.74</v>
       </c>
       <c r="D66" t="n">
-        <v>1.789</v>
+        <v>1.74</v>
       </c>
       <c r="E66" t="n">
-        <v>1.788</v>
+        <v>1.74</v>
       </c>
       <c r="F66" t="n">
-        <v>6248512.0847</v>
+        <v>65442.9141</v>
       </c>
       <c r="G66" t="n">
-        <v>8883324.580958996</v>
+        <v>-4836607.783241003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2931,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.77</v>
+        <v>1.752</v>
       </c>
       <c r="C67" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="D67" t="n">
-        <v>1.77</v>
+        <v>1.752</v>
       </c>
       <c r="E67" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="F67" t="n">
-        <v>415265.0651</v>
+        <v>588.2354</v>
       </c>
       <c r="G67" t="n">
-        <v>8468059.515858997</v>
+        <v>-4836019.547841003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2967,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="C68" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="D68" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="E68" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="F68" t="n">
-        <v>124579.5195</v>
+        <v>2015.8195</v>
       </c>
       <c r="G68" t="n">
-        <v>8468059.515858997</v>
+        <v>-4836019.547841003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +3003,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="C69" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="D69" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="E69" t="n">
-        <v>1.76</v>
+        <v>1.752</v>
       </c>
       <c r="F69" t="n">
-        <v>112121.5675</v>
+        <v>29584.1805</v>
       </c>
       <c r="G69" t="n">
-        <v>8468059.515858997</v>
+        <v>-4836019.547841003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +3039,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.779</v>
+        <v>1.751</v>
       </c>
       <c r="C70" t="n">
-        <v>1.779</v>
+        <v>1.751</v>
       </c>
       <c r="D70" t="n">
-        <v>1.779</v>
+        <v>1.751</v>
       </c>
       <c r="E70" t="n">
-        <v>1.779</v>
+        <v>1.751</v>
       </c>
       <c r="F70" t="n">
-        <v>1874260.8166</v>
+        <v>21000</v>
       </c>
       <c r="G70" t="n">
-        <v>10342320.332459</v>
+        <v>-4857019.547841003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +3075,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="C71" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="D71" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="E71" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="F71" t="n">
-        <v>11823243.6109</v>
+        <v>31000</v>
       </c>
       <c r="G71" t="n">
-        <v>-1480923.278441003</v>
+        <v>-4857019.547841003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +3111,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="C72" t="n">
-        <v>1.778</v>
+        <v>1.752</v>
       </c>
       <c r="D72" t="n">
-        <v>1.778</v>
+        <v>1.752</v>
       </c>
       <c r="E72" t="n">
-        <v>1.777</v>
+        <v>1.751</v>
       </c>
       <c r="F72" t="n">
-        <v>6092657.1739</v>
+        <v>27548.9701</v>
       </c>
       <c r="G72" t="n">
-        <v>4611733.895458997</v>
+        <v>-4829470.577741004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3147,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.778</v>
+        <v>1.751</v>
       </c>
       <c r="C73" t="n">
-        <v>1.778</v>
+        <v>1.751</v>
       </c>
       <c r="D73" t="n">
-        <v>1.778</v>
+        <v>1.751</v>
       </c>
       <c r="E73" t="n">
-        <v>1.778</v>
+        <v>1.751</v>
       </c>
       <c r="F73" t="n">
-        <v>83972.8034</v>
+        <v>100551.0299</v>
       </c>
       <c r="G73" t="n">
-        <v>4611733.895458997</v>
+        <v>-4930021.607641004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3183,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.778</v>
+        <v>1.732</v>
       </c>
       <c r="C74" t="n">
-        <v>1.778</v>
+        <v>1.732</v>
       </c>
       <c r="D74" t="n">
-        <v>1.778</v>
+        <v>1.732</v>
       </c>
       <c r="E74" t="n">
-        <v>1.778</v>
+        <v>1.732</v>
       </c>
       <c r="F74" t="n">
-        <v>43002.0799</v>
+        <v>378601.3563</v>
       </c>
       <c r="G74" t="n">
-        <v>4611733.895458997</v>
+        <v>-5308622.963941004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3219,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.777</v>
+        <v>1.73</v>
       </c>
       <c r="C75" t="n">
-        <v>1.778</v>
+        <v>1.73</v>
       </c>
       <c r="D75" t="n">
-        <v>1.778</v>
+        <v>1.73</v>
       </c>
       <c r="E75" t="n">
-        <v>1.777</v>
+        <v>1.73</v>
       </c>
       <c r="F75" t="n">
-        <v>6520</v>
+        <v>93880.6811</v>
       </c>
       <c r="G75" t="n">
-        <v>4611733.895458997</v>
+        <v>-5402503.645041004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3255,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.777</v>
+        <v>1.73</v>
       </c>
       <c r="C76" t="n">
-        <v>1.777</v>
+        <v>1.74</v>
       </c>
       <c r="D76" t="n">
-        <v>1.777</v>
+        <v>1.74</v>
       </c>
       <c r="E76" t="n">
-        <v>1.777</v>
+        <v>1.73</v>
       </c>
       <c r="F76" t="n">
-        <v>6126399.2382</v>
+        <v>251435</v>
       </c>
       <c r="G76" t="n">
-        <v>-1514665.342741002</v>
+        <v>-5151068.645041004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,34 +3291,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.76</v>
+        <v>1.739</v>
       </c>
       <c r="C77" t="n">
-        <v>1.76</v>
+        <v>1.749</v>
       </c>
       <c r="D77" t="n">
-        <v>1.76</v>
+        <v>1.749</v>
       </c>
       <c r="E77" t="n">
-        <v>1.76</v>
+        <v>1.739</v>
       </c>
       <c r="F77" t="n">
-        <v>1556</v>
+        <v>8230.67</v>
       </c>
       <c r="G77" t="n">
-        <v>-1516221.342741002</v>
+        <v>-5142837.975041004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,28 +3327,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.758</v>
+        <v>1.749</v>
       </c>
       <c r="C78" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="D78" t="n">
-        <v>1.758</v>
+        <v>1.749</v>
       </c>
       <c r="E78" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="F78" t="n">
-        <v>433532.6787</v>
+        <v>6423.37</v>
       </c>
       <c r="G78" t="n">
-        <v>-1949754.021441002</v>
+        <v>-5142837.975041004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3363,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.759</v>
+        <v>1.749</v>
       </c>
       <c r="C79" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="D79" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="E79" t="n">
-        <v>1.759</v>
+        <v>1.749</v>
       </c>
       <c r="F79" t="n">
-        <v>133001.5098</v>
+        <v>7742.34</v>
       </c>
       <c r="G79" t="n">
-        <v>-1816752.511641002</v>
+        <v>-5135095.635041004</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3399,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.744</v>
+        <v>1.75</v>
       </c>
       <c r="C80" t="n">
-        <v>1.741</v>
+        <v>1.75</v>
       </c>
       <c r="D80" t="n">
-        <v>1.744</v>
+        <v>1.75</v>
       </c>
       <c r="E80" t="n">
-        <v>1.741</v>
+        <v>1.75</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>2641.81</v>
       </c>
       <c r="G80" t="n">
-        <v>-1817752.511641002</v>
+        <v>-5135095.635041004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3435,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3201,19 +3445,19 @@
         <v>1.743</v>
       </c>
       <c r="C81" t="n">
-        <v>1.741</v>
+        <v>1.743</v>
       </c>
       <c r="D81" t="n">
         <v>1.743</v>
       </c>
       <c r="E81" t="n">
-        <v>1.741</v>
+        <v>1.743</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>4328.3872</v>
       </c>
       <c r="G81" t="n">
-        <v>-1817752.511641002</v>
+        <v>-5139424.022241004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3471,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.741</v>
+        <v>1.743</v>
       </c>
       <c r="C82" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
       <c r="D82" t="n">
-        <v>1.741</v>
+        <v>1.743</v>
       </c>
       <c r="E82" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
       <c r="F82" t="n">
-        <v>411460.65</v>
+        <v>33207.87</v>
       </c>
       <c r="G82" t="n">
-        <v>-2229213.161641002</v>
+        <v>-5139424.022241004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3507,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="C83" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="D83" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="E83" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="F83" t="n">
-        <v>285</v>
+        <v>10332.32</v>
       </c>
       <c r="G83" t="n">
-        <v>-2228928.161641002</v>
+        <v>-5139424.022241004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3543,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="C84" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="D84" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="E84" t="n">
-        <v>1.759</v>
+        <v>1.743</v>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>37438.1956</v>
       </c>
       <c r="G84" t="n">
-        <v>-2228928.161641002</v>
+        <v>-5139424.022241004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3579,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="C85" t="n">
-        <v>1.759</v>
+        <v>1.77</v>
       </c>
       <c r="D85" t="n">
-        <v>1.759</v>
+        <v>1.77</v>
       </c>
       <c r="E85" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>233757.2206</v>
       </c>
       <c r="G85" t="n">
-        <v>-2228928.161641002</v>
+        <v>-4905666.801641004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3615,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.759</v>
+        <v>1.77</v>
       </c>
       <c r="C86" t="n">
-        <v>1.759</v>
+        <v>1.762</v>
       </c>
       <c r="D86" t="n">
-        <v>1.759</v>
+        <v>1.794</v>
       </c>
       <c r="E86" t="n">
-        <v>1.759</v>
+        <v>1.762</v>
       </c>
       <c r="F86" t="n">
-        <v>330635.2426</v>
+        <v>1119694.9593</v>
       </c>
       <c r="G86" t="n">
-        <v>-2228928.161641002</v>
+        <v>-6025361.760941004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3651,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="C87" t="n">
-        <v>1.742</v>
+        <v>1.77</v>
       </c>
       <c r="D87" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="E87" t="n">
-        <v>1.742</v>
+        <v>1.77</v>
       </c>
       <c r="F87" t="n">
-        <v>203178.4641</v>
+        <v>324179.7</v>
       </c>
       <c r="G87" t="n">
-        <v>-2432106.625741002</v>
+        <v>-5701182.060941004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3687,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.765</v>
+        <v>1.794</v>
       </c>
       <c r="C88" t="n">
-        <v>1.75</v>
+        <v>1.794</v>
       </c>
       <c r="D88" t="n">
-        <v>1.765</v>
+        <v>1.794</v>
       </c>
       <c r="E88" t="n">
-        <v>1.743</v>
+        <v>1.794</v>
       </c>
       <c r="F88" t="n">
-        <v>51315.97</v>
+        <v>594</v>
       </c>
       <c r="G88" t="n">
-        <v>-2380790.655741002</v>
+        <v>-5700588.060941004</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3723,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.76</v>
+        <v>1.794</v>
       </c>
       <c r="C89" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="D89" t="n">
-        <v>1.76</v>
+        <v>1.824</v>
       </c>
       <c r="E89" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F89" t="n">
-        <v>290</v>
+        <v>1380348</v>
       </c>
       <c r="G89" t="n">
-        <v>-2380500.655741002</v>
+        <v>-4320240.060941004</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3759,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.747</v>
+        <v>1.8</v>
       </c>
       <c r="C90" t="n">
-        <v>1.746</v>
+        <v>1.8</v>
       </c>
       <c r="D90" t="n">
-        <v>1.747</v>
+        <v>1.8</v>
       </c>
       <c r="E90" t="n">
-        <v>1.746</v>
+        <v>1.8</v>
       </c>
       <c r="F90" t="n">
-        <v>2000</v>
+        <v>115261.0374</v>
       </c>
       <c r="G90" t="n">
-        <v>-2382500.655741002</v>
+        <v>-4435501.098341004</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,34 +3795,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.759</v>
+        <v>1.791</v>
       </c>
       <c r="C91" t="n">
-        <v>1.759</v>
+        <v>1.8</v>
       </c>
       <c r="D91" t="n">
-        <v>1.759</v>
+        <v>1.8</v>
       </c>
       <c r="E91" t="n">
-        <v>1.759</v>
+        <v>1.79</v>
       </c>
       <c r="F91" t="n">
-        <v>290</v>
+        <v>374556.6605</v>
       </c>
       <c r="G91" t="n">
-        <v>-2382210.655741002</v>
+        <v>-4435501.098341004</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,28 +3831,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.748</v>
+        <v>1.79</v>
       </c>
       <c r="C92" t="n">
-        <v>1.746</v>
+        <v>1.79</v>
       </c>
       <c r="D92" t="n">
-        <v>1.748</v>
+        <v>1.79</v>
       </c>
       <c r="E92" t="n">
-        <v>1.746</v>
+        <v>1.79</v>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>6520</v>
       </c>
       <c r="G92" t="n">
-        <v>-2383210.655741002</v>
+        <v>-4442021.098341004</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3867,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.748</v>
+        <v>1.82</v>
       </c>
       <c r="C93" t="n">
-        <v>1.745</v>
+        <v>1.8</v>
       </c>
       <c r="D93" t="n">
-        <v>1.748</v>
+        <v>1.82</v>
       </c>
       <c r="E93" t="n">
-        <v>1.745</v>
+        <v>1.79</v>
       </c>
       <c r="F93" t="n">
-        <v>523280.5214</v>
+        <v>220866.1319</v>
       </c>
       <c r="G93" t="n">
-        <v>-2906491.177141002</v>
+        <v>-4221154.966441004</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3903,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.745</v>
+        <v>1.79</v>
       </c>
       <c r="C94" t="n">
-        <v>1.745</v>
+        <v>1.79</v>
       </c>
       <c r="D94" t="n">
-        <v>1.745</v>
+        <v>1.79</v>
       </c>
       <c r="E94" t="n">
-        <v>1.745</v>
+        <v>1.79</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>244860.5147</v>
       </c>
       <c r="G94" t="n">
-        <v>-2906491.177141002</v>
+        <v>-4466015.481141004</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,34 +3939,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.743</v>
+        <v>1.79</v>
       </c>
       <c r="C95" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="D95" t="n">
-        <v>1.743</v>
+        <v>1.79</v>
       </c>
       <c r="E95" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="F95" t="n">
-        <v>127442.45</v>
+        <v>175657.9849</v>
       </c>
       <c r="G95" t="n">
-        <v>-3033933.627141002</v>
+        <v>-4466015.481141004</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,34 +3975,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="C96" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="D96" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="E96" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="F96" t="n">
-        <v>173126.0469</v>
+        <v>533716.5495</v>
       </c>
       <c r="G96" t="n">
-        <v>-3033933.627141002</v>
+        <v>-4999732.030641004</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,34 +4011,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.739</v>
+        <v>1.779</v>
       </c>
       <c r="C97" t="n">
-        <v>1.737</v>
+        <v>1.76</v>
       </c>
       <c r="D97" t="n">
-        <v>1.739</v>
+        <v>1.779</v>
       </c>
       <c r="E97" t="n">
-        <v>1.737</v>
+        <v>1.76</v>
       </c>
       <c r="F97" t="n">
-        <v>268265.8793</v>
+        <v>232993.3887</v>
       </c>
       <c r="G97" t="n">
-        <v>-3302199.506441002</v>
+        <v>-5232725.419341004</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3787,34 +4047,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.737</v>
+        <v>1.78</v>
       </c>
       <c r="C98" t="n">
-        <v>1.736</v>
+        <v>1.78</v>
       </c>
       <c r="D98" t="n">
-        <v>1.737</v>
+        <v>1.78</v>
       </c>
       <c r="E98" t="n">
-        <v>1.736</v>
+        <v>1.78</v>
       </c>
       <c r="F98" t="n">
-        <v>370488.7909</v>
+        <v>280.8989</v>
       </c>
       <c r="G98" t="n">
-        <v>-3672688.297341002</v>
+        <v>-5232444.520441003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,28 +4083,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="C99" t="n">
-        <v>1.732</v>
+        <v>1.76</v>
       </c>
       <c r="D99" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="E99" t="n">
-        <v>1.732</v>
+        <v>1.76</v>
       </c>
       <c r="F99" t="n">
-        <v>1007460.798</v>
+        <v>127073.8797</v>
       </c>
       <c r="G99" t="n">
-        <v>-4680149.095341003</v>
+        <v>-5359518.400141004</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4119,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="C100" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="D100" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="E100" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="F100" t="n">
-        <v>2153.2127</v>
+        <v>20000</v>
       </c>
       <c r="G100" t="n">
-        <v>-4677995.882641003</v>
+        <v>-5359518.400141004</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4155,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.734</v>
+        <v>1.76</v>
       </c>
       <c r="C101" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="D101" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="E101" t="n">
-        <v>1.731</v>
+        <v>1.76</v>
       </c>
       <c r="F101" t="n">
-        <v>1742239.2939</v>
+        <v>3000</v>
       </c>
       <c r="G101" t="n">
-        <v>-4677995.882641003</v>
+        <v>-5359518.400141004</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4191,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="C102" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="D102" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E102" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="F102" t="n">
-        <v>896.8307</v>
+        <v>8627.23</v>
       </c>
       <c r="G102" t="n">
-        <v>-4678892.713341002</v>
+        <v>-5368145.630141004</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4227,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.735</v>
+        <v>1.759</v>
       </c>
       <c r="C103" t="n">
-        <v>1.729</v>
+        <v>1.75</v>
       </c>
       <c r="D103" t="n">
-        <v>1.735</v>
+        <v>1.759</v>
       </c>
       <c r="E103" t="n">
-        <v>1.729</v>
+        <v>1.75</v>
       </c>
       <c r="F103" t="n">
-        <v>154331.2179</v>
+        <v>118081.5271</v>
       </c>
       <c r="G103" t="n">
-        <v>-4833223.931241002</v>
+        <v>-5486227.157241004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4263,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.731</v>
+        <v>1.729</v>
       </c>
       <c r="C104" t="n">
-        <v>1.729</v>
+        <v>1.779</v>
       </c>
       <c r="D104" t="n">
-        <v>1.731</v>
+        <v>1.779</v>
       </c>
       <c r="E104" t="n">
         <v>1.729</v>
       </c>
       <c r="F104" t="n">
-        <v>821073.7296</v>
+        <v>146776.9736</v>
       </c>
       <c r="G104" t="n">
-        <v>-4833223.931241002</v>
+        <v>-5339450.183641003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4299,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.755</v>
+        <v>1.779</v>
       </c>
       <c r="C105" t="n">
-        <v>1.755</v>
+        <v>1.779</v>
       </c>
       <c r="D105" t="n">
-        <v>1.756</v>
+        <v>1.779</v>
       </c>
       <c r="E105" t="n">
-        <v>1.755</v>
+        <v>1.779</v>
       </c>
       <c r="F105" t="n">
-        <v>22339.5781</v>
+        <v>12739.6122</v>
       </c>
       <c r="G105" t="n">
-        <v>-4810884.353141002</v>
+        <v>-5339450.183641003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4335,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="C106" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="D106" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="E106" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="F106" t="n">
-        <v>25723.4301</v>
+        <v>14251.3803</v>
       </c>
       <c r="G106" t="n">
-        <v>-4836607.783241003</v>
+        <v>-5353701.563941004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4371,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="C107" t="n">
-        <v>1.74</v>
+        <v>1.728</v>
       </c>
       <c r="D107" t="n">
-        <v>1.74</v>
+        <v>1.749</v>
       </c>
       <c r="E107" t="n">
-        <v>1.74</v>
+        <v>1.728</v>
       </c>
       <c r="F107" t="n">
-        <v>35750.9739</v>
+        <v>68262.47530000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-4836607.783241003</v>
+        <v>-5421964.039241004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4407,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="C108" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="D108" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="E108" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="F108" t="n">
-        <v>65442.9141</v>
+        <v>203503.8558</v>
       </c>
       <c r="G108" t="n">
-        <v>-4836607.783241003</v>
+        <v>-5218460.183441004</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4443,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.752</v>
+        <v>1.732</v>
       </c>
       <c r="C109" t="n">
-        <v>1.752</v>
+        <v>1.73</v>
       </c>
       <c r="D109" t="n">
-        <v>1.752</v>
+        <v>1.732</v>
       </c>
       <c r="E109" t="n">
-        <v>1.752</v>
+        <v>1.73</v>
       </c>
       <c r="F109" t="n">
-        <v>588.2354</v>
+        <v>539648.8538</v>
       </c>
       <c r="G109" t="n">
-        <v>-4836019.547841003</v>
+        <v>-5758109.037241003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4479,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.752</v>
+        <v>1.732</v>
       </c>
       <c r="C110" t="n">
-        <v>1.752</v>
+        <v>1.732</v>
       </c>
       <c r="D110" t="n">
-        <v>1.752</v>
+        <v>1.732</v>
       </c>
       <c r="E110" t="n">
-        <v>1.752</v>
+        <v>1.732</v>
       </c>
       <c r="F110" t="n">
-        <v>2015.8195</v>
+        <v>1249092.1091</v>
       </c>
       <c r="G110" t="n">
-        <v>-4836019.547841003</v>
+        <v>-4509016.928141003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4515,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.752</v>
+        <v>1.733</v>
       </c>
       <c r="C111" t="n">
-        <v>1.752</v>
+        <v>1.733</v>
       </c>
       <c r="D111" t="n">
-        <v>1.752</v>
+        <v>1.733</v>
       </c>
       <c r="E111" t="n">
-        <v>1.752</v>
+        <v>1.733</v>
       </c>
       <c r="F111" t="n">
-        <v>29584.1805</v>
+        <v>9424.4624</v>
       </c>
       <c r="G111" t="n">
-        <v>-4836019.547841003</v>
+        <v>-4499592.465741004</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4551,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.751</v>
+        <v>1.745</v>
       </c>
       <c r="C112" t="n">
-        <v>1.751</v>
+        <v>1.745</v>
       </c>
       <c r="D112" t="n">
-        <v>1.751</v>
+        <v>1.745</v>
       </c>
       <c r="E112" t="n">
-        <v>1.751</v>
+        <v>1.745</v>
       </c>
       <c r="F112" t="n">
-        <v>21000</v>
+        <v>3368.6099</v>
       </c>
       <c r="G112" t="n">
-        <v>-4857019.547841003</v>
+        <v>-4496223.855841004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4587,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.751</v>
+        <v>1.744</v>
       </c>
       <c r="C113" t="n">
-        <v>1.751</v>
+        <v>1.744</v>
       </c>
       <c r="D113" t="n">
-        <v>1.751</v>
+        <v>1.744</v>
       </c>
       <c r="E113" t="n">
-        <v>1.751</v>
+        <v>1.744</v>
       </c>
       <c r="F113" t="n">
-        <v>31000</v>
+        <v>2340.2333</v>
       </c>
       <c r="G113" t="n">
-        <v>-4857019.547841003</v>
+        <v>-4498564.089141005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4623,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.751</v>
+        <v>1.744</v>
       </c>
       <c r="C114" t="n">
-        <v>1.752</v>
+        <v>1.744</v>
       </c>
       <c r="D114" t="n">
-        <v>1.752</v>
+        <v>1.744</v>
       </c>
       <c r="E114" t="n">
-        <v>1.751</v>
+        <v>1.744</v>
       </c>
       <c r="F114" t="n">
-        <v>27548.9701</v>
+        <v>3667.0994</v>
       </c>
       <c r="G114" t="n">
-        <v>-4829470.577741004</v>
+        <v>-4498564.089141005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4659,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.751</v>
+        <v>1.743</v>
       </c>
       <c r="C115" t="n">
-        <v>1.751</v>
+        <v>1.743</v>
       </c>
       <c r="D115" t="n">
-        <v>1.751</v>
+        <v>1.743</v>
       </c>
       <c r="E115" t="n">
-        <v>1.751</v>
+        <v>1.743</v>
       </c>
       <c r="F115" t="n">
-        <v>100551.0299</v>
+        <v>8605.851979345955</v>
       </c>
       <c r="G115" t="n">
-        <v>-4930021.607641004</v>
+        <v>-4507169.941120351</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4695,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.732</v>
+        <v>1.743</v>
       </c>
       <c r="C116" t="n">
-        <v>1.732</v>
+        <v>1.743</v>
       </c>
       <c r="D116" t="n">
-        <v>1.732</v>
+        <v>1.743</v>
       </c>
       <c r="E116" t="n">
-        <v>1.732</v>
+        <v>1.743</v>
       </c>
       <c r="F116" t="n">
-        <v>378601.3563</v>
+        <v>290</v>
       </c>
       <c r="G116" t="n">
-        <v>-5308622.963941004</v>
+        <v>-4507169.941120351</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4731,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.73</v>
+        <v>1.736</v>
       </c>
       <c r="C117" t="n">
-        <v>1.73</v>
+        <v>1.748</v>
       </c>
       <c r="D117" t="n">
-        <v>1.73</v>
+        <v>1.748</v>
       </c>
       <c r="E117" t="n">
-        <v>1.73</v>
+        <v>1.736</v>
       </c>
       <c r="F117" t="n">
-        <v>93880.6811</v>
+        <v>863661.0647</v>
       </c>
       <c r="G117" t="n">
-        <v>-5402503.645041004</v>
+        <v>-3643508.876420351</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,63 +4767,69 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.73</v>
+        <v>1.748</v>
       </c>
       <c r="C118" t="n">
-        <v>1.74</v>
+        <v>1.748</v>
       </c>
       <c r="D118" t="n">
-        <v>1.74</v>
+        <v>1.748</v>
       </c>
       <c r="E118" t="n">
-        <v>1.73</v>
+        <v>1.748</v>
       </c>
       <c r="F118" t="n">
-        <v>251435</v>
+        <v>66261.50719999999</v>
       </c>
       <c r="G118" t="n">
-        <v>-5151068.645041004</v>
+        <v>-3643508.876420351</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.748</v>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.739</v>
+        <v>1.748</v>
       </c>
       <c r="C119" t="n">
-        <v>1.749</v>
+        <v>1.748</v>
       </c>
       <c r="D119" t="n">
-        <v>1.749</v>
+        <v>1.748</v>
       </c>
       <c r="E119" t="n">
-        <v>1.739</v>
+        <v>1.748</v>
       </c>
       <c r="F119" t="n">
-        <v>8230.67</v>
+        <v>42644.2136</v>
       </c>
       <c r="G119" t="n">
-        <v>-5142837.975041004</v>
+        <v>-3643508.876420351</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,68 +4838,84 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.749</v>
+        <v>1.729</v>
       </c>
       <c r="C120" t="n">
-        <v>1.749</v>
+        <v>1.809</v>
       </c>
       <c r="D120" t="n">
-        <v>1.749</v>
+        <v>1.809</v>
       </c>
       <c r="E120" t="n">
-        <v>1.749</v>
+        <v>1.715</v>
       </c>
       <c r="F120" t="n">
-        <v>6423.37</v>
+        <v>598986.1844</v>
       </c>
       <c r="G120" t="n">
-        <v>-5142837.975041004</v>
+        <v>-3044522.692020351</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.749</v>
+        <v>1.799</v>
       </c>
       <c r="C121" t="n">
-        <v>1.75</v>
+        <v>1.799</v>
       </c>
       <c r="D121" t="n">
-        <v>1.75</v>
+        <v>1.799</v>
       </c>
       <c r="E121" t="n">
-        <v>1.749</v>
+        <v>1.799</v>
       </c>
       <c r="F121" t="n">
-        <v>7742.34</v>
+        <v>216061.8686</v>
       </c>
       <c r="G121" t="n">
-        <v>-5135095.635041004</v>
+        <v>-3260584.560620351</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,33 +4924,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.75</v>
+        <v>1.744</v>
       </c>
       <c r="C122" t="n">
-        <v>1.75</v>
+        <v>1.744</v>
       </c>
       <c r="D122" t="n">
-        <v>1.75</v>
+        <v>1.744</v>
       </c>
       <c r="E122" t="n">
-        <v>1.75</v>
+        <v>1.744</v>
       </c>
       <c r="F122" t="n">
-        <v>2641.81</v>
+        <v>216061.8686</v>
       </c>
       <c r="G122" t="n">
-        <v>-5135095.635041004</v>
+        <v>-3476646.429220351</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,33 +4966,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.743</v>
+        <v>1.755</v>
       </c>
       <c r="C123" t="n">
-        <v>1.743</v>
+        <v>1.755</v>
       </c>
       <c r="D123" t="n">
-        <v>1.743</v>
+        <v>1.755</v>
       </c>
       <c r="E123" t="n">
-        <v>1.743</v>
+        <v>1.755</v>
       </c>
       <c r="F123" t="n">
-        <v>4328.3872</v>
+        <v>14318.589</v>
       </c>
       <c r="G123" t="n">
-        <v>-5139424.022241004</v>
+        <v>-3462327.840220351</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,33 +5008,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.743</v>
+        <v>1.727</v>
       </c>
       <c r="C124" t="n">
-        <v>1.743</v>
+        <v>1.711</v>
       </c>
       <c r="D124" t="n">
-        <v>1.743</v>
+        <v>1.727</v>
       </c>
       <c r="E124" t="n">
-        <v>1.743</v>
+        <v>1.711</v>
       </c>
       <c r="F124" t="n">
-        <v>33207.87</v>
+        <v>751502.1746</v>
       </c>
       <c r="G124" t="n">
-        <v>-5139424.022241004</v>
+        <v>-4213830.01482035</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,33 +5050,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.743</v>
+        <v>1.719</v>
       </c>
       <c r="C125" t="n">
-        <v>1.743</v>
+        <v>1.74</v>
       </c>
       <c r="D125" t="n">
-        <v>1.743</v>
+        <v>1.74</v>
       </c>
       <c r="E125" t="n">
-        <v>1.743</v>
+        <v>1.719</v>
       </c>
       <c r="F125" t="n">
-        <v>10332.32</v>
+        <v>1237009.0115</v>
       </c>
       <c r="G125" t="n">
-        <v>-5139424.022241004</v>
+        <v>-2976821.00332035</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +5092,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.743</v>
+        <v>1.736</v>
       </c>
       <c r="C126" t="n">
-        <v>1.743</v>
+        <v>1.736</v>
       </c>
       <c r="D126" t="n">
-        <v>1.743</v>
+        <v>1.736</v>
       </c>
       <c r="E126" t="n">
-        <v>1.743</v>
+        <v>1.736</v>
       </c>
       <c r="F126" t="n">
-        <v>37438.1956</v>
+        <v>1107532.8211</v>
       </c>
       <c r="G126" t="n">
-        <v>-5139424.022241004</v>
+        <v>-4084353.824420351</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,33 +5134,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.75</v>
+        <v>1.736</v>
       </c>
       <c r="C127" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="D127" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="E127" t="n">
-        <v>1.75</v>
+        <v>1.736</v>
       </c>
       <c r="F127" t="n">
-        <v>233757.2206</v>
+        <v>55467.1789</v>
       </c>
       <c r="G127" t="n">
-        <v>-4905666.801641004</v>
+        <v>-4084353.824420351</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,33 +5176,40 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.77</v>
+        <v>1.738</v>
       </c>
       <c r="C128" t="n">
-        <v>1.762</v>
+        <v>1.739</v>
       </c>
       <c r="D128" t="n">
-        <v>1.794</v>
+        <v>1.739</v>
       </c>
       <c r="E128" t="n">
-        <v>1.762</v>
+        <v>1.738</v>
       </c>
       <c r="F128" t="n">
-        <v>1119694.9593</v>
+        <v>150213.2666</v>
       </c>
       <c r="G128" t="n">
-        <v>-6025361.760941004</v>
+        <v>-3934140.55782035</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,33 +5218,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="C129" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="D129" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="E129" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="F129" t="n">
-        <v>324179.7</v>
+        <v>125727.2337</v>
       </c>
       <c r="G129" t="n">
-        <v>-5701182.060941004</v>
+        <v>-3808413.32412035</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5260,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.794</v>
+        <v>1.755</v>
       </c>
       <c r="C130" t="n">
-        <v>1.794</v>
+        <v>1.754</v>
       </c>
       <c r="D130" t="n">
-        <v>1.794</v>
+        <v>1.755</v>
       </c>
       <c r="E130" t="n">
-        <v>1.794</v>
+        <v>1.754</v>
       </c>
       <c r="F130" t="n">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="G130" t="n">
-        <v>-5700588.060941004</v>
+        <v>-3807837.32412035</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,33 +5302,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.794</v>
+        <v>1.754</v>
       </c>
       <c r="C131" t="n">
-        <v>1.82</v>
+        <v>1.754</v>
       </c>
       <c r="D131" t="n">
-        <v>1.824</v>
+        <v>1.754</v>
       </c>
       <c r="E131" t="n">
-        <v>1.79</v>
+        <v>1.754</v>
       </c>
       <c r="F131" t="n">
-        <v>1380348</v>
+        <v>864</v>
       </c>
       <c r="G131" t="n">
-        <v>-4320240.060941004</v>
+        <v>-3807837.32412035</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,68 +5344,82 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="C132" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="D132" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="E132" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="F132" t="n">
-        <v>115261.0374</v>
+        <v>576</v>
       </c>
       <c r="G132" t="n">
-        <v>-4435501.098341004</v>
+        <v>-3807261.32412035</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.791</v>
+        <v>1.755</v>
       </c>
       <c r="C133" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="D133" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="E133" t="n">
-        <v>1.79</v>
+        <v>1.755</v>
       </c>
       <c r="F133" t="n">
-        <v>374556.6605</v>
+        <v>288</v>
       </c>
       <c r="G133" t="n">
-        <v>-4435501.098341004</v>
+        <v>-3807261.32412035</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,68 +5428,84 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.79</v>
+        <v>1.755</v>
       </c>
       <c r="C134" t="n">
-        <v>1.79</v>
+        <v>1.755</v>
       </c>
       <c r="D134" t="n">
-        <v>1.79</v>
+        <v>1.755</v>
       </c>
       <c r="E134" t="n">
-        <v>1.79</v>
+        <v>1.755</v>
       </c>
       <c r="F134" t="n">
-        <v>6520</v>
+        <v>425565.3913</v>
       </c>
       <c r="G134" t="n">
-        <v>-4442021.098341004</v>
+        <v>-3807261.32412035</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.82</v>
+        <v>1.755</v>
       </c>
       <c r="C135" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="D135" t="n">
-        <v>1.82</v>
+        <v>1.788</v>
       </c>
       <c r="E135" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="F135" t="n">
-        <v>220866.1319</v>
+        <v>345892.1989</v>
       </c>
       <c r="G135" t="n">
-        <v>-4221154.966441004</v>
+        <v>-3461369.12522035</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,11 +5514,18 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5135,45 +5544,52 @@
         <v>1.79</v>
       </c>
       <c r="F136" t="n">
-        <v>244860.5147</v>
+        <v>576</v>
       </c>
       <c r="G136" t="n">
-        <v>-4466015.481141004</v>
+        <v>-3460793.12522035</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="C137" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="D137" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="E137" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="F137" t="n">
-        <v>175657.9849</v>
+        <v>1743.08</v>
       </c>
       <c r="G137" t="n">
-        <v>-4466015.481141004</v>
+        <v>-3462536.20522035</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,68 +5598,82 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="C138" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="D138" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="E138" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F138" t="n">
-        <v>533716.5495</v>
+        <v>1838.6</v>
       </c>
       <c r="G138" t="n">
-        <v>-4999732.030641004</v>
+        <v>-3460697.60522035</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.779</v>
+        <v>1.79</v>
       </c>
       <c r="C139" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="D139" t="n">
-        <v>1.779</v>
+        <v>1.79</v>
       </c>
       <c r="E139" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F139" t="n">
-        <v>232993.3887</v>
+        <v>46257.8996</v>
       </c>
       <c r="G139" t="n">
-        <v>-5232725.419341004</v>
+        <v>-3460697.60522035</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,33 +5682,40 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="C140" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="D140" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="E140" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F140" t="n">
-        <v>280.8989</v>
+        <v>576</v>
       </c>
       <c r="G140" t="n">
-        <v>-5232444.520441003</v>
+        <v>-3460697.60522035</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,33 +5724,40 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="C141" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="D141" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="E141" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F141" t="n">
-        <v>127073.8797</v>
+        <v>288</v>
       </c>
       <c r="G141" t="n">
-        <v>-5359518.400141004</v>
+        <v>-3460697.60522035</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,33 +5766,40 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="C142" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="D142" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="E142" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F142" t="n">
-        <v>20000</v>
+        <v>288</v>
       </c>
       <c r="G142" t="n">
-        <v>-5359518.400141004</v>
+        <v>-3460697.60522035</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,33 +5808,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="C143" t="n">
-        <v>1.76</v>
+        <v>1.799</v>
       </c>
       <c r="D143" t="n">
-        <v>1.76</v>
+        <v>1.799</v>
       </c>
       <c r="E143" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F143" t="n">
-        <v>3000</v>
+        <v>104997.1979</v>
       </c>
       <c r="G143" t="n">
-        <v>-5359518.400141004</v>
+        <v>-3355700.40732035</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,1593 +5850,18 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="F144" t="n">
-        <v>8627.23</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-5368145.630141004</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F145" t="n">
-        <v>118081.5271</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-5486227.157241004</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="F146" t="n">
-        <v>146776.9736</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-5339450.183641003</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F147" t="n">
-        <v>12739.6122</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-5339450.183641003</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F148" t="n">
-        <v>14251.3803</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-5353701.563941004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="F149" t="n">
-        <v>68262.47530000001</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-5421964.039241004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="F150" t="n">
-        <v>203503.8558</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-5218460.183441004</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F151" t="n">
-        <v>539648.8538</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-5758109.037241003</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="E152" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1249092.1091</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-4509016.928141003</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="F153" t="n">
-        <v>9424.4624</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-4499592.465741004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="F154" t="n">
-        <v>3368.6099</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4496223.855841004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2340.2333</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4498564.089141005</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3667.0994</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4498564.089141005</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="F157" t="n">
-        <v>8605.851979345955</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4507169.941120351</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="F158" t="n">
-        <v>290</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4507169.941120351</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="F159" t="n">
-        <v>863661.0647</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-3643508.876420351</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F160" t="n">
-        <v>66261.50719999999</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-3643508.876420351</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="F161" t="n">
-        <v>42644.2136</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-3643508.876420351</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.729</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.715</v>
-      </c>
-      <c r="F162" t="n">
-        <v>598986.1844</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-3044522.692020351</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="F163" t="n">
-        <v>216061.8686</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-3260584.560620351</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="F164" t="n">
-        <v>216061.8686</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-3476646.429220351</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="F165" t="n">
-        <v>14318.589</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-3462327.840220351</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.711</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.711</v>
-      </c>
-      <c r="F166" t="n">
-        <v>751502.1746</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-4213830.01482035</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1237009.0115</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2976821.00332035</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1107532.8211</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-4084353.824420351</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="F169" t="n">
-        <v>55467.1789</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-4084353.824420351</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="F170" t="n">
-        <v>150213.2666</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-3934140.55782035</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F171" t="n">
-        <v>125727.2337</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-3808413.32412035</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="F172" t="n">
-        <v>576</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-3807837.32412035</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="F173" t="n">
-        <v>864</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-3807837.32412035</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="F174" t="n">
-        <v>576</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-3807261.32412035</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="F175" t="n">
-        <v>288</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-3807261.32412035</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="F176" t="n">
-        <v>425565.3913</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-3807261.32412035</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F177" t="n">
-        <v>345892.1989</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-3461369.12522035</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F178" t="n">
-        <v>576</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-3460793.12522035</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1743.08</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-3462536.20522035</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1838.6</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F181" t="n">
-        <v>46257.8996</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F182" t="n">
-        <v>576</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F183" t="n">
-        <v>288</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F184" t="n">
-        <v>288</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F185" t="n">
-        <v>104997.1979</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-3355700.40732035</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
+      <c r="N143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75</v>
+        <v>1.739</v>
       </c>
       <c r="C2" t="n">
-        <v>1.75</v>
+        <v>1.737</v>
       </c>
       <c r="D2" t="n">
-        <v>1.75</v>
+        <v>1.739</v>
       </c>
       <c r="E2" t="n">
-        <v>1.75</v>
+        <v>1.737</v>
       </c>
       <c r="F2" t="n">
-        <v>88029.9617</v>
+        <v>60000</v>
       </c>
       <c r="G2" t="n">
-        <v>2634920.184258997</v>
+        <v>-638251.0675</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.76</v>
+        <v>1.738</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75</v>
+        <v>1.737</v>
       </c>
       <c r="D3" t="n">
-        <v>1.76</v>
+        <v>1.738</v>
       </c>
       <c r="E3" t="n">
-        <v>1.75</v>
+        <v>1.737</v>
       </c>
       <c r="F3" t="n">
-        <v>626427.8049</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>2634920.184258997</v>
+        <v>-638251.0675</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.752</v>
+        <v>1.737</v>
       </c>
       <c r="C4" t="n">
-        <v>1.75</v>
+        <v>1.724</v>
       </c>
       <c r="D4" t="n">
-        <v>1.752</v>
+        <v>1.737</v>
       </c>
       <c r="E4" t="n">
-        <v>1.75</v>
+        <v>1.724</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="n">
-        <v>2634920.184258997</v>
+        <v>-658251.0675</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,35 +546,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.754</v>
+        <v>1.77</v>
       </c>
       <c r="C5" t="n">
-        <v>1.752</v>
+        <v>1.77</v>
       </c>
       <c r="D5" t="n">
-        <v>1.754</v>
+        <v>1.77</v>
       </c>
       <c r="E5" t="n">
-        <v>1.752</v>
+        <v>1.77</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>1439.8917</v>
       </c>
       <c r="G5" t="n">
-        <v>2635920.184258997</v>
+        <v>-656811.1758</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.75</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -586,40 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="C6" t="n">
-        <v>1.752</v>
+        <v>1.74</v>
       </c>
       <c r="D6" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="E6" t="n">
-        <v>1.752</v>
+        <v>1.74</v>
       </c>
       <c r="F6" t="n">
-        <v>1000</v>
+        <v>180000</v>
       </c>
       <c r="G6" t="n">
-        <v>2635920.184258997</v>
+        <v>-836811.1758</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -630,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.758</v>
+        <v>1.741</v>
       </c>
       <c r="C7" t="n">
-        <v>1.757</v>
+        <v>1.74</v>
       </c>
       <c r="D7" t="n">
-        <v>1.758</v>
+        <v>1.741</v>
       </c>
       <c r="E7" t="n">
-        <v>1.757</v>
+        <v>1.74</v>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="n">
-        <v>2636920.184258997</v>
+        <v>-836811.1758</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -674,35 +654,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.77</v>
+        <v>1.741</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="D8" t="n">
-        <v>1.77</v>
+        <v>1.741</v>
       </c>
       <c r="E8" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="F8" t="n">
-        <v>3232.6922</v>
+        <v>40000</v>
       </c>
       <c r="G8" t="n">
-        <v>2640152.876458997</v>
+        <v>-836811.1758</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.757</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -714,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.756</v>
+        <v>1.77</v>
       </c>
       <c r="C9" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="D9" t="n">
-        <v>1.756</v>
+        <v>1.77</v>
       </c>
       <c r="E9" t="n">
-        <v>1.754</v>
+        <v>1.74</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>149224.9945</v>
       </c>
       <c r="G9" t="n">
-        <v>2639152.876458997</v>
+        <v>-836811.1758</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -770,28 +738,20 @@
         <v>1.77</v>
       </c>
       <c r="F10" t="n">
-        <v>409.7465</v>
+        <v>764.3633</v>
       </c>
       <c r="G10" t="n">
-        <v>2639562.622958997</v>
+        <v>-836046.8125</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -805,19 +765,19 @@
         <v>1.77</v>
       </c>
       <c r="C11" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="D11" t="n">
         <v>1.77</v>
       </c>
       <c r="E11" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="F11" t="n">
-        <v>637.6811</v>
+        <v>364755.0135</v>
       </c>
       <c r="G11" t="n">
-        <v>2639562.622958997</v>
+        <v>-1200801.826</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -826,14 +786,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -844,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="C12" t="n">
-        <v>1.788</v>
+        <v>1.736</v>
       </c>
       <c r="D12" t="n">
-        <v>1.788</v>
+        <v>1.736</v>
       </c>
       <c r="E12" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="F12" t="n">
-        <v>6679381.7522</v>
+        <v>10812.16</v>
       </c>
       <c r="G12" t="n">
-        <v>9318944.375158997</v>
+        <v>-1200801.826</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -868,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -886,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.787</v>
+        <v>1.737</v>
       </c>
       <c r="C13" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="D13" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="E13" t="n">
-        <v>1.787</v>
+        <v>1.737</v>
       </c>
       <c r="F13" t="n">
-        <v>6468651.1984</v>
+        <v>243646.4897</v>
       </c>
       <c r="G13" t="n">
-        <v>9318944.375158997</v>
+        <v>-957155.3362999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -910,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -928,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="C14" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="D14" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="E14" t="n">
-        <v>1.788</v>
+        <v>1.77</v>
       </c>
       <c r="F14" t="n">
-        <v>222053.7836</v>
+        <v>46918.0213</v>
       </c>
       <c r="G14" t="n">
-        <v>9318944.375158997</v>
+        <v>-957155.3362999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -952,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -970,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="C15" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="D15" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="E15" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="F15" t="n">
-        <v>752267.5716</v>
+        <v>112670.7078</v>
       </c>
       <c r="G15" t="n">
-        <v>8566676.803558998</v>
+        <v>-1069826.0441</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -994,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1012,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.767</v>
+        <v>1.737</v>
       </c>
       <c r="C16" t="n">
-        <v>1.767</v>
+        <v>1.736</v>
       </c>
       <c r="D16" t="n">
-        <v>1.767</v>
+        <v>1.75</v>
       </c>
       <c r="E16" t="n">
-        <v>1.767</v>
+        <v>1.736</v>
       </c>
       <c r="F16" t="n">
-        <v>10207.6203</v>
+        <v>108776.4295</v>
       </c>
       <c r="G16" t="n">
-        <v>8556469.183258997</v>
+        <v>-1069826.0441</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1036,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1054,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.767</v>
+        <v>1.77</v>
       </c>
       <c r="C17" t="n">
-        <v>1.767</v>
+        <v>1.738</v>
       </c>
       <c r="D17" t="n">
-        <v>1.767</v>
+        <v>1.77</v>
       </c>
       <c r="E17" t="n">
-        <v>1.767</v>
+        <v>1.738</v>
       </c>
       <c r="F17" t="n">
-        <v>1409</v>
+        <v>60650</v>
       </c>
       <c r="G17" t="n">
-        <v>8556469.183258997</v>
+        <v>-1009176.0441</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1078,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1096,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="C18" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="D18" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="E18" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="F18" t="n">
-        <v>5938711.2775</v>
+        <v>502.7972</v>
       </c>
       <c r="G18" t="n">
-        <v>2617757.905758997</v>
+        <v>-1008673.2469</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1120,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1138,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="C19" t="n">
-        <v>1.766</v>
+        <v>1.771</v>
       </c>
       <c r="D19" t="n">
-        <v>1.766</v>
+        <v>1.771</v>
       </c>
       <c r="E19" t="n">
-        <v>1.766</v>
+        <v>1.77</v>
       </c>
       <c r="F19" t="n">
-        <v>12010876.7537</v>
+        <v>132663.9321</v>
       </c>
       <c r="G19" t="n">
-        <v>2617757.905758997</v>
+        <v>-876009.3147999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1162,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1180,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.755</v>
+        <v>1.776</v>
       </c>
       <c r="C20" t="n">
-        <v>1.755</v>
+        <v>1.776</v>
       </c>
       <c r="D20" t="n">
-        <v>1.755</v>
+        <v>1.776</v>
       </c>
       <c r="E20" t="n">
-        <v>1.755</v>
+        <v>1.776</v>
       </c>
       <c r="F20" t="n">
-        <v>8327.0299</v>
+        <v>476.1061</v>
       </c>
       <c r="G20" t="n">
-        <v>2609430.875858997</v>
+        <v>-875533.2086999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1204,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1222,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.767</v>
+        <v>1.754</v>
       </c>
       <c r="C21" t="n">
-        <v>1.752</v>
+        <v>1.78</v>
       </c>
       <c r="D21" t="n">
-        <v>1.767</v>
+        <v>1.78</v>
       </c>
       <c r="E21" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="F21" t="n">
-        <v>960568.5566</v>
+        <v>98512.2944</v>
       </c>
       <c r="G21" t="n">
-        <v>1648862.319258997</v>
+        <v>-777020.9142999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1246,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.769</v>
+        <v>1.752</v>
       </c>
       <c r="C22" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="D22" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="E22" t="n">
-        <v>1.769</v>
+        <v>1.74</v>
       </c>
       <c r="F22" t="n">
-        <v>985950.177</v>
+        <v>469988.3588</v>
       </c>
       <c r="G22" t="n">
-        <v>2634812.496258997</v>
+        <v>-1247009.2731</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1288,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1306,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="C23" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="D23" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="E23" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="F23" t="n">
-        <v>6126966.6316</v>
+        <v>197080.688</v>
       </c>
       <c r="G23" t="n">
-        <v>2634812.496258997</v>
+        <v>-1247009.2731</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1330,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1348,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="C24" t="n">
-        <v>1.789</v>
+        <v>1.752</v>
       </c>
       <c r="D24" t="n">
-        <v>1.789</v>
+        <v>1.752</v>
       </c>
       <c r="E24" t="n">
-        <v>1.788</v>
+        <v>1.752</v>
       </c>
       <c r="F24" t="n">
-        <v>6248512.0847</v>
+        <v>203599.2296</v>
       </c>
       <c r="G24" t="n">
-        <v>8883324.580958996</v>
+        <v>-1247009.2731</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1372,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1390,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="C25" t="n">
-        <v>1.76</v>
+        <v>1.736</v>
       </c>
       <c r="D25" t="n">
-        <v>1.77</v>
+        <v>1.736</v>
       </c>
       <c r="E25" t="n">
-        <v>1.76</v>
+        <v>1.736</v>
       </c>
       <c r="F25" t="n">
-        <v>415265.0651</v>
+        <v>240723.344</v>
       </c>
       <c r="G25" t="n">
-        <v>8468059.515858997</v>
+        <v>-1487732.6171</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1414,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="C26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="D26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="E26" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F26" t="n">
-        <v>124579.5195</v>
+        <v>733500.5162</v>
       </c>
       <c r="G26" t="n">
-        <v>8468059.515858997</v>
+        <v>-754232.1009</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1456,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1474,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="C27" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="D27" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="E27" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F27" t="n">
-        <v>112121.5675</v>
+        <v>360000</v>
       </c>
       <c r="G27" t="n">
-        <v>8468059.515858997</v>
+        <v>-394232.1009</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1498,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1516,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.779</v>
+        <v>1.77</v>
       </c>
       <c r="C28" t="n">
-        <v>1.779</v>
+        <v>1.77</v>
       </c>
       <c r="D28" t="n">
-        <v>1.779</v>
+        <v>1.77</v>
       </c>
       <c r="E28" t="n">
-        <v>1.779</v>
+        <v>1.77</v>
       </c>
       <c r="F28" t="n">
-        <v>1874260.8166</v>
+        <v>308476.3224</v>
       </c>
       <c r="G28" t="n">
-        <v>10342320.332459</v>
+        <v>-394232.1009</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1540,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="C29" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="D29" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="E29" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="F29" t="n">
-        <v>11823243.6109</v>
+        <v>222908.9446</v>
       </c>
       <c r="G29" t="n">
-        <v>-1480923.278441003</v>
+        <v>-171323.1563</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1582,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1600,40 +1446,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.777</v>
+        <v>1.789</v>
       </c>
       <c r="C30" t="n">
-        <v>1.778</v>
+        <v>1.789</v>
       </c>
       <c r="D30" t="n">
-        <v>1.778</v>
+        <v>1.789</v>
       </c>
       <c r="E30" t="n">
-        <v>1.777</v>
+        <v>1.789</v>
       </c>
       <c r="F30" t="n">
-        <v>6092657.1739</v>
+        <v>77646.0229</v>
       </c>
       <c r="G30" t="n">
-        <v>4611733.895458997</v>
+        <v>-93677.13339999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>1.00695219123506</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
     </row>
@@ -1642,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.778</v>
+        <v>1.789</v>
       </c>
       <c r="C31" t="n">
-        <v>1.778</v>
+        <v>1.789</v>
       </c>
       <c r="D31" t="n">
-        <v>1.778</v>
+        <v>1.789</v>
       </c>
       <c r="E31" t="n">
-        <v>1.778</v>
+        <v>1.789</v>
       </c>
       <c r="F31" t="n">
-        <v>83972.8034</v>
+        <v>5914.5848</v>
       </c>
       <c r="G31" t="n">
-        <v>4611733.895458997</v>
+        <v>-93677.13339999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1684,16 +1524,16 @@
         <v>1.778</v>
       </c>
       <c r="D32" t="n">
-        <v>1.778</v>
+        <v>1.791</v>
       </c>
       <c r="E32" t="n">
         <v>1.778</v>
       </c>
       <c r="F32" t="n">
-        <v>43002.0799</v>
+        <v>191179.429</v>
       </c>
       <c r="G32" t="n">
-        <v>4611733.895458997</v>
+        <v>-284856.5624</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1714,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.777</v>
+        <v>1.778</v>
       </c>
       <c r="C33" t="n">
-        <v>1.778</v>
+        <v>1.769</v>
       </c>
       <c r="D33" t="n">
         <v>1.778</v>
       </c>
       <c r="E33" t="n">
-        <v>1.777</v>
+        <v>1.769</v>
       </c>
       <c r="F33" t="n">
-        <v>6520</v>
+        <v>520000</v>
       </c>
       <c r="G33" t="n">
-        <v>4611733.895458997</v>
+        <v>-804856.5623999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1750,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.777</v>
+        <v>1.769</v>
       </c>
       <c r="C34" t="n">
-        <v>1.777</v>
+        <v>1.76</v>
       </c>
       <c r="D34" t="n">
-        <v>1.777</v>
+        <v>1.769</v>
       </c>
       <c r="E34" t="n">
-        <v>1.777</v>
+        <v>1.76</v>
       </c>
       <c r="F34" t="n">
-        <v>6126399.2382</v>
+        <v>9222.7012</v>
       </c>
       <c r="G34" t="n">
-        <v>-1514665.342741002</v>
+        <v>-814079.2635999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1786,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.76</v>
+        <v>1.756</v>
       </c>
       <c r="C35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="D35" t="n">
-        <v>1.76</v>
+        <v>1.756</v>
       </c>
       <c r="E35" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F35" t="n">
-        <v>1556</v>
+        <v>63724.7199</v>
       </c>
       <c r="G35" t="n">
-        <v>-1516221.342741002</v>
+        <v>-877803.9835</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1822,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.758</v>
+        <v>1.75</v>
       </c>
       <c r="C36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="D36" t="n">
-        <v>1.758</v>
+        <v>1.75</v>
       </c>
       <c r="E36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="F36" t="n">
-        <v>433532.6787</v>
+        <v>65736.3915</v>
       </c>
       <c r="G36" t="n">
-        <v>-1949754.021441002</v>
+        <v>-877803.9835</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1858,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="C37" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="D37" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="E37" t="n">
-        <v>1.759</v>
+        <v>1.75</v>
       </c>
       <c r="F37" t="n">
-        <v>133001.5098</v>
+        <v>91428.8605</v>
       </c>
       <c r="G37" t="n">
-        <v>-1816752.511641002</v>
+        <v>-877803.9835</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1894,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.744</v>
+        <v>1.749</v>
       </c>
       <c r="C38" t="n">
-        <v>1.741</v>
+        <v>1.77</v>
       </c>
       <c r="D38" t="n">
-        <v>1.744</v>
+        <v>1.77</v>
       </c>
       <c r="E38" t="n">
-        <v>1.741</v>
+        <v>1.711</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>3196801.739</v>
       </c>
       <c r="G38" t="n">
-        <v>-1817752.511641002</v>
+        <v>2318997.7555</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1930,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.743</v>
+        <v>1.74</v>
       </c>
       <c r="C39" t="n">
-        <v>1.741</v>
+        <v>1.74</v>
       </c>
       <c r="D39" t="n">
-        <v>1.743</v>
+        <v>1.74</v>
       </c>
       <c r="E39" t="n">
-        <v>1.741</v>
+        <v>1.74</v>
       </c>
       <c r="F39" t="n">
         <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1817752.511641002</v>
+        <v>2317997.7555</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1966,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.741</v>
+        <v>1.74</v>
       </c>
       <c r="C40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D40" t="n">
         <v>1.74</v>
       </c>
-      <c r="D40" t="n">
-        <v>1.741</v>
-      </c>
       <c r="E40" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F40" t="n">
-        <v>411460.65</v>
+        <v>20000</v>
       </c>
       <c r="G40" t="n">
-        <v>-2229213.161641002</v>
+        <v>2297997.7555</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2002,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.759</v>
+        <v>1.73</v>
       </c>
       <c r="C41" t="n">
-        <v>1.759</v>
+        <v>1.711</v>
       </c>
       <c r="D41" t="n">
-        <v>1.759</v>
+        <v>1.73</v>
       </c>
       <c r="E41" t="n">
-        <v>1.759</v>
+        <v>1.711</v>
       </c>
       <c r="F41" t="n">
-        <v>285</v>
+        <v>334263.8914</v>
       </c>
       <c r="G41" t="n">
-        <v>-2228928.161641002</v>
+        <v>1963733.8641</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2038,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="C42" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="D42" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="E42" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>-2228928.161641002</v>
+        <v>1964733.8641</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2074,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.759</v>
+        <v>1.72</v>
       </c>
       <c r="C43" t="n">
-        <v>1.759</v>
+        <v>1.72</v>
       </c>
       <c r="D43" t="n">
-        <v>1.759</v>
+        <v>1.72</v>
       </c>
       <c r="E43" t="n">
-        <v>1.759</v>
+        <v>1.72</v>
       </c>
       <c r="F43" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>-2228928.161641002</v>
+        <v>1963733.8641</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2110,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="C44" t="n">
-        <v>1.759</v>
+        <v>1.72</v>
       </c>
       <c r="D44" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="E44" t="n">
-        <v>1.759</v>
+        <v>1.72</v>
       </c>
       <c r="F44" t="n">
-        <v>330635.2426</v>
+        <v>357733.1219</v>
       </c>
       <c r="G44" t="n">
-        <v>-2228928.161641002</v>
+        <v>1963733.8641</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2146,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.76</v>
+        <v>1.721</v>
       </c>
       <c r="C45" t="n">
-        <v>1.742</v>
+        <v>1.721</v>
       </c>
       <c r="D45" t="n">
-        <v>1.76</v>
+        <v>1.721</v>
       </c>
       <c r="E45" t="n">
-        <v>1.742</v>
+        <v>1.721</v>
       </c>
       <c r="F45" t="n">
-        <v>203178.4641</v>
+        <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>-2432106.625741002</v>
+        <v>1964733.8641</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2182,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.765</v>
+        <v>1.755</v>
       </c>
       <c r="C46" t="n">
-        <v>1.75</v>
+        <v>1.756</v>
       </c>
       <c r="D46" t="n">
-        <v>1.765</v>
+        <v>1.756</v>
       </c>
       <c r="E46" t="n">
-        <v>1.743</v>
+        <v>1.755</v>
       </c>
       <c r="F46" t="n">
-        <v>51315.97</v>
+        <v>56955.93062949886</v>
       </c>
       <c r="G46" t="n">
-        <v>-2380790.655741002</v>
+        <v>2021689.794729499</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2218,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.76</v>
+        <v>1.721</v>
       </c>
       <c r="C47" t="n">
-        <v>1.76</v>
+        <v>1.721</v>
       </c>
       <c r="D47" t="n">
-        <v>1.76</v>
+        <v>1.721</v>
       </c>
       <c r="E47" t="n">
-        <v>1.76</v>
+        <v>1.721</v>
       </c>
       <c r="F47" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>-2380500.655741002</v>
+        <v>2020689.794729499</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2254,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.747</v>
+        <v>1.754</v>
       </c>
       <c r="C48" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="D48" t="n">
-        <v>1.747</v>
+        <v>1.754</v>
       </c>
       <c r="E48" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>458.0342</v>
       </c>
       <c r="G48" t="n">
-        <v>-2382500.655741002</v>
+        <v>2021147.828929499</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2290,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.759</v>
+        <v>1.723</v>
       </c>
       <c r="C49" t="n">
-        <v>1.759</v>
+        <v>1.723</v>
       </c>
       <c r="D49" t="n">
-        <v>1.759</v>
+        <v>1.723</v>
       </c>
       <c r="E49" t="n">
-        <v>1.759</v>
+        <v>1.723</v>
       </c>
       <c r="F49" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>-2382210.655741002</v>
+        <v>2020147.828929499</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2326,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.748</v>
+        <v>1.754</v>
       </c>
       <c r="C50" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="D50" t="n">
-        <v>1.748</v>
+        <v>1.754</v>
       </c>
       <c r="E50" t="n">
-        <v>1.746</v>
+        <v>1.754</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>541.9657999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-2383210.655741002</v>
+        <v>2020689.794729499</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2362,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.748</v>
+        <v>1.723</v>
       </c>
       <c r="C51" t="n">
-        <v>1.745</v>
+        <v>1.723</v>
       </c>
       <c r="D51" t="n">
-        <v>1.748</v>
+        <v>1.723</v>
       </c>
       <c r="E51" t="n">
-        <v>1.745</v>
+        <v>1.723</v>
       </c>
       <c r="F51" t="n">
-        <v>523280.5214</v>
+        <v>541.9657999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>-2906491.177141002</v>
+        <v>2020147.828929499</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2398,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.745</v>
+        <v>1.724</v>
       </c>
       <c r="C52" t="n">
-        <v>1.745</v>
+        <v>1.756</v>
       </c>
       <c r="D52" t="n">
-        <v>1.745</v>
+        <v>1.756</v>
       </c>
       <c r="E52" t="n">
-        <v>1.745</v>
+        <v>1.712</v>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>861723.6168</v>
       </c>
       <c r="G52" t="n">
-        <v>-2906491.177141002</v>
+        <v>2881871.445729499</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2434,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.743</v>
+        <v>1.756</v>
       </c>
       <c r="C53" t="n">
-        <v>1.74</v>
+        <v>1.791</v>
       </c>
       <c r="D53" t="n">
-        <v>1.743</v>
+        <v>1.791</v>
       </c>
       <c r="E53" t="n">
-        <v>1.74</v>
+        <v>1.756</v>
       </c>
       <c r="F53" t="n">
-        <v>127442.45</v>
+        <v>184042.8213</v>
       </c>
       <c r="G53" t="n">
-        <v>-3033933.627141002</v>
+        <v>3065914.267029499</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2470,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="C54" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="D54" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="E54" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F54" t="n">
-        <v>173126.0469</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>-3033933.627141002</v>
+        <v>3064914.267029499</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2506,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.739</v>
+        <v>1.771</v>
       </c>
       <c r="C55" t="n">
-        <v>1.737</v>
+        <v>1.731</v>
       </c>
       <c r="D55" t="n">
-        <v>1.739</v>
+        <v>1.771</v>
       </c>
       <c r="E55" t="n">
-        <v>1.737</v>
+        <v>1.731</v>
       </c>
       <c r="F55" t="n">
-        <v>268265.8793</v>
+        <v>1971.9743</v>
       </c>
       <c r="G55" t="n">
-        <v>-3302199.506441002</v>
+        <v>3066886.241329499</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2542,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.737</v>
+        <v>1.771</v>
       </c>
       <c r="C56" t="n">
-        <v>1.736</v>
+        <v>1.771</v>
       </c>
       <c r="D56" t="n">
-        <v>1.737</v>
+        <v>1.771</v>
       </c>
       <c r="E56" t="n">
-        <v>1.736</v>
+        <v>1.771</v>
       </c>
       <c r="F56" t="n">
-        <v>370488.7909</v>
+        <v>6431.0119</v>
       </c>
       <c r="G56" t="n">
-        <v>-3672688.297341002</v>
+        <v>3073317.253229498</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2578,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="C57" t="n">
         <v>1.732</v>
       </c>
       <c r="D57" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="E57" t="n">
         <v>1.732</v>
       </c>
       <c r="F57" t="n">
-        <v>1007460.798</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-4680149.095341003</v>
+        <v>3072317.253229498</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2614,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="C58" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="D58" t="n">
-        <v>1.759</v>
+        <v>1.77</v>
       </c>
       <c r="E58" t="n">
-        <v>1.759</v>
+        <v>1.733</v>
       </c>
       <c r="F58" t="n">
-        <v>2153.2127</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="n">
-        <v>-4677995.882641003</v>
+        <v>3076317.253229498</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2650,7 +2490,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.734</v>
+        <v>1.759</v>
       </c>
       <c r="C59" t="n">
         <v>1.759</v>
@@ -2659,13 +2499,13 @@
         <v>1.759</v>
       </c>
       <c r="E59" t="n">
-        <v>1.731</v>
+        <v>1.733</v>
       </c>
       <c r="F59" t="n">
-        <v>1742239.2939</v>
+        <v>6000</v>
       </c>
       <c r="G59" t="n">
-        <v>-4677995.882641003</v>
+        <v>3082317.253229498</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2686,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.758</v>
+        <v>1.733</v>
       </c>
       <c r="C60" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="D60" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E60" t="n">
-        <v>1.758</v>
+        <v>1.733</v>
       </c>
       <c r="F60" t="n">
-        <v>896.8307</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>-4678892.713341002</v>
+        <v>3082317.253229498</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2722,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.735</v>
+        <v>1.733</v>
       </c>
       <c r="C61" t="n">
-        <v>1.729</v>
+        <v>1.733</v>
       </c>
       <c r="D61" t="n">
-        <v>1.735</v>
+        <v>1.733</v>
       </c>
       <c r="E61" t="n">
-        <v>1.729</v>
+        <v>1.733</v>
       </c>
       <c r="F61" t="n">
-        <v>154331.2179</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>-4833223.931241002</v>
+        <v>3080317.253229498</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2758,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="C62" t="n">
-        <v>1.729</v>
+        <v>1.759</v>
       </c>
       <c r="D62" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="E62" t="n">
-        <v>1.729</v>
+        <v>1.759</v>
       </c>
       <c r="F62" t="n">
-        <v>821073.7296</v>
+        <v>1000.9484</v>
       </c>
       <c r="G62" t="n">
-        <v>-4833223.931241002</v>
+        <v>3081318.201629499</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2794,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="C63" t="n">
-        <v>1.755</v>
+        <v>1.769</v>
       </c>
       <c r="D63" t="n">
-        <v>1.756</v>
+        <v>1.769</v>
       </c>
       <c r="E63" t="n">
-        <v>1.755</v>
+        <v>1.759</v>
       </c>
       <c r="F63" t="n">
-        <v>22339.5781</v>
+        <v>26504</v>
       </c>
       <c r="G63" t="n">
-        <v>-4810884.353141002</v>
+        <v>3107822.201629499</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2830,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.74</v>
+        <v>1.769</v>
       </c>
       <c r="C64" t="n">
-        <v>1.74</v>
+        <v>1.733</v>
       </c>
       <c r="D64" t="n">
-        <v>1.74</v>
+        <v>1.791</v>
       </c>
       <c r="E64" t="n">
-        <v>1.74</v>
+        <v>1.733</v>
       </c>
       <c r="F64" t="n">
-        <v>25723.4301</v>
+        <v>137746.2492705011</v>
       </c>
       <c r="G64" t="n">
-        <v>-4836607.783241003</v>
+        <v>2970075.952358997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2866,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.74</v>
+        <v>1.733</v>
       </c>
       <c r="C65" t="n">
-        <v>1.74</v>
+        <v>1.797</v>
       </c>
       <c r="D65" t="n">
-        <v>1.74</v>
+        <v>1.797</v>
       </c>
       <c r="E65" t="n">
-        <v>1.74</v>
+        <v>1.733</v>
       </c>
       <c r="F65" t="n">
-        <v>35750.9739</v>
+        <v>356200.6334</v>
       </c>
       <c r="G65" t="n">
-        <v>-4836607.783241003</v>
+        <v>3326276.585758998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2902,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="C66" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="D66" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="E66" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="F66" t="n">
-        <v>65442.9141</v>
+        <v>1129.94</v>
       </c>
       <c r="G66" t="n">
-        <v>-4836607.783241003</v>
+        <v>3325146.645758998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2938,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.752</v>
+        <v>1.77</v>
       </c>
       <c r="C67" t="n">
-        <v>1.752</v>
+        <v>1.77</v>
       </c>
       <c r="D67" t="n">
-        <v>1.752</v>
+        <v>1.77</v>
       </c>
       <c r="E67" t="n">
-        <v>1.752</v>
+        <v>1.77</v>
       </c>
       <c r="F67" t="n">
-        <v>588.2354</v>
+        <v>0.0036</v>
       </c>
       <c r="G67" t="n">
-        <v>-4836019.547841003</v>
+        <v>3325146.645758998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2974,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.752</v>
+        <v>1.762</v>
       </c>
       <c r="C68" t="n">
-        <v>1.752</v>
+        <v>1.759</v>
       </c>
       <c r="D68" t="n">
-        <v>1.752</v>
+        <v>1.762</v>
       </c>
       <c r="E68" t="n">
-        <v>1.752</v>
+        <v>1.759</v>
       </c>
       <c r="F68" t="n">
-        <v>2015.8195</v>
+        <v>161537.5694</v>
       </c>
       <c r="G68" t="n">
-        <v>-4836019.547841003</v>
+        <v>3163609.076358998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3010,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="C69" t="n">
-        <v>1.752</v>
+        <v>1.75</v>
       </c>
       <c r="D69" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="E69" t="n">
-        <v>1.752</v>
+        <v>1.75</v>
       </c>
       <c r="F69" t="n">
-        <v>29584.1805</v>
+        <v>400000</v>
       </c>
       <c r="G69" t="n">
-        <v>-4836019.547841003</v>
+        <v>2763609.076358998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3046,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="C70" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="D70" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="E70" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F70" t="n">
-        <v>21000</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>-4857019.547841003</v>
+        <v>2763609.076358998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3082,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="C71" t="n">
-        <v>1.751</v>
+        <v>1.749</v>
       </c>
       <c r="D71" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="E71" t="n">
-        <v>1.751</v>
+        <v>1.749</v>
       </c>
       <c r="F71" t="n">
-        <v>31000</v>
+        <v>216718.8538</v>
       </c>
       <c r="G71" t="n">
-        <v>-4857019.547841003</v>
+        <v>2546890.222558998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3118,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="C72" t="n">
-        <v>1.752</v>
+        <v>1.749</v>
       </c>
       <c r="D72" t="n">
-        <v>1.752</v>
+        <v>1.75</v>
       </c>
       <c r="E72" t="n">
-        <v>1.751</v>
+        <v>1.749</v>
       </c>
       <c r="F72" t="n">
-        <v>27548.9701</v>
+        <v>248671.5579</v>
       </c>
       <c r="G72" t="n">
-        <v>-4829470.577741004</v>
+        <v>2546890.222558998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3154,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="C73" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="D73" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="E73" t="n">
-        <v>1.751</v>
+        <v>1.75</v>
       </c>
       <c r="F73" t="n">
-        <v>100551.0299</v>
+        <v>88029.9617</v>
       </c>
       <c r="G73" t="n">
-        <v>-4930021.607641004</v>
+        <v>2634920.184258997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3190,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.732</v>
+        <v>1.76</v>
       </c>
       <c r="C74" t="n">
-        <v>1.732</v>
+        <v>1.75</v>
       </c>
       <c r="D74" t="n">
-        <v>1.732</v>
+        <v>1.76</v>
       </c>
       <c r="E74" t="n">
-        <v>1.732</v>
+        <v>1.75</v>
       </c>
       <c r="F74" t="n">
-        <v>378601.3563</v>
+        <v>626427.8049</v>
       </c>
       <c r="G74" t="n">
-        <v>-5308622.963941004</v>
+        <v>2634920.184258997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3226,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.73</v>
+        <v>1.752</v>
       </c>
       <c r="C75" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="D75" t="n">
-        <v>1.73</v>
+        <v>1.752</v>
       </c>
       <c r="E75" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="F75" t="n">
-        <v>93880.6811</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>-5402503.645041004</v>
+        <v>2634920.184258997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3262,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.73</v>
+        <v>1.754</v>
       </c>
       <c r="C76" t="n">
-        <v>1.74</v>
+        <v>1.752</v>
       </c>
       <c r="D76" t="n">
-        <v>1.74</v>
+        <v>1.754</v>
       </c>
       <c r="E76" t="n">
-        <v>1.73</v>
+        <v>1.752</v>
       </c>
       <c r="F76" t="n">
-        <v>251435</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>-5151068.645041004</v>
+        <v>2635920.184258997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3298,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.739</v>
+        <v>1.754</v>
       </c>
       <c r="C77" t="n">
-        <v>1.749</v>
+        <v>1.752</v>
       </c>
       <c r="D77" t="n">
-        <v>1.749</v>
+        <v>1.754</v>
       </c>
       <c r="E77" t="n">
-        <v>1.739</v>
+        <v>1.752</v>
       </c>
       <c r="F77" t="n">
-        <v>8230.67</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>-5142837.975041004</v>
+        <v>2635920.184258997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3334,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.749</v>
+        <v>1.758</v>
       </c>
       <c r="C78" t="n">
-        <v>1.749</v>
+        <v>1.757</v>
       </c>
       <c r="D78" t="n">
-        <v>1.749</v>
+        <v>1.758</v>
       </c>
       <c r="E78" t="n">
-        <v>1.749</v>
+        <v>1.757</v>
       </c>
       <c r="F78" t="n">
-        <v>6423.37</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>-5142837.975041004</v>
+        <v>2636920.184258997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3370,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.749</v>
+        <v>1.77</v>
       </c>
       <c r="C79" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="D79" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="E79" t="n">
-        <v>1.749</v>
+        <v>1.77</v>
       </c>
       <c r="F79" t="n">
-        <v>7742.34</v>
+        <v>3232.6922</v>
       </c>
       <c r="G79" t="n">
-        <v>-5135095.635041004</v>
+        <v>2640152.876458997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3406,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.75</v>
+        <v>1.756</v>
       </c>
       <c r="C80" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="D80" t="n">
-        <v>1.75</v>
+        <v>1.756</v>
       </c>
       <c r="E80" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="F80" t="n">
-        <v>2641.81</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>-5135095.635041004</v>
+        <v>2639152.876458997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3442,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="C81" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="D81" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="E81" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="F81" t="n">
-        <v>4328.3872</v>
+        <v>409.7465</v>
       </c>
       <c r="G81" t="n">
-        <v>-5139424.022241004</v>
+        <v>2639562.622958997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3478,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="C82" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="D82" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="E82" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="F82" t="n">
-        <v>33207.87</v>
+        <v>637.6811</v>
       </c>
       <c r="G82" t="n">
-        <v>-5139424.022241004</v>
+        <v>2639562.622958997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3514,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="C83" t="n">
-        <v>1.743</v>
+        <v>1.788</v>
       </c>
       <c r="D83" t="n">
-        <v>1.743</v>
+        <v>1.788</v>
       </c>
       <c r="E83" t="n">
-        <v>1.743</v>
+        <v>1.77</v>
       </c>
       <c r="F83" t="n">
-        <v>10332.32</v>
+        <v>6679381.7522</v>
       </c>
       <c r="G83" t="n">
-        <v>-5139424.022241004</v>
+        <v>9318944.375158997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3550,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.743</v>
+        <v>1.787</v>
       </c>
       <c r="C84" t="n">
-        <v>1.743</v>
+        <v>1.788</v>
       </c>
       <c r="D84" t="n">
-        <v>1.743</v>
+        <v>1.788</v>
       </c>
       <c r="E84" t="n">
-        <v>1.743</v>
+        <v>1.787</v>
       </c>
       <c r="F84" t="n">
-        <v>37438.1956</v>
+        <v>6468651.1984</v>
       </c>
       <c r="G84" t="n">
-        <v>-5139424.022241004</v>
+        <v>9318944.375158997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3586,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.75</v>
+        <v>1.788</v>
       </c>
       <c r="C85" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="D85" t="n">
-        <v>1.77</v>
+        <v>1.788</v>
       </c>
       <c r="E85" t="n">
-        <v>1.75</v>
+        <v>1.788</v>
       </c>
       <c r="F85" t="n">
-        <v>233757.2206</v>
+        <v>222053.7836</v>
       </c>
       <c r="G85" t="n">
-        <v>-4905666.801641004</v>
+        <v>9318944.375158997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3625,25 +3465,25 @@
         <v>1.77</v>
       </c>
       <c r="C86" t="n">
-        <v>1.762</v>
+        <v>1.77</v>
       </c>
       <c r="D86" t="n">
-        <v>1.794</v>
+        <v>1.77</v>
       </c>
       <c r="E86" t="n">
-        <v>1.762</v>
+        <v>1.77</v>
       </c>
       <c r="F86" t="n">
-        <v>1119694.9593</v>
+        <v>752267.5716</v>
       </c>
       <c r="G86" t="n">
-        <v>-6025361.760941004</v>
+        <v>8566676.803558998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3658,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.77</v>
+        <v>1.767</v>
       </c>
       <c r="C87" t="n">
-        <v>1.77</v>
+        <v>1.767</v>
       </c>
       <c r="D87" t="n">
-        <v>1.78</v>
+        <v>1.767</v>
       </c>
       <c r="E87" t="n">
-        <v>1.77</v>
+        <v>1.767</v>
       </c>
       <c r="F87" t="n">
-        <v>324179.7</v>
+        <v>10207.6203</v>
       </c>
       <c r="G87" t="n">
-        <v>-5701182.060941004</v>
+        <v>8556469.183258997</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3694,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.794</v>
+        <v>1.767</v>
       </c>
       <c r="C88" t="n">
-        <v>1.794</v>
+        <v>1.767</v>
       </c>
       <c r="D88" t="n">
-        <v>1.794</v>
+        <v>1.767</v>
       </c>
       <c r="E88" t="n">
-        <v>1.794</v>
+        <v>1.767</v>
       </c>
       <c r="F88" t="n">
-        <v>594</v>
+        <v>1409</v>
       </c>
       <c r="G88" t="n">
-        <v>-5700588.060941004</v>
+        <v>8556469.183258997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3730,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.794</v>
+        <v>1.766</v>
       </c>
       <c r="C89" t="n">
-        <v>1.82</v>
+        <v>1.766</v>
       </c>
       <c r="D89" t="n">
-        <v>1.824</v>
+        <v>1.766</v>
       </c>
       <c r="E89" t="n">
-        <v>1.79</v>
+        <v>1.766</v>
       </c>
       <c r="F89" t="n">
-        <v>1380348</v>
+        <v>5938711.2775</v>
       </c>
       <c r="G89" t="n">
-        <v>-4320240.060941004</v>
+        <v>2617757.905758997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3766,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.8</v>
+        <v>1.766</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8</v>
+        <v>1.766</v>
       </c>
       <c r="D90" t="n">
-        <v>1.8</v>
+        <v>1.766</v>
       </c>
       <c r="E90" t="n">
-        <v>1.8</v>
+        <v>1.766</v>
       </c>
       <c r="F90" t="n">
-        <v>115261.0374</v>
+        <v>12010876.7537</v>
       </c>
       <c r="G90" t="n">
-        <v>-4435501.098341004</v>
+        <v>2617757.905758997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3802,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.791</v>
+        <v>1.755</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="D91" t="n">
-        <v>1.8</v>
+        <v>1.755</v>
       </c>
       <c r="E91" t="n">
-        <v>1.79</v>
+        <v>1.755</v>
       </c>
       <c r="F91" t="n">
-        <v>374556.6605</v>
+        <v>8327.0299</v>
       </c>
       <c r="G91" t="n">
-        <v>-4435501.098341004</v>
+        <v>2609430.875858997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3838,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.79</v>
+        <v>1.767</v>
       </c>
       <c r="C92" t="n">
-        <v>1.79</v>
+        <v>1.752</v>
       </c>
       <c r="D92" t="n">
-        <v>1.79</v>
+        <v>1.767</v>
       </c>
       <c r="E92" t="n">
-        <v>1.79</v>
+        <v>1.752</v>
       </c>
       <c r="F92" t="n">
-        <v>6520</v>
+        <v>960568.5566</v>
       </c>
       <c r="G92" t="n">
-        <v>-4442021.098341004</v>
+        <v>1648862.319258997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3874,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.82</v>
+        <v>1.769</v>
       </c>
       <c r="C93" t="n">
-        <v>1.8</v>
+        <v>1.788</v>
       </c>
       <c r="D93" t="n">
-        <v>1.82</v>
+        <v>1.788</v>
       </c>
       <c r="E93" t="n">
-        <v>1.79</v>
+        <v>1.769</v>
       </c>
       <c r="F93" t="n">
-        <v>220866.1319</v>
+        <v>985950.177</v>
       </c>
       <c r="G93" t="n">
-        <v>-4221154.966441004</v>
+        <v>2634812.496258997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3910,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="C94" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="D94" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="E94" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="F94" t="n">
-        <v>244860.5147</v>
+        <v>6126966.6316</v>
       </c>
       <c r="G94" t="n">
-        <v>-4466015.481141004</v>
+        <v>2634812.496258997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3946,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="C95" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="D95" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="E95" t="n">
-        <v>1.79</v>
+        <v>1.788</v>
       </c>
       <c r="F95" t="n">
-        <v>175657.9849</v>
+        <v>6248512.0847</v>
       </c>
       <c r="G95" t="n">
-        <v>-4466015.481141004</v>
+        <v>8883324.580958996</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3982,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="C96" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E96" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F96" t="n">
-        <v>533716.5495</v>
+        <v>415265.0651</v>
       </c>
       <c r="G96" t="n">
-        <v>-4999732.030641004</v>
+        <v>8468059.515858997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4018,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.779</v>
+        <v>1.76</v>
       </c>
       <c r="C97" t="n">
         <v>1.76</v>
       </c>
       <c r="D97" t="n">
-        <v>1.779</v>
+        <v>1.76</v>
       </c>
       <c r="E97" t="n">
         <v>1.76</v>
       </c>
       <c r="F97" t="n">
-        <v>232993.3887</v>
+        <v>124579.5195</v>
       </c>
       <c r="G97" t="n">
-        <v>-5232725.419341004</v>
+        <v>8468059.515858997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4054,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="C98" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="D98" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="E98" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F98" t="n">
-        <v>280.8989</v>
+        <v>112121.5675</v>
       </c>
       <c r="G98" t="n">
-        <v>-5232444.520441003</v>
+        <v>8468059.515858997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4090,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.76</v>
+        <v>1.779</v>
       </c>
       <c r="C99" t="n">
-        <v>1.76</v>
+        <v>1.779</v>
       </c>
       <c r="D99" t="n">
-        <v>1.76</v>
+        <v>1.779</v>
       </c>
       <c r="E99" t="n">
-        <v>1.76</v>
+        <v>1.779</v>
       </c>
       <c r="F99" t="n">
-        <v>127073.8797</v>
+        <v>1874260.8166</v>
       </c>
       <c r="G99" t="n">
-        <v>-5359518.400141004</v>
+        <v>10342320.332459</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4126,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="C100" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="D100" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="E100" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="F100" t="n">
-        <v>20000</v>
+        <v>11823243.6109</v>
       </c>
       <c r="G100" t="n">
-        <v>-5359518.400141004</v>
+        <v>-1480923.278441003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4162,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="C101" t="n">
-        <v>1.76</v>
+        <v>1.778</v>
       </c>
       <c r="D101" t="n">
-        <v>1.76</v>
+        <v>1.778</v>
       </c>
       <c r="E101" t="n">
-        <v>1.76</v>
+        <v>1.777</v>
       </c>
       <c r="F101" t="n">
-        <v>3000</v>
+        <v>6092657.1739</v>
       </c>
       <c r="G101" t="n">
-        <v>-5359518.400141004</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4198,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="C102" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="D102" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="E102" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="F102" t="n">
-        <v>8627.23</v>
+        <v>83972.8034</v>
       </c>
       <c r="G102" t="n">
-        <v>-5368145.630141004</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4234,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="C103" t="n">
-        <v>1.75</v>
+        <v>1.778</v>
       </c>
       <c r="D103" t="n">
-        <v>1.759</v>
+        <v>1.778</v>
       </c>
       <c r="E103" t="n">
-        <v>1.75</v>
+        <v>1.778</v>
       </c>
       <c r="F103" t="n">
-        <v>118081.5271</v>
+        <v>43002.0799</v>
       </c>
       <c r="G103" t="n">
-        <v>-5486227.157241004</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4270,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.729</v>
+        <v>1.777</v>
       </c>
       <c r="C104" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="D104" t="n">
-        <v>1.779</v>
+        <v>1.778</v>
       </c>
       <c r="E104" t="n">
-        <v>1.729</v>
+        <v>1.777</v>
       </c>
       <c r="F104" t="n">
-        <v>146776.9736</v>
+        <v>6520</v>
       </c>
       <c r="G104" t="n">
-        <v>-5339450.183641003</v>
+        <v>4611733.895458997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4306,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.779</v>
+        <v>1.777</v>
       </c>
       <c r="C105" t="n">
-        <v>1.779</v>
+        <v>1.777</v>
       </c>
       <c r="D105" t="n">
-        <v>1.779</v>
+        <v>1.777</v>
       </c>
       <c r="E105" t="n">
-        <v>1.779</v>
+        <v>1.777</v>
       </c>
       <c r="F105" t="n">
-        <v>12739.6122</v>
+        <v>6126399.2382</v>
       </c>
       <c r="G105" t="n">
-        <v>-5339450.183641003</v>
+        <v>-1514665.342741002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4342,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="C106" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E106" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="F106" t="n">
-        <v>14251.3803</v>
+        <v>1556</v>
       </c>
       <c r="G106" t="n">
-        <v>-5353701.563941004</v>
+        <v>-1516221.342741002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4378,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.749</v>
+        <v>1.758</v>
       </c>
       <c r="C107" t="n">
-        <v>1.728</v>
+        <v>1.74</v>
       </c>
       <c r="D107" t="n">
-        <v>1.749</v>
+        <v>1.758</v>
       </c>
       <c r="E107" t="n">
-        <v>1.728</v>
+        <v>1.74</v>
       </c>
       <c r="F107" t="n">
-        <v>68262.47530000001</v>
+        <v>433532.6787</v>
       </c>
       <c r="G107" t="n">
-        <v>-5421964.039241004</v>
+        <v>-1949754.021441002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4414,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.732</v>
+        <v>1.759</v>
       </c>
       <c r="C108" t="n">
-        <v>1.732</v>
+        <v>1.759</v>
       </c>
       <c r="D108" t="n">
-        <v>1.732</v>
+        <v>1.759</v>
       </c>
       <c r="E108" t="n">
-        <v>1.732</v>
+        <v>1.759</v>
       </c>
       <c r="F108" t="n">
-        <v>203503.8558</v>
+        <v>133001.5098</v>
       </c>
       <c r="G108" t="n">
-        <v>-5218460.183441004</v>
+        <v>-1816752.511641002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4450,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.732</v>
+        <v>1.744</v>
       </c>
       <c r="C109" t="n">
-        <v>1.73</v>
+        <v>1.741</v>
       </c>
       <c r="D109" t="n">
-        <v>1.732</v>
+        <v>1.744</v>
       </c>
       <c r="E109" t="n">
-        <v>1.73</v>
+        <v>1.741</v>
       </c>
       <c r="F109" t="n">
-        <v>539648.8538</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-5758109.037241003</v>
+        <v>-1817752.511641002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4486,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.732</v>
+        <v>1.743</v>
       </c>
       <c r="C110" t="n">
-        <v>1.732</v>
+        <v>1.741</v>
       </c>
       <c r="D110" t="n">
-        <v>1.732</v>
+        <v>1.743</v>
       </c>
       <c r="E110" t="n">
-        <v>1.732</v>
+        <v>1.741</v>
       </c>
       <c r="F110" t="n">
-        <v>1249092.1091</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>-4509016.928141003</v>
+        <v>-1817752.511641002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4522,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.733</v>
+        <v>1.741</v>
       </c>
       <c r="C111" t="n">
-        <v>1.733</v>
+        <v>1.74</v>
       </c>
       <c r="D111" t="n">
-        <v>1.733</v>
+        <v>1.741</v>
       </c>
       <c r="E111" t="n">
-        <v>1.733</v>
+        <v>1.74</v>
       </c>
       <c r="F111" t="n">
-        <v>9424.4624</v>
+        <v>411460.65</v>
       </c>
       <c r="G111" t="n">
-        <v>-4499592.465741004</v>
+        <v>-2229213.161641002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4558,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.745</v>
+        <v>1.759</v>
       </c>
       <c r="C112" t="n">
-        <v>1.745</v>
+        <v>1.759</v>
       </c>
       <c r="D112" t="n">
-        <v>1.745</v>
+        <v>1.759</v>
       </c>
       <c r="E112" t="n">
-        <v>1.745</v>
+        <v>1.759</v>
       </c>
       <c r="F112" t="n">
-        <v>3368.6099</v>
+        <v>285</v>
       </c>
       <c r="G112" t="n">
-        <v>-4496223.855841004</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4594,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="C113" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="D113" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="E113" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="F113" t="n">
-        <v>2340.2333</v>
+        <v>300</v>
       </c>
       <c r="G113" t="n">
-        <v>-4498564.089141005</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4630,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="C114" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="D114" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="E114" t="n">
-        <v>1.744</v>
+        <v>1.759</v>
       </c>
       <c r="F114" t="n">
-        <v>3667.0994</v>
+        <v>300</v>
       </c>
       <c r="G114" t="n">
-        <v>-4498564.089141005</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4666,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.743</v>
+        <v>1.759</v>
       </c>
       <c r="C115" t="n">
-        <v>1.743</v>
+        <v>1.759</v>
       </c>
       <c r="D115" t="n">
-        <v>1.743</v>
+        <v>1.759</v>
       </c>
       <c r="E115" t="n">
-        <v>1.743</v>
+        <v>1.759</v>
       </c>
       <c r="F115" t="n">
-        <v>8605.851979345955</v>
+        <v>330635.2426</v>
       </c>
       <c r="G115" t="n">
-        <v>-4507169.941120351</v>
+        <v>-2228928.161641002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4702,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.743</v>
+        <v>1.76</v>
       </c>
       <c r="C116" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="D116" t="n">
-        <v>1.743</v>
+        <v>1.76</v>
       </c>
       <c r="E116" t="n">
-        <v>1.743</v>
+        <v>1.742</v>
       </c>
       <c r="F116" t="n">
-        <v>290</v>
+        <v>203178.4641</v>
       </c>
       <c r="G116" t="n">
-        <v>-4507169.941120351</v>
+        <v>-2432106.625741002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4738,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.736</v>
+        <v>1.765</v>
       </c>
       <c r="C117" t="n">
-        <v>1.748</v>
+        <v>1.75</v>
       </c>
       <c r="D117" t="n">
-        <v>1.748</v>
+        <v>1.765</v>
       </c>
       <c r="E117" t="n">
-        <v>1.736</v>
+        <v>1.743</v>
       </c>
       <c r="F117" t="n">
-        <v>863661.0647</v>
+        <v>51315.97</v>
       </c>
       <c r="G117" t="n">
-        <v>-3643508.876420351</v>
+        <v>-2380790.655741002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4774,35 +4614,31 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.748</v>
+        <v>1.76</v>
       </c>
       <c r="C118" t="n">
-        <v>1.748</v>
+        <v>1.76</v>
       </c>
       <c r="D118" t="n">
-        <v>1.748</v>
+        <v>1.76</v>
       </c>
       <c r="E118" t="n">
-        <v>1.748</v>
+        <v>1.76</v>
       </c>
       <c r="F118" t="n">
-        <v>66261.50719999999</v>
+        <v>290</v>
       </c>
       <c r="G118" t="n">
-        <v>-3643508.876420351</v>
+        <v>-2380500.655741002</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.748</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4814,1054 +4650,3618 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2382500.655741002</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F120" t="n">
+        <v>290</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2382210.655741002</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>1.748</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C121" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D121" t="n">
         <v>1.748</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E121" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2383210.655741002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
         <v>1.748</v>
       </c>
-      <c r="E119" t="n">
+      <c r="C122" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D122" t="n">
         <v>1.748</v>
       </c>
-      <c r="F119" t="n">
+      <c r="E122" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F122" t="n">
+        <v>523280.5214</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2906491.177141002</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2906491.177141002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F124" t="n">
+        <v>127442.45</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3033933.627141002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F125" t="n">
+        <v>173126.0469</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3033933.627141002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="F126" t="n">
+        <v>268265.8793</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-3302199.506441002</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F127" t="n">
+        <v>370488.7909</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-3672688.297341002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1007460.798</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4680149.095341003</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2153.2127</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4677995.882641003</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1742239.2939</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4677995.882641003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="F131" t="n">
+        <v>896.8307</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4678892.713341002</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F132" t="n">
+        <v>154331.2179</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4833223.931241002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F133" t="n">
+        <v>821073.7296</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4833223.931241002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22339.5781</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4810884.353141002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F135" t="n">
+        <v>25723.4301</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-4836607.783241003</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F136" t="n">
+        <v>35750.9739</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-4836607.783241003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F137" t="n">
+        <v>65442.9141</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4836607.783241003</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F138" t="n">
+        <v>588.2354</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4836019.547841003</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2015.8195</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4836019.547841003</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="F140" t="n">
+        <v>29584.1805</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-4836019.547841003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-4857019.547841003</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F142" t="n">
+        <v>31000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-4857019.547841003</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F143" t="n">
+        <v>27548.9701</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4829470.577741004</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100551.0299</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4930021.607641004</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F145" t="n">
+        <v>378601.3563</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-5308622.963941004</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F146" t="n">
+        <v>93880.6811</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-5402503.645041004</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F147" t="n">
+        <v>251435</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-5151068.645041004</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8230.67</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-5142837.975041004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6423.37</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-5142837.975041004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7742.34</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-5135095.635041004</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2641.81</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-5135095.635041004</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4328.3872</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5139424.022241004</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F153" t="n">
+        <v>33207.87</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5139424.022241004</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10332.32</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-5139424.022241004</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F155" t="n">
+        <v>37438.1956</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-5139424.022241004</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F156" t="n">
+        <v>233757.2206</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4905666.801641004</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1119694.9593</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-6025361.760941004</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F158" t="n">
+        <v>324179.7</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-5701182.060941004</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="F159" t="n">
+        <v>594</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-5700588.060941004</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.824</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1380348</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4320240.060941004</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>115261.0374</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4435501.098341004</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F162" t="n">
+        <v>374556.6605</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-4435501.098341004</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6520</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-4442021.098341004</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F164" t="n">
+        <v>220866.1319</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-4221154.966441004</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F165" t="n">
+        <v>244860.5147</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4466015.481141004</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F166" t="n">
+        <v>175657.9849</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-4466015.481141004</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F167" t="n">
+        <v>533716.5495</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-4999732.030641004</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F168" t="n">
+        <v>232993.3887</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-5232725.419341004</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F169" t="n">
+        <v>280.8989</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-5232444.520441003</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F170" t="n">
+        <v>127073.8797</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-5359518.400141004</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-5359518.400141004</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-5359518.400141004</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8627.23</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-5368145.630141004</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F174" t="n">
+        <v>118081.5271</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-5486227.157241004</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F175" t="n">
+        <v>146776.9736</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-5339450.183641003</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F176" t="n">
+        <v>12739.6122</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-5339450.183641003</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F177" t="n">
+        <v>14251.3803</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-5353701.563941004</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="F178" t="n">
+        <v>68262.47530000001</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-5421964.039241004</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F179" t="n">
+        <v>203503.8558</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-5218460.183441004</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F180" t="n">
+        <v>539648.8538</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5758109.037241003</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1249092.1091</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-4509016.928141003</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9424.4624</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-4499592.465741004</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3368.6099</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4496223.855841004</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2340.2333</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4498564.089141005</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3667.0994</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4498564.089141005</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8605.851979345955</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4507169.941120351</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="F187" t="n">
+        <v>290</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4507169.941120351</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="F188" t="n">
+        <v>863661.0647</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-3643508.876420351</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F189" t="n">
+        <v>66261.50719999999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-3643508.876420351</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="F190" t="n">
         <v>42644.2136</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G190" t="n">
         <v>-3643508.876420351</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
         <v>1.748</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L190" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>1.729</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C191" t="n">
         <v>1.809</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D191" t="n">
         <v>1.809</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E191" t="n">
         <v>1.715</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F191" t="n">
         <v>598986.1844</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G191" t="n">
         <v>-3044522.692020351</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
         <v>1.748</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K191" t="n">
         <v>1.748</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L191" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
         <v>1.799</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C192" t="n">
         <v>1.799</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D192" t="n">
         <v>1.799</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E192" t="n">
         <v>1.799</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F192" t="n">
         <v>216061.8686</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G192" t="n">
         <v>-3260584.560620351</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
         <v>1.748</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>1.744</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C193" t="n">
         <v>1.744</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D193" t="n">
         <v>1.744</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E193" t="n">
         <v>1.744</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F193" t="n">
         <v>216061.8686</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G193" t="n">
         <v>-3476646.429220351</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
         <v>1.748</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
         <v>1.755</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C194" t="n">
         <v>1.755</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D194" t="n">
         <v>1.755</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E194" t="n">
         <v>1.755</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F194" t="n">
         <v>14318.589</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G194" t="n">
         <v>-3462327.840220351</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
         <v>1.748</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>1.727</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C195" t="n">
         <v>1.711</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D195" t="n">
         <v>1.727</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E195" t="n">
         <v>1.711</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F195" t="n">
         <v>751502.1746</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G195" t="n">
         <v>-4213830.01482035</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
         <v>1.748</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>1.719</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C196" t="n">
         <v>1.74</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D196" t="n">
         <v>1.74</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E196" t="n">
         <v>1.719</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F196" t="n">
         <v>1237009.0115</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G196" t="n">
         <v>-2976821.00332035</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
         <v>1.748</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>1.736</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C197" t="n">
         <v>1.736</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D197" t="n">
         <v>1.736</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E197" t="n">
         <v>1.736</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F197" t="n">
         <v>1107532.8211</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G197" t="n">
         <v>-4084353.824420351</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
         <v>1.748</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>1.736</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C198" t="n">
         <v>1.736</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D198" t="n">
         <v>1.736</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E198" t="n">
         <v>1.736</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F198" t="n">
         <v>55467.1789</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G198" t="n">
         <v>-4084353.824420351</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="K198" t="n">
         <v>1.748</v>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>1.738</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C199" t="n">
         <v>1.739</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D199" t="n">
         <v>1.739</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E199" t="n">
         <v>1.738</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F199" t="n">
         <v>150213.2666</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G199" t="n">
         <v>-3934140.55782035</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="K199" t="n">
         <v>1.748</v>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
         <v>1.74</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C200" t="n">
         <v>1.74</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D200" t="n">
         <v>1.74</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E200" t="n">
         <v>1.74</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F200" t="n">
         <v>125727.2337</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G200" t="n">
         <v>-3808413.32412035</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="K200" t="n">
         <v>1.748</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
         <v>1.755</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C201" t="n">
         <v>1.754</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D201" t="n">
         <v>1.755</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E201" t="n">
         <v>1.754</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F201" t="n">
         <v>576</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G201" t="n">
         <v>-3807837.32412035</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
         <v>1.748</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
         <v>1.754</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C202" t="n">
         <v>1.754</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D202" t="n">
         <v>1.754</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E202" t="n">
         <v>1.754</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F202" t="n">
         <v>864</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G202" t="n">
         <v>-3807837.32412035</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
         <v>1.748</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>1.755</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C203" t="n">
         <v>1.755</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D203" t="n">
         <v>1.755</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E203" t="n">
         <v>1.755</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F203" t="n">
         <v>576</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G203" t="n">
         <v>-3807261.32412035</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
         <v>1.748</v>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
         <v>1.755</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C204" t="n">
         <v>1.755</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D204" t="n">
         <v>1.755</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E204" t="n">
         <v>1.755</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F204" t="n">
         <v>288</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G204" t="n">
         <v>-3807261.32412035</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
         <v>1.748</v>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
         <v>1.755</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C205" t="n">
         <v>1.755</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D205" t="n">
         <v>1.755</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E205" t="n">
         <v>1.755</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F205" t="n">
         <v>425565.3913</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G205" t="n">
         <v>-3807261.32412035</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="K134" t="n">
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
         <v>1.748</v>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
         <v>1.755</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C206" t="n">
         <v>1.788</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D206" t="n">
         <v>1.788</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E206" t="n">
         <v>1.75</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F206" t="n">
         <v>345892.1989</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G206" t="n">
         <v>-3461369.12522035</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
         <v>1.748</v>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>1.79</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C207" t="n">
         <v>1.79</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D207" t="n">
         <v>1.79</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E207" t="n">
         <v>1.79</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F207" t="n">
         <v>576</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G207" t="n">
         <v>-3460793.12522035</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
         <v>1.748</v>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
         <v>1.76</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C208" t="n">
         <v>1.76</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D208" t="n">
         <v>1.76</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E208" t="n">
         <v>1.76</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F208" t="n">
         <v>1743.08</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G208" t="n">
         <v>-3462536.20522035</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
         <v>1.748</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
         <v>1.76</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C209" t="n">
         <v>1.79</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D209" t="n">
         <v>1.79</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E209" t="n">
         <v>1.76</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F209" t="n">
         <v>1838.6</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G209" t="n">
         <v>-3460697.60522035</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
         <v>1.748</v>
       </c>
-      <c r="L138" t="inlineStr">
+      <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
         <v>1.79</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C210" t="n">
         <v>1.79</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D210" t="n">
         <v>1.79</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E210" t="n">
         <v>1.79</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F210" t="n">
         <v>46257.8996</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G210" t="n">
         <v>-3460697.60522035</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
         <v>1.748</v>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
         <v>1.79</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C211" t="n">
         <v>1.79</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D211" t="n">
         <v>1.79</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E211" t="n">
         <v>1.79</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F211" t="n">
         <v>576</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G211" t="n">
         <v>-3460697.60522035</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
         <v>1.748</v>
       </c>
-      <c r="L140" t="inlineStr">
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
         <v>1.79</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C212" t="n">
         <v>1.79</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D212" t="n">
         <v>1.79</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E212" t="n">
         <v>1.79</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F212" t="n">
         <v>288</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G212" t="n">
         <v>-3460697.60522035</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
         <v>1.748</v>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
         <v>1.79</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C213" t="n">
         <v>1.79</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D213" t="n">
         <v>1.79</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E213" t="n">
         <v>1.79</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F213" t="n">
         <v>288</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G213" t="n">
         <v>-3460697.60522035</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
         <v>1.748</v>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
         <v>1.79</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C214" t="n">
         <v>1.799</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D214" t="n">
         <v>1.799</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E214" t="n">
         <v>1.79</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F214" t="n">
         <v>104997.1979</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G214" t="n">
         <v>-3355700.40732035</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
         <v>1.748</v>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-814079.2635999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,19 @@
         <v>2021689.794729499</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>1.721</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.721</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1942,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1981,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2053,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2086,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2152,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2218,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2251,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2284,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2317,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2350,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2383,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2416,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2449,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2482,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2515,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2548,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2581,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2614,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2647,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2680,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2713,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2746,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2779,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2812,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2845,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2878,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2911,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2944,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2977,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3010,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3043,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3076,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3109,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3142,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3175,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3208,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3241,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3274,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3307,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3340,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3373,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3406,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3439,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3472,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3505,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3538,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3571,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3604,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3637,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3670,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3703,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3736,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3769,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3802,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3835,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3868,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3901,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3934,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3967,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4000,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4033,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4066,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4099,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4132,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4165,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4198,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4231,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4264,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4297,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4330,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4363,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4396,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4429,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4462,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4495,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4528,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4559,21 @@
         <v>-3302199.506441002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4600,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4637,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +4672,21 @@
         <v>-4677995.882641003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1.732</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4713,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4750,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4787,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4824,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4861,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4898,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4935,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4972,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5009,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +5044,21 @@
         <v>-4836019.547841003</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1.752</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5085,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5122,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5159,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5196,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5233,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5270,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5307,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5342,21 @@
         <v>-5151068.645041004</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5383,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5420,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5455,21 @@
         <v>-5135095.635041004</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1.749</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5494,21 @@
         <v>-5135095.635041004</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5535,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5572,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5609,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,18 +5644,21 @@
         <v>-5139424.022241004</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1.743</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5685,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5720,21 @@
         <v>-6025361.760941004</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5761,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5798,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5835,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5870,19 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5907,17 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5942,15 @@
         <v>-4442021.098341004</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5975,15 @@
         <v>-4221154.966441004</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6010,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6043,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +6074,15 @@
         <v>-4999732.030641004</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +6107,15 @@
         <v>-5232725.419341004</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +6140,15 @@
         <v>-5232444.520441003</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6175,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6540,18 +6206,15 @@
         <v>-5359518.400141004</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6241,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6274,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6307,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6340,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6720,18 +6371,15 @@
         <v>-5339450.183641003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6756,18 +6404,15 @@
         <v>-5353701.563941004</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6792,18 +6437,15 @@
         <v>-5421964.039241004</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6470,15 @@
         <v>-5218460.183441004</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6505,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6538,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6936,18 +6569,19 @@
         <v>-4499592.465741004</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>1.732</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.732</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6608,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6647,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7044,18 +6684,19 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>1.744</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.744</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7080,18 +6721,23 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>1.744</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6764,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6803,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,22 +6834,19 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1.748</v>
       </c>
       <c r="J189" t="n">
         <v>1.748</v>
       </c>
-      <c r="K189" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7230,22 +6873,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
         <v>1.748</v>
       </c>
-      <c r="L190" t="inlineStr">
+      <c r="K190" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7272,24 +6912,19 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>1.748</v>
       </c>
-      <c r="K191" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="K191" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7314,24 +6949,21 @@
         <v>-3260584.560620351</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
         <v>1.748</v>
       </c>
-      <c r="L192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7356,24 +6988,21 @@
         <v>-3476646.429220351</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
         <v>1.748</v>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7400,22 +7029,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
         <v>1.748</v>
       </c>
-      <c r="L194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7442,22 +7068,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
         <v>1.748</v>
       </c>
-      <c r="L195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7484,22 +7107,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
         <v>1.748</v>
       </c>
-      <c r="L196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7526,22 +7146,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
         <v>1.748</v>
       </c>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7566,26 +7183,21 @@
         <v>-4084353.824420351</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="K198" t="n">
         <v>1.748</v>
       </c>
-      <c r="L198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7610,26 +7222,21 @@
         <v>-3934140.55782035</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="K199" t="n">
         <v>1.748</v>
       </c>
-      <c r="L199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7654,26 +7261,21 @@
         <v>-3808413.32412035</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="K200" t="n">
         <v>1.748</v>
       </c>
-      <c r="L200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7700,22 +7302,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
         <v>1.748</v>
       </c>
-      <c r="L201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7742,22 +7341,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
         <v>1.748</v>
       </c>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7784,22 +7380,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
         <v>1.748</v>
       </c>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7826,22 +7419,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
         <v>1.748</v>
       </c>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7868,22 +7458,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
         <v>1.748</v>
       </c>
-      <c r="L205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7910,22 +7497,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
         <v>1.748</v>
       </c>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7952,22 +7536,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
         <v>1.748</v>
       </c>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7994,22 +7575,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
         <v>1.748</v>
       </c>
-      <c r="L208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8036,22 +7614,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
         <v>1.748</v>
       </c>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8078,22 +7653,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
         <v>1.748</v>
       </c>
-      <c r="L210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8120,22 +7692,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
         <v>1.748</v>
       </c>
-      <c r="L211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8162,22 +7731,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
         <v>1.748</v>
       </c>
-      <c r="L212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8204,22 +7770,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
         <v>1.748</v>
       </c>
-      <c r="L213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8246,24 +7809,21 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
         <v>1.748</v>
       </c>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
         <v>-814079.2635999999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1903,14 +1903,10 @@
         <v>2021689.794729499</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.721</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1943,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1982,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -3701,7 +3685,7 @@
         <v>-1480923.278441003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3734,7 +3718,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3767,7 +3751,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3800,7 +3784,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3833,7 +3817,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3866,7 +3850,7 @@
         <v>-1514665.342741002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3899,7 +3883,7 @@
         <v>-1516221.342741002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3932,7 +3916,7 @@
         <v>-1949754.021441002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3998,7 +3982,7 @@
         <v>-1817752.511641002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4559,17 +4543,11 @@
         <v>-3302199.506441002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4602,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4639,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4672,17 +4642,11 @@
         <v>-4677995.882641003</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1.732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4715,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4752,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4900,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4937,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5044,17 +4972,11 @@
         <v>-4836019.547841003</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5087,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5124,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5198,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5235,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5342,17 +5236,11 @@
         <v>-5151068.645041004</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5385,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5455,17 +5335,11 @@
         <v>-5135095.635041004</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5494,17 +5368,11 @@
         <v>-5135095.635041004</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5537,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5574,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5611,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5644,17 +5500,11 @@
         <v>-5139424.022241004</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.743</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5720,17 +5566,11 @@
         <v>-6025361.760941004</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5837,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5870,15 +5698,11 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5907,16 +5731,14 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
       <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -5942,7 +5764,7 @@
         <v>-4442021.098341004</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5975,7 +5797,7 @@
         <v>-4221154.966441004</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6074,7 +5896,7 @@
         <v>-4999732.030641004</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6107,7 +5929,7 @@
         <v>-5232725.419341004</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6140,7 +5962,7 @@
         <v>-5232444.520441003</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6206,7 +6028,7 @@
         <v>-5359518.400141004</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6371,7 +6193,7 @@
         <v>-5339450.183641003</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6404,7 +6226,7 @@
         <v>-5353701.563941004</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6437,7 +6259,7 @@
         <v>-5421964.039241004</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6470,7 +6292,7 @@
         <v>-5218460.183441004</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6569,7 +6391,7 @@
         <v>-4499592.465741004</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>1.732</v>
@@ -6606,9 +6428,11 @@
         <v>-4496223.855841004</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.733</v>
+      </c>
       <c r="J183" t="n">
         <v>1.732</v>
       </c>
@@ -6645,9 +6469,11 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.745</v>
+      </c>
       <c r="J184" t="n">
         <v>1.732</v>
       </c>
@@ -6684,7 +6510,7 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>1.744</v>
@@ -6721,7 +6547,7 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>1.744</v>
@@ -6762,9 +6588,11 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.743</v>
+      </c>
       <c r="J187" t="n">
         <v>1.744</v>
       </c>
@@ -6801,11 +6629,19 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6834,15 +6670,17 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1.748</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+        <v>1.744</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6875,11 +6713,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -6910,15 +6748,15 @@
         <v>-3044522.692020351</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6949,11 +6787,11 @@
         <v>-3260584.560620351</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6988,11 +6826,11 @@
         <v>-3476646.429220351</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7031,7 +6869,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7070,7 +6908,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7109,7 +6947,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7148,7 +6986,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7183,11 +7021,13 @@
         <v>-4084353.824420351</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1.736</v>
+      </c>
       <c r="J198" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7222,11 +7062,13 @@
         <v>-3934140.55782035</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.736</v>
+      </c>
       <c r="J199" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7261,11 +7103,13 @@
         <v>-3808413.32412035</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.739</v>
+      </c>
       <c r="J200" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7300,11 +7144,13 @@
         <v>-3807837.32412035</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.74</v>
+      </c>
       <c r="J201" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7339,11 +7185,13 @@
         <v>-3807837.32412035</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.754</v>
+      </c>
       <c r="J202" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7382,7 +7230,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7421,7 +7269,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7460,7 +7308,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7499,7 +7347,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7538,7 +7386,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7577,7 +7425,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7616,7 +7464,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7655,7 +7503,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7694,7 +7542,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7733,7 +7581,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7772,7 +7620,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7811,7 +7659,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>1.748</v>
+        <v>1.744</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7824,6 +7672,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1540,7 +1540,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1480923.278441003</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>4611733.895458997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1514665.342741002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-1516221.342741002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-1949754.021441002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1817752.511641002</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -5434,10 +5434,14 @@
         <v>-5139424.022241004</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.743</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5467,11 +5471,19 @@
         <v>-5139424.022241004</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5512,19 @@
         <v>-5139424.022241004</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,10 +5553,14 @@
         <v>-4905666.801641004</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.743</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
@@ -5566,11 +5590,19 @@
         <v>-6025361.760941004</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5634,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6358,10 +6396,14 @@
         <v>-4509016.928141003</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.73</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
@@ -6391,15 +6433,17 @@
         <v>-4499592.465741004</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1.732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,13 +6472,11 @@
         <v>-4496223.855841004</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>1.732</v>
+        <v>1.73</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6469,19 +6511,11 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6510,14 +6544,10 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="J185" t="n">
-        <v>1.744</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
@@ -6547,19 +6577,11 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6588,19 +6610,11 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6629,19 +6643,11 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="J188" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6673,14 +6679,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +6712,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +6745,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +6778,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +6811,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +6844,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6907,14 +6877,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6946,14 +6910,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6985,14 +6943,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7021,19 +6973,11 @@
         <v>-4084353.824420351</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="J198" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7062,19 +7006,11 @@
         <v>-3934140.55782035</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7103,19 +7039,11 @@
         <v>-3808413.32412035</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="J200" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7144,19 +7072,11 @@
         <v>-3807837.32412035</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J201" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7185,19 +7105,11 @@
         <v>-3807837.32412035</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="J202" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7229,14 +7141,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7268,14 +7174,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7307,14 +7207,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +7240,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7385,14 +7273,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7424,14 +7306,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7463,14 +7339,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7502,14 +7372,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7541,14 +7405,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7580,14 +7438,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7619,14 +7471,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7658,20 +7504,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -1540,7 +1540,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-877803.9835</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -5590,11 +5590,9 @@
         <v>-6025361.760941004</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>1.743</v>
       </c>
@@ -5736,7 +5734,7 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5769,7 +5767,7 @@
         <v>-4435501.098341004</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5802,7 +5800,7 @@
         <v>-4442021.098341004</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5868,7 +5866,7 @@
         <v>-4466015.481141004</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5934,7 +5932,7 @@
         <v>-4999732.030641004</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6099,10 +6097,14 @@
         <v>-5359518.400141004</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.76</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6132,11 +6134,19 @@
         <v>-5368145.630141004</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6165,11 +6175,19 @@
         <v>-5486227.157241004</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6198,11 +6216,19 @@
         <v>-5339450.183641003</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +6257,19 @@
         <v>-5339450.183641003</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6264,11 +6298,19 @@
         <v>-5353701.563941004</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6297,11 +6339,19 @@
         <v>-5421964.039241004</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +6380,19 @@
         <v>-5218460.183441004</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +6421,19 @@
         <v>-5758109.037241003</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6402,9 +6468,13 @@
         <v>1.73</v>
       </c>
       <c r="J181" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+        <v>1.76</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6433,15 +6503,17 @@
         <v>-4499592.465741004</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.732</v>
+      </c>
       <c r="J182" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -6472,15 +6544,17 @@
         <v>-4496223.855841004</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1.733</v>
+      </c>
       <c r="J183" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
@@ -6511,11 +6585,19 @@
         <v>-4498564.089141005</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +6629,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +6665,19 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.744</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6706,19 @@
         <v>-4507169.941120351</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6643,11 +6747,19 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6676,11 +6788,19 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6709,11 +6829,19 @@
         <v>-3643508.876420351</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6742,11 +6870,19 @@
         <v>-3044522.692020351</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6775,13 +6911,19 @@
         <v>-3260584.560620351</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L192" t="n">
-        <v>1</v>
+        <v>1.017159090909091</v>
       </c>
       <c r="M192" t="inlineStr"/>
     </row>
@@ -6808,7 +6950,7 @@
         <v>-3476646.429220351</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7006,10 +7148,14 @@
         <v>-3934140.55782035</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1.736</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
@@ -7042,8 +7188,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7075,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7237,11 +7395,17 @@
         <v>-3461369.12522035</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1.755</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7274,7 +7438,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7475,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7340,7 +7512,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7373,7 +7549,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7406,7 +7586,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7439,7 +7623,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7472,7 +7660,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7505,7 +7697,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-21 BackTest MXC.xlsx
+++ b/BackTest/2020-01-21 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>60000</v>
       </c>
       <c r="G2" t="n">
-        <v>-638251.0675</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>-638251.0675</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>20000</v>
       </c>
       <c r="G4" t="n">
-        <v>-658251.0675</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1439.8917</v>
       </c>
       <c r="G5" t="n">
-        <v>-656811.1758</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>180000</v>
       </c>
       <c r="G6" t="n">
-        <v>-836811.1758</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>20000</v>
       </c>
       <c r="G7" t="n">
-        <v>-836811.1758</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>40000</v>
       </c>
       <c r="G8" t="n">
-        <v>-836811.1758</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>149224.9945</v>
       </c>
       <c r="G9" t="n">
-        <v>-836811.1758</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>764.3633</v>
       </c>
       <c r="G10" t="n">
-        <v>-836046.8125</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>364755.0135</v>
       </c>
       <c r="G11" t="n">
-        <v>-1200801.826</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10812.16</v>
       </c>
       <c r="G12" t="n">
-        <v>-1200801.826</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>243646.4897</v>
       </c>
       <c r="G13" t="n">
-        <v>-957155.3362999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>46918.0213</v>
       </c>
       <c r="G14" t="n">
-        <v>-957155.3362999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>112670.7078</v>
       </c>
       <c r="G15" t="n">
-        <v>-1069826.0441</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>108776.4295</v>
       </c>
       <c r="G16" t="n">
-        <v>-1069826.0441</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>60650</v>
       </c>
       <c r="G17" t="n">
-        <v>-1009176.0441</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>502.7972</v>
       </c>
       <c r="G18" t="n">
-        <v>-1008673.2469</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>132663.9321</v>
       </c>
       <c r="G19" t="n">
-        <v>-876009.3147999998</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>476.1061</v>
       </c>
       <c r="G20" t="n">
-        <v>-875533.2086999998</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>98512.2944</v>
       </c>
       <c r="G21" t="n">
-        <v>-777020.9142999998</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>469988.3588</v>
       </c>
       <c r="G22" t="n">
-        <v>-1247009.2731</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>197080.688</v>
       </c>
       <c r="G23" t="n">
-        <v>-1247009.2731</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>203599.2296</v>
       </c>
       <c r="G24" t="n">
-        <v>-1247009.2731</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>240723.344</v>
       </c>
       <c r="G25" t="n">
-        <v>-1487732.6171</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>733500.5162</v>
       </c>
       <c r="G26" t="n">
-        <v>-754232.1009</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>360000</v>
       </c>
       <c r="G27" t="n">
-        <v>-394232.1009</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>308476.3224</v>
       </c>
       <c r="G28" t="n">
-        <v>-394232.1009</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>222908.9446</v>
       </c>
       <c r="G29" t="n">
-        <v>-171323.1563</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>77646.0229</v>
       </c>
       <c r="G30" t="n">
-        <v>-93677.13339999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>5914.5848</v>
       </c>
       <c r="G31" t="n">
-        <v>-93677.13339999998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>191179.429</v>
       </c>
       <c r="G32" t="n">
-        <v>-284856.5624</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>520000</v>
       </c>
       <c r="G33" t="n">
-        <v>-804856.5623999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>9222.7012</v>
       </c>
       <c r="G34" t="n">
-        <v>-814079.2635999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>63724.7199</v>
       </c>
       <c r="G35" t="n">
-        <v>-877803.9835</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>65736.3915</v>
       </c>
       <c r="G36" t="n">
-        <v>-877803.9835</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>91428.8605</v>
       </c>
       <c r="G37" t="n">
-        <v>-877803.9835</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3196801.739</v>
       </c>
       <c r="G38" t="n">
-        <v>2318997.7555</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1000</v>
       </c>
       <c r="G39" t="n">
-        <v>2317997.7555</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>20000</v>
       </c>
       <c r="G40" t="n">
-        <v>2297997.7555</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>334263.8914</v>
       </c>
       <c r="G41" t="n">
-        <v>1963733.8641</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>1964733.8641</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>1963733.8641</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>357733.1219</v>
       </c>
       <c r="G44" t="n">
-        <v>1963733.8641</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1000</v>
       </c>
       <c r="G45" t="n">
-        <v>1964733.8641</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>56955.93062949886</v>
       </c>
       <c r="G46" t="n">
-        <v>2021689.794729499</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>2020689.794729499</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>458.0342</v>
       </c>
       <c r="G48" t="n">
-        <v>2021147.828929499</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1000</v>
       </c>
       <c r="G49" t="n">
-        <v>2020147.828929499</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>541.9657999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>2020689.794729499</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>541.9657999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>2020147.828929499</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>861723.6168</v>
       </c>
       <c r="G52" t="n">
-        <v>2881871.445729499</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,21 @@
         <v>184042.8213</v>
       </c>
       <c r="G53" t="n">
-        <v>3065914.267029499</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1.756</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2009,19 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>3064914.267029499</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2043,19 @@
         <v>1971.9743</v>
       </c>
       <c r="G55" t="n">
-        <v>3066886.241329499</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2077,19 @@
         <v>6431.0119</v>
       </c>
       <c r="G56" t="n">
-        <v>3073317.253229498</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2111,19 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>3072317.253229498</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2145,19 @@
         <v>4000</v>
       </c>
       <c r="G58" t="n">
-        <v>3076317.253229498</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2179,19 @@
         <v>6000</v>
       </c>
       <c r="G59" t="n">
-        <v>3082317.253229498</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2213,19 @@
         <v>2000</v>
       </c>
       <c r="G60" t="n">
-        <v>3082317.253229498</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2247,19 @@
         <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>3080317.253229498</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2281,19 @@
         <v>1000.9484</v>
       </c>
       <c r="G62" t="n">
-        <v>3081318.201629499</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2315,19 @@
         <v>26504</v>
       </c>
       <c r="G63" t="n">
-        <v>3107822.201629499</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2349,19 @@
         <v>137746.2492705011</v>
       </c>
       <c r="G64" t="n">
-        <v>2970075.952358997</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2383,19 @@
         <v>356200.6334</v>
       </c>
       <c r="G65" t="n">
-        <v>3326276.585758998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2417,19 @@
         <v>1129.94</v>
       </c>
       <c r="G66" t="n">
-        <v>3325146.645758998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2451,19 @@
         <v>0.0036</v>
       </c>
       <c r="G67" t="n">
-        <v>3325146.645758998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2485,19 @@
         <v>161537.5694</v>
       </c>
       <c r="G68" t="n">
-        <v>3163609.076358998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2519,19 @@
         <v>400000</v>
       </c>
       <c r="G69" t="n">
-        <v>2763609.076358998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2553,19 @@
         <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>2763609.076358998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2587,19 @@
         <v>216718.8538</v>
       </c>
       <c r="G71" t="n">
-        <v>2546890.222558998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2621,19 @@
         <v>248671.5579</v>
       </c>
       <c r="G72" t="n">
-        <v>2546890.222558998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2655,19 @@
         <v>88029.9617</v>
       </c>
       <c r="G73" t="n">
-        <v>2634920.184258997</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2689,19 @@
         <v>626427.8049</v>
       </c>
       <c r="G74" t="n">
-        <v>2634920.184258997</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2723,19 @@
         <v>1000</v>
       </c>
       <c r="G75" t="n">
-        <v>2634920.184258997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2757,19 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>2635920.184258997</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2791,19 @@
         <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>2635920.184258997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2825,19 @@
         <v>1000</v>
       </c>
       <c r="G78" t="n">
-        <v>2636920.184258997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2859,19 @@
         <v>3232.6922</v>
       </c>
       <c r="G79" t="n">
-        <v>2640152.876458997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2893,19 @@
         <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>2639152.876458997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2927,19 @@
         <v>409.7465</v>
       </c>
       <c r="G81" t="n">
-        <v>2639562.622958997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2961,19 @@
         <v>637.6811</v>
       </c>
       <c r="G82" t="n">
-        <v>2639562.622958997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2995,19 @@
         <v>6679381.7522</v>
       </c>
       <c r="G83" t="n">
-        <v>9318944.375158997</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3029,19 @@
         <v>6468651.1984</v>
       </c>
       <c r="G84" t="n">
-        <v>9318944.375158997</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3063,19 @@
         <v>222053.7836</v>
       </c>
       <c r="G85" t="n">
-        <v>9318944.375158997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3097,19 @@
         <v>752267.5716</v>
       </c>
       <c r="G86" t="n">
-        <v>8566676.803558998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3131,19 @@
         <v>10207.6203</v>
       </c>
       <c r="G87" t="n">
-        <v>8556469.183258997</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3165,19 @@
         <v>1409</v>
       </c>
       <c r="G88" t="n">
-        <v>8556469.183258997</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3199,19 @@
         <v>5938711.2775</v>
       </c>
       <c r="G89" t="n">
-        <v>2617757.905758997</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3233,19 @@
         <v>12010876.7537</v>
       </c>
       <c r="G90" t="n">
-        <v>2617757.905758997</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3267,19 @@
         <v>8327.0299</v>
       </c>
       <c r="G91" t="n">
-        <v>2609430.875858997</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3301,19 @@
         <v>960568.5566</v>
       </c>
       <c r="G92" t="n">
-        <v>1648862.319258997</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3335,19 @@
         <v>985950.177</v>
       </c>
       <c r="G93" t="n">
-        <v>2634812.496258997</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3369,19 @@
         <v>6126966.6316</v>
       </c>
       <c r="G94" t="n">
-        <v>2634812.496258997</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3403,19 @@
         <v>6248512.0847</v>
       </c>
       <c r="G95" t="n">
-        <v>8883324.580958996</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3437,19 @@
         <v>415265.0651</v>
       </c>
       <c r="G96" t="n">
-        <v>8468059.515858997</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3471,19 @@
         <v>124579.5195</v>
       </c>
       <c r="G97" t="n">
-        <v>8468059.515858997</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3505,19 @@
         <v>112121.5675</v>
       </c>
       <c r="G98" t="n">
-        <v>8468059.515858997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3539,19 @@
         <v>1874260.8166</v>
       </c>
       <c r="G99" t="n">
-        <v>10342320.332459</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3573,19 @@
         <v>11823243.6109</v>
       </c>
       <c r="G100" t="n">
-        <v>-1480923.278441003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3607,19 @@
         <v>6092657.1739</v>
       </c>
       <c r="G101" t="n">
-        <v>4611733.895458997</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3641,19 @@
         <v>83972.8034</v>
       </c>
       <c r="G102" t="n">
-        <v>4611733.895458997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3675,19 @@
         <v>43002.0799</v>
       </c>
       <c r="G103" t="n">
-        <v>4611733.895458997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3709,19 @@
         <v>6520</v>
       </c>
       <c r="G104" t="n">
-        <v>4611733.895458997</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3743,19 @@
         <v>6126399.2382</v>
       </c>
       <c r="G105" t="n">
-        <v>-1514665.342741002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3777,19 @@
         <v>1556</v>
       </c>
       <c r="G106" t="n">
-        <v>-1516221.342741002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3811,19 @@
         <v>433532.6787</v>
       </c>
       <c r="G107" t="n">
-        <v>-1949754.021441002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3845,19 @@
         <v>133001.5098</v>
       </c>
       <c r="G108" t="n">
-        <v>-1816752.511641002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3879,19 @@
         <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-1817752.511641002</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3913,19 @@
         <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>-1817752.511641002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3947,19 @@
         <v>411460.65</v>
       </c>
       <c r="G111" t="n">
-        <v>-2229213.161641002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3981,19 @@
         <v>285</v>
       </c>
       <c r="G112" t="n">
-        <v>-2228928.161641002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4015,19 @@
         <v>300</v>
       </c>
       <c r="G113" t="n">
-        <v>-2228928.161641002</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4049,19 @@
         <v>300</v>
       </c>
       <c r="G114" t="n">
-        <v>-2228928.161641002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4083,19 @@
         <v>330635.2426</v>
       </c>
       <c r="G115" t="n">
-        <v>-2228928.161641002</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4117,19 @@
         <v>203178.4641</v>
       </c>
       <c r="G116" t="n">
-        <v>-2432106.625741002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4151,19 @@
         <v>51315.97</v>
       </c>
       <c r="G117" t="n">
-        <v>-2380790.655741002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4185,19 @@
         <v>290</v>
       </c>
       <c r="G118" t="n">
-        <v>-2380500.655741002</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4219,19 @@
         <v>2000</v>
       </c>
       <c r="G119" t="n">
-        <v>-2382500.655741002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4253,21 @@
         <v>290</v>
       </c>
       <c r="G120" t="n">
-        <v>-2382210.655741002</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1.746</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4289,19 @@
         <v>1000</v>
       </c>
       <c r="G121" t="n">
-        <v>-2383210.655741002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4323,21 @@
         <v>523280.5214</v>
       </c>
       <c r="G122" t="n">
-        <v>-2906491.177141002</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1.746</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4359,19 @@
         <v>1000</v>
       </c>
       <c r="G123" t="n">
-        <v>-2906491.177141002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4393,19 @@
         <v>127442.45</v>
       </c>
       <c r="G124" t="n">
-        <v>-3033933.627141002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4427,19 @@
         <v>173126.0469</v>
       </c>
       <c r="G125" t="n">
-        <v>-3033933.627141002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4461,19 @@
         <v>268265.8793</v>
       </c>
       <c r="G126" t="n">
-        <v>-3302199.506441002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4495,21 @@
         <v>370488.7909</v>
       </c>
       <c r="G127" t="n">
-        <v>-3672688.297341002</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1.737</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4531,21 @@
         <v>1007460.798</v>
       </c>
       <c r="G128" t="n">
-        <v>-4680149.095341003</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1.736</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4567,21 @@
         <v>2153.2127</v>
       </c>
       <c r="G129" t="n">
-        <v>-4677995.882641003</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1.732</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4603,21 @@
         <v>1742239.2939</v>
       </c>
       <c r="G130" t="n">
-        <v>-4677995.882641003</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1.759</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4639,21 @@
         <v>896.8307</v>
       </c>
       <c r="G131" t="n">
-        <v>-4678892.713341002</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1.759</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4675,21 @@
         <v>154331.2179</v>
       </c>
       <c r="G132" t="n">
-        <v>-4833223.931241002</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1.758</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4711,21 @@
         <v>821073.7296</v>
       </c>
       <c r="G133" t="n">
-        <v>-4833223.931241002</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1.729</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4747,21 @@
         <v>22339.5781</v>
       </c>
       <c r="G134" t="n">
-        <v>-4810884.353141002</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1.729</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4783,21 @@
         <v>25723.4301</v>
       </c>
       <c r="G135" t="n">
-        <v>-4836607.783241003</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1.755</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4819,21 @@
         <v>35750.9739</v>
       </c>
       <c r="G136" t="n">
-        <v>-4836607.783241003</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4855,21 @@
         <v>65442.9141</v>
       </c>
       <c r="G137" t="n">
-        <v>-4836607.783241003</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4891,19 @@
         <v>588.2354</v>
       </c>
       <c r="G138" t="n">
-        <v>-4836019.547841003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4925,19 @@
         <v>2015.8195</v>
       </c>
       <c r="G139" t="n">
-        <v>-4836019.547841003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4959,19 @@
         <v>29584.1805</v>
       </c>
       <c r="G140" t="n">
-        <v>-4836019.547841003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4993,19 @@
         <v>21000</v>
       </c>
       <c r="G141" t="n">
-        <v>-4857019.547841003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5027,21 @@
         <v>31000</v>
       </c>
       <c r="G142" t="n">
-        <v>-4857019.547841003</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1.751</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5063,21 @@
         <v>27548.9701</v>
       </c>
       <c r="G143" t="n">
-        <v>-4829470.577741004</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1.751</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5099,21 @@
         <v>100551.0299</v>
       </c>
       <c r="G144" t="n">
-        <v>-4930021.607641004</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1.752</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5135,19 @@
         <v>378601.3563</v>
       </c>
       <c r="G145" t="n">
-        <v>-5308622.963941004</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5169,21 @@
         <v>93880.6811</v>
       </c>
       <c r="G146" t="n">
-        <v>-5402503.645041004</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1.732</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5205,21 @@
         <v>251435</v>
       </c>
       <c r="G147" t="n">
-        <v>-5151068.645041004</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5241,19 @@
         <v>8230.67</v>
       </c>
       <c r="G148" t="n">
-        <v>-5142837.975041004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5275,19 @@
         <v>6423.37</v>
       </c>
       <c r="G149" t="n">
-        <v>-5142837.975041004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5309,19 @@
         <v>7742.34</v>
       </c>
       <c r="G150" t="n">
-        <v>-5135095.635041004</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5343,19 @@
         <v>2641.81</v>
       </c>
       <c r="G151" t="n">
-        <v>-5135095.635041004</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5377,19 @@
         <v>4328.3872</v>
       </c>
       <c r="G152" t="n">
-        <v>-5139424.022241004</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,22 +5411,19 @@
         <v>33207.87</v>
       </c>
       <c r="G153" t="n">
-        <v>-5139424.022241004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5468,26 +5445,19 @@
         <v>10332.32</v>
       </c>
       <c r="G154" t="n">
-        <v>-5139424.022241004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5509,26 +5479,21 @@
         <v>37438.1956</v>
       </c>
       <c r="G155" t="n">
-        <v>-5139424.022241004</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
         <v>1.743</v>
       </c>
-      <c r="J155" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5550,22 +5515,21 @@
         <v>233757.2206</v>
       </c>
       <c r="G156" t="n">
-        <v>-4905666.801641004</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
         <v>1.743</v>
       </c>
-      <c r="J156" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5587,24 +5551,19 @@
         <v>1119694.9593</v>
       </c>
       <c r="G157" t="n">
-        <v>-6025361.760941004</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5626,24 +5585,19 @@
         <v>324179.7</v>
       </c>
       <c r="G158" t="n">
-        <v>-5701182.060941004</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5665,18 +5619,19 @@
         <v>594</v>
       </c>
       <c r="G159" t="n">
-        <v>-5700588.060941004</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5698,18 +5653,19 @@
         <v>1380348</v>
       </c>
       <c r="G160" t="n">
-        <v>-4320240.060941004</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5731,18 +5687,19 @@
         <v>115261.0374</v>
       </c>
       <c r="G161" t="n">
-        <v>-4435501.098341004</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5764,18 +5721,19 @@
         <v>374556.6605</v>
       </c>
       <c r="G162" t="n">
-        <v>-4435501.098341004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5797,18 +5755,19 @@
         <v>6520</v>
       </c>
       <c r="G163" t="n">
-        <v>-4442021.098341004</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5830,18 +5789,19 @@
         <v>220866.1319</v>
       </c>
       <c r="G164" t="n">
-        <v>-4221154.966441004</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5863,18 +5823,17 @@
         <v>244860.5147</v>
       </c>
       <c r="G165" t="n">
-        <v>-4466015.481141004</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5896,18 +5855,15 @@
         <v>175657.9849</v>
       </c>
       <c r="G166" t="n">
-        <v>-4466015.481141004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5929,18 +5885,15 @@
         <v>533716.5495</v>
       </c>
       <c r="G167" t="n">
-        <v>-4999732.030641004</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5962,18 +5915,15 @@
         <v>232993.3887</v>
       </c>
       <c r="G168" t="n">
-        <v>-5232725.419341004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5995,18 +5945,15 @@
         <v>280.8989</v>
       </c>
       <c r="G169" t="n">
-        <v>-5232444.520441003</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6028,18 +5975,15 @@
         <v>127073.8797</v>
       </c>
       <c r="G170" t="n">
-        <v>-5359518.400141004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6061,18 +6005,15 @@
         <v>20000</v>
       </c>
       <c r="G171" t="n">
-        <v>-5359518.400141004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6094,22 +6035,15 @@
         <v>3000</v>
       </c>
       <c r="G172" t="n">
-        <v>-5359518.400141004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6131,26 +6065,15 @@
         <v>8627.23</v>
       </c>
       <c r="G173" t="n">
-        <v>-5368145.630141004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6172,26 +6095,15 @@
         <v>118081.5271</v>
       </c>
       <c r="G174" t="n">
-        <v>-5486227.157241004</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="J174" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6213,26 +6125,15 @@
         <v>146776.9736</v>
       </c>
       <c r="G175" t="n">
-        <v>-5339450.183641003</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J175" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6254,26 +6155,15 @@
         <v>12739.6122</v>
       </c>
       <c r="G176" t="n">
-        <v>-5339450.183641003</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="J176" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6295,26 +6185,15 @@
         <v>14251.3803</v>
       </c>
       <c r="G177" t="n">
-        <v>-5353701.563941004</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="J177" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6336,26 +6215,15 @@
         <v>68262.47530000001</v>
       </c>
       <c r="G178" t="n">
-        <v>-5421964.039241004</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J178" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6377,26 +6245,15 @@
         <v>203503.8558</v>
       </c>
       <c r="G179" t="n">
-        <v>-5218460.183441004</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1.728</v>
-      </c>
-      <c r="J179" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6418,26 +6275,15 @@
         <v>539648.8538</v>
       </c>
       <c r="G180" t="n">
-        <v>-5758109.037241003</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="J180" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6459,26 +6305,15 @@
         <v>1249092.1091</v>
       </c>
       <c r="G181" t="n">
-        <v>-4509016.928141003</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J181" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6500,26 +6335,15 @@
         <v>9424.4624</v>
       </c>
       <c r="G182" t="n">
-        <v>-4499592.465741004</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="J182" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6541,26 +6365,15 @@
         <v>3368.6099</v>
       </c>
       <c r="G183" t="n">
-        <v>-4496223.855841004</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.733</v>
-      </c>
-      <c r="J183" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6582,26 +6395,15 @@
         <v>2340.2333</v>
       </c>
       <c r="G184" t="n">
-        <v>-4498564.089141005</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.745</v>
-      </c>
-      <c r="J184" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6623,24 +6425,15 @@
         <v>3667.0994</v>
       </c>
       <c r="G185" t="n">
-        <v>-4498564.089141005</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6662,26 +6455,15 @@
         <v>8605.851979345955</v>
       </c>
       <c r="G186" t="n">
-        <v>-4507169.941120351</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="J186" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6703,26 +6485,15 @@
         <v>290</v>
       </c>
       <c r="G187" t="n">
-        <v>-4507169.941120351</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.743</v>
-      </c>
-      <c r="J187" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6744,26 +6515,21 @@
         <v>863661.0647</v>
       </c>
       <c r="G188" t="n">
-        <v>-3643508.876420351</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
         <v>1.743</v>
       </c>
-      <c r="J188" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6785,26 +6551,21 @@
         <v>66261.50719999999</v>
       </c>
       <c r="G189" t="n">
-        <v>-3643508.876420351</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
         <v>1.748</v>
       </c>
-      <c r="J189" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6826,26 +6587,21 @@
         <v>42644.2136</v>
       </c>
       <c r="G190" t="n">
-        <v>-3643508.876420351</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
         <v>1.748</v>
       </c>
-      <c r="J190" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6867,26 +6623,21 @@
         <v>598986.1844</v>
       </c>
       <c r="G191" t="n">
-        <v>-3044522.692020351</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
         <v>1.748</v>
       </c>
-      <c r="J191" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6908,24 +6659,19 @@
         <v>216061.8686</v>
       </c>
       <c r="G192" t="n">
-        <v>-3260584.560620351</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1.017159090909091</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6947,18 +6693,19 @@
         <v>216061.8686</v>
       </c>
       <c r="G193" t="n">
-        <v>-3476646.429220351</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6980,18 +6727,19 @@
         <v>14318.589</v>
       </c>
       <c r="G194" t="n">
-        <v>-3462327.840220351</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7013,18 +6761,19 @@
         <v>751502.1746</v>
       </c>
       <c r="G195" t="n">
-        <v>-4213830.01482035</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7046,18 +6795,19 @@
         <v>1237009.0115</v>
       </c>
       <c r="G196" t="n">
-        <v>-2976821.00332035</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7079,18 +6829,19 @@
         <v>1107532.8211</v>
       </c>
       <c r="G197" t="n">
-        <v>-4084353.824420351</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7112,18 +6863,19 @@
         <v>55467.1789</v>
       </c>
       <c r="G198" t="n">
-        <v>-4084353.824420351</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7145,22 +6897,19 @@
         <v>150213.2666</v>
       </c>
       <c r="G199" t="n">
-        <v>-3934140.55782035</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="J199" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7182,24 +6931,19 @@
         <v>125727.2337</v>
       </c>
       <c r="G200" t="n">
-        <v>-3808413.32412035</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7221,24 +6965,19 @@
         <v>576</v>
       </c>
       <c r="G201" t="n">
-        <v>-3807837.32412035</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.736</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7260,18 +6999,19 @@
         <v>864</v>
       </c>
       <c r="G202" t="n">
-        <v>-3807837.32412035</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7293,18 +7033,19 @@
         <v>576</v>
       </c>
       <c r="G203" t="n">
-        <v>-3807261.32412035</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7326,18 +7067,19 @@
         <v>288</v>
       </c>
       <c r="G204" t="n">
-        <v>-3807261.32412035</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7359,18 +7101,19 @@
         <v>425565.3913</v>
       </c>
       <c r="G205" t="n">
-        <v>-3807261.32412035</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7392,24 +7135,19 @@
         <v>345892.1989</v>
       </c>
       <c r="G206" t="n">
-        <v>-3461369.12522035</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>1.755</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7431,22 +7169,19 @@
         <v>576</v>
       </c>
       <c r="G207" t="n">
-        <v>-3460793.12522035</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7468,22 +7203,19 @@
         <v>1743.08</v>
       </c>
       <c r="G208" t="n">
-        <v>-3462536.20522035</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7505,22 +7237,19 @@
         <v>1838.6</v>
       </c>
       <c r="G209" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7542,22 +7271,19 @@
         <v>46257.8996</v>
       </c>
       <c r="G210" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7579,22 +7305,19 @@
         <v>576</v>
       </c>
       <c r="G211" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7616,22 +7339,19 @@
         <v>288</v>
       </c>
       <c r="G212" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7653,22 +7373,19 @@
         <v>288</v>
       </c>
       <c r="G213" t="n">
-        <v>-3460697.60522035</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7690,22 +7407,19 @@
         <v>104997.1979</v>
       </c>
       <c r="G214" t="n">
-        <v>-3355700.40732035</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
